--- a/BAS_memo.xlsx
+++ b/BAS_memo.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30AEB27-BEE9-4D6E-9B78-45D8210F830C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6AD565-9701-4810-B63A-60B513F06DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
     <sheet name="サイドメニュー一覧" sheetId="1" r:id="rId2"/>
-    <sheet name="重要ファイル" sheetId="2" r:id="rId3"/>
-    <sheet name="Maven" sheetId="4" r:id="rId4"/>
+    <sheet name="GitHub" sheetId="9" r:id="rId3"/>
+    <sheet name="重要ファイル" sheetId="2" r:id="rId4"/>
+    <sheet name="Maven" sheetId="4" r:id="rId5"/>
+    <sheet name="SpringBoot" sheetId="5" r:id="rId6"/>
+    <sheet name="Command" sheetId="6" r:id="rId7"/>
+    <sheet name="CAP" sheetId="7" r:id="rId8"/>
+    <sheet name="Java(SpringBatch)" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="415">
   <si>
     <t>Configure Keybinding</t>
   </si>
@@ -163,9 +168,6 @@
   </si>
   <si>
     <t>Guide Center / Joule</t>
-  </si>
-  <si>
-    <t>AIアシスタント（まだ日本語弱い）</t>
   </si>
   <si>
     <t>Service Marketplaceのショートカット</t>
@@ -515,80 +517,1040 @@
     <t>mvn spring-boot:run</t>
   </si>
   <si>
+    <t>タグ</t>
+  </si>
+  <si>
+    <t>役割</t>
+  </si>
+  <si>
+    <t>例</t>
+  </si>
+  <si>
+    <t>外部ライブラリ全部ここに書く</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spring-boot-starter-web など</t>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;</t>
+  </si>
+  <si>
+    <t>1つのライブラリ定義</t>
+  </si>
+  <si>
+    <t>&lt;groupId&gt;</t>
+  </si>
+  <si>
+    <t>組織名（会社名）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> org.springframework.boot</t>
+  </si>
+  <si>
+    <t>&lt;artifactId&gt;</t>
+  </si>
+  <si>
+    <t>ライブラリ名</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spring-boot-starter-web</t>
+  </si>
+  <si>
+    <t>&lt;version&gt;</t>
+  </si>
+  <si>
+    <t>バージョン</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.2.0</t>
+  </si>
+  <si>
+    <t>&lt;build&gt;&lt;plugins&gt;</t>
+  </si>
+  <si>
+    <t>ビルド時に使うプラグイン</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cloudfoundry-maven-plugin など</t>
+  </si>
+  <si>
+    <t>&lt;properties&gt;</t>
+  </si>
+  <si>
+    <t>バージョン統一管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;java.version&gt;17&lt;/java.version&gt;</t>
+  </si>
+  <si>
+    <t>Maven基本コマンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pom.xmlの超重要タグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Spring Bootアプリをローカル起動（超便利）</t>
-  </si>
-  <si>
-    <t>タグ</t>
-  </si>
-  <si>
-    <t>役割</t>
-  </si>
-  <si>
-    <t>例</t>
-  </si>
-  <si>
-    <t>外部ライブラリ全部ここに書く</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spring-boot-starter-web など</t>
-  </si>
-  <si>
-    <t>&lt;dependency&gt;</t>
-  </si>
-  <si>
-    <t>1つのライブラリ定義</t>
-  </si>
-  <si>
-    <t>&lt;groupId&gt;</t>
-  </si>
-  <si>
-    <t>組織名（会社名）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> org.springframework.boot</t>
-  </si>
-  <si>
-    <t>&lt;artifactId&gt;</t>
-  </si>
-  <si>
-    <t>ライブラリ名</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spring-boot-starter-web</t>
-  </si>
-  <si>
-    <t>&lt;version&gt;</t>
-  </si>
-  <si>
-    <t>バージョン</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.2.0</t>
-  </si>
-  <si>
-    <t>&lt;build&gt;&lt;plugins&gt;</t>
-  </si>
-  <si>
-    <t>ビルド時に使うプラグイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cloudfoundry-maven-plugin など</t>
-  </si>
-  <si>
-    <t>&lt;properties&gt;</t>
-  </si>
-  <si>
-    <t>バージョン統一管理</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;java.version&gt;17&lt;/java.version&gt;</t>
-  </si>
-  <si>
-    <t>Maven基本コマンド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pom.xmlの超重要タグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>昔のJava Webアプリ（地獄）</t>
+  </si>
+  <si>
+    <t>Spring Bootでやると（天国）</t>
+  </si>
+  <si>
+    <t>設定ファイル</t>
+  </si>
+  <si>
+    <t>30個くらいXML設定ファイル書く</t>
+  </si>
+  <si>
+    <t>ほぼゼロ（自動設定）</t>
+  </si>
+  <si>
+    <t>Tomcat</t>
+  </si>
+  <si>
+    <t>自分でインストール・起動</t>
+  </si>
+  <si>
+    <t>内蔵Tomcatが勝手に起動</t>
+  </si>
+  <si>
+    <t>依存ライブラリ</t>
+  </si>
+  <si>
+    <t>1つずつ探して手動追加</t>
+  </si>
+  <si>
+    <t>1行書くだけで全部自動取得</t>
+  </si>
+  <si>
+    <t>起動方法</t>
+  </si>
+  <si>
+    <t>mainメソッドすら書かない</t>
+  </si>
+  <si>
+    <t>1つのmainクラスだけでアプリ起動</t>
+  </si>
+  <si>
+    <t>BTPでSpring Bootが超重要な理由</t>
+  </si>
+  <si>
+    <t>やりたいこと</t>
+  </si>
+  <si>
+    <t>Spring Bootがやってくれること</t>
+  </si>
+  <si>
+    <t>REST API作りたい</t>
+  </si>
+  <si>
+    <t>5行で完成</t>
+  </si>
+  <si>
+    <t>データベース接続したい</t>
+  </si>
+  <si>
+    <t>application.ymlに4行書くだけで自動接続</t>
+  </si>
+  <si>
+    <t>BTPにデプロイしたい</t>
+  </si>
+  <si>
+    <t>mvn package → cf push で即本番</t>
+  </si>
+  <si>
+    <t>ローカルですぐ試したい</t>
+  </si>
+  <si>
+    <t>mvn spring-boot:run で0.5秒で起動</t>
+  </si>
+  <si>
+    <t>JavaでWebアプリを作るのがめちゃくちゃ簡単になるフレームワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tomcatも腹持ちしている</t>
+    <rPh sb="7" eb="9">
+      <t>ハラモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意味・使いどころ</t>
+  </si>
+  <si>
+    <t>覚えると死ぬほど楽になる度</t>
+  </si>
+  <si>
+    <t>cds watch</t>
+  </si>
+  <si>
+    <t>CAPプロジェクト最強！変更→即自動リロード</t>
+  </si>
+  <si>
+    <t>Spring Bootアプリを爆速ローカル起動</t>
+  </si>
+  <si>
+    <t>npm run start / npm start</t>
+  </si>
+  <si>
+    <t>UI5/Fioriアプリをローカルでプレビュー</t>
+  </si>
+  <si>
+    <t>cf login → cf target</t>
+  </si>
+  <si>
+    <t>BTPのorg/spaceにログイン＆切り替え</t>
+  </si>
+  <si>
+    <t>cf push</t>
+  </si>
+  <si>
+    <t>1ファイルでBTPに即デプロイ（最速）</t>
+  </si>
+  <si>
+    <t>mbt build</t>
+  </si>
+  <si>
+    <t>mta.yaml → .mtar 作成（MTARデプロイ第1歩）</t>
+  </si>
+  <si>
+    <t>cf deploy xxx.mtar</t>
+  </si>
+  <si>
+    <t>本番同等環境を一発デプロイ</t>
+  </si>
+  <si>
+    <t>cds add hana</t>
+  </si>
+  <si>
+    <t>HANA DB用の設定を自動追加</t>
+  </si>
+  <si>
+    <t>git pull / git add . / git commit -m "msg" / git push</t>
+  </si>
+  <si>
+    <t>Gitの4大基本</t>
+  </si>
+  <si>
+    <t>code .</t>
+  </si>
+  <si>
+    <t>今いるフォルダをBASで開く（超便利）</t>
+  </si>
+  <si>
+    <t>tree -L 2</t>
+  </si>
+  <si>
+    <t>フォルダ構成を綺麗に表示</t>
+  </si>
+  <si>
+    <t>find . -name "*.java" | grep "文字列"</t>
+  </si>
+  <si>
+    <t>プロジェクト全体から文字列検索</t>
+  </si>
+  <si>
+    <t>cf logs app-name --recent</t>
+  </si>
+  <si>
+    <t>アプリのログを一発で見る</t>
+  </si>
+  <si>
+    <t>cf marketplace → cf create-service</t>
+  </si>
+  <si>
+    <t>サービス（HANA,XSUAA等）作成</t>
+  </si>
+  <si>
+    <t>Ctrl+R → キーワード</t>
+  </si>
+  <si>
+    <t>過去コマンドを爆速検索（神ショートカット）</t>
+  </si>
+  <si>
+    <t>最強の覚え方（これだけ完璧に覚えれば一生困らない）</t>
+  </si>
+  <si>
+    <t>順位</t>
+  </si>
+  <si>
+    <t>コメント</t>
+  </si>
+  <si>
+    <t>CAP開発の命</t>
+  </si>
+  <si>
+    <t>Java開発の命</t>
+  </si>
+  <si>
+    <t>デプロイの命</t>
+  </si>
+  <si>
+    <t>cds watch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cds watchの動作</t>
+    <rPh sb="10" eb="12">
+      <t>ドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①cds watch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Node.js で動く OData REST API サーバー が立ち上がる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. CDS で書いたデータモデルを自動でテーブル化</t>
+  </si>
+  <si>
+    <t>2. 自動で /odata/v4/xxx という REST API を生成</t>
+  </si>
+  <si>
+    <t>3. ブラウザや Fiori アプリから呼び出せるエンドポイントになる</t>
+  </si>
+  <si>
+    <t>あなたのPC（BASのターミナル）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      │</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ├─→ cds watch  ← これを打つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ↓</t>
+  </si>
+  <si>
+    <t>【CAPサーバー（Node.js）】 ← ここが「サーバー」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ポート 4004 で待機</t>
+  </si>
+  <si>
+    <t>FioriアプリやPostmanからも同じURLでデータが取れる</t>
+  </si>
+  <si>
+    <t>&lt;イメージ&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザ → http://localhost:4004 → 「Welcome to CAP!」画面が見える　※１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※１　補足</t>
+    <rPh sb="3" eb="5">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポート4004は、クラウドのCAPサーバがcds watchをすると開いてくれる。この状態で「 http://localhost:4004」すると、ポートフォワーディングされて繋がる。</t>
+    <rPh sb="34" eb="35">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ツナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cd /home/user/projects</t>
+  </si>
+  <si>
+    <t>cds init</t>
+  </si>
+  <si>
+    <t>npm install</t>
+  </si>
+  <si>
+    <t>cds add sample</t>
+  </si>
+  <si>
+    <t>cds add ui5</t>
+  </si>
+  <si>
+    <t>■Hello world</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cd /home/user/projects</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mkdir my-first-cap &amp;&amp; cd my-first-cap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cds initで作られた「package.json」に書かれている必要なライブラリをまとめてダウンロード＆インストールするコマンドです。</t>
+    <rPh sb="9" eb="10">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>my-first-capフォルダにファイル一式が作られる（package.jsonなど）</t>
+    <rPh sb="21" eb="23">
+      <t>イッシキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存の CAP プロジェクトに機能やサンプルを追加する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CAP プロジェクトで UI5（Fiori など）の画面を扱いやすくするための設定を追加する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルドされた後に、CAPサーバが起動する。最後のほうにlocalhostのURLが出力されるのでクリックすると新しいタブが開いてページが表示される。</t>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発用サーバーを立ち上げて、ファイルの変更を自動で反映してくれる“見張り役”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更を監視しているので、CAPサーバを起動したままファイルを変更すると即座に反映される。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キドウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ソクザ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cd hello-world-spring-batch</t>
+  </si>
+  <si>
+    <t>mvn clean package -DskipTests</t>
+  </si>
+  <si>
+    <t>この Spring Batch プロジェクトのソースコードをコンパイルして、実行できる形（jar）にまとめる。ただしテストは省略</t>
+  </si>
+  <si>
+    <t>この Spring Batch のアプリを、Spring Boot として実行する</t>
+  </si>
+  <si>
+    <t>Spring Batch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Job Scheduling Service</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tasklet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chunk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大量のデータをまとめて処理するための Java 用フレームワークです。</t>
+  </si>
+  <si>
+    <t>「夜間バッチ」や「定期バッチ処理」を作るときによく使われます。</t>
+  </si>
+  <si>
+    <t>1つの大きな処理をガッとまとめてやる」スタイル（スクリプトっぽい）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを少しずつ読み込んで、まとめて処理・書き込み」するスタイル（大量データ向き）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Step の中身を Tasklet クラス 1つにまとめるやり方</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasklet インターフェースの execute メソッドの中に処理を書く </t>
+  </si>
+  <si>
+    <t>代表的な使いどころ：</t>
+  </si>
+  <si>
+    <t>・一時ファイルの削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1回きりの SQL 実行（テーブル初期化など）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・バッチの前後処理（開始ログ出力・終了ログ出力 など）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Step の中身を</t>
+  </si>
+  <si>
+    <t>・ItemReader（読む）</t>
+  </si>
+  <si>
+    <t>・ItemProcessor（加工する・任意）</t>
+  </si>
+  <si>
+    <t>・ItemWriter（書く）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">という3つに分けて、「一定件数ごと（チャンク単位）」に処理するやり方 </t>
+  </si>
+  <si>
+    <t>典型的な流れ：</t>
+  </si>
+  <si>
+    <t>1.Reader で1件ずつ読む</t>
+  </si>
+  <si>
+    <t>2.指定件数たまったら（例：100件）、Processor → Writer</t>
+  </si>
+  <si>
+    <t>3.そのチャンク単位でトランザクションをコミット</t>
+  </si>
+  <si>
+    <t>・大量の DB レコードを読み取り → 加工 → 別DBに書き込み</t>
+  </si>
+  <si>
+    <t>・CSV などの大量ファイル読み込み → DBに登録</t>
+  </si>
+  <si>
+    <t>イメージ：</t>
+  </si>
+  <si>
+    <t>「データを100件ごとの箱（チャンク）に分けて、読む → 加工 → 書く を何回も繰り返す」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">→ 大量データ・トランザクション管理向き </t>
+  </si>
+  <si>
+    <t>SAP BTP 上で、「いつ」「どの処理を」実行するかを時間ベースで管理するためのジョブスケジューラサービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要は、Linux の cron のクラウド版 + BTP サービス連携が強いものみたいなイメージ</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主な特徴</t>
+  </si>
+  <si>
+    <t>Job Scheduling Service を使うと、例えばこんなことができます：</t>
+  </si>
+  <si>
+    <t>・1回だけ／定期実行のジョブ を定義</t>
+  </si>
+  <si>
+    <t>「今から10分後に1回だけ実行」</t>
+  </si>
+  <si>
+    <t>「毎日 3:00 に実行」</t>
+  </si>
+  <si>
+    <t>cron 形式のような複雑なスケジュールも可</t>
+  </si>
+  <si>
+    <t>・アプリの HTTP エンドポイント（REST API）を叩く</t>
+  </si>
+  <si>
+    <t>CAP / Node.js / Java などで作ったアプリのエンドポイントを呼び出せる</t>
+  </si>
+  <si>
+    <t>・Cloud Foundry タスクの起動</t>
+  </si>
+  <si>
+    <t>長時間かかる処理をタスクとして非同期実行</t>
+  </si>
+  <si>
+    <t>・REST API から操作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ジョブの作成・変更・削除・実行ログ取得などを API で行える </t>
+  </si>
+  <si>
+    <t>・Web ダッシュボードで管理</t>
+  </si>
+  <si>
+    <t>BTP Cockpit から、ジョブ・スケジュール・実行結果を GUI で確認・操作できる</t>
+  </si>
+  <si>
+    <t>MyBatis</t>
+  </si>
+  <si>
+    <t>Java で DB を扱うためのフレームワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>application.properties</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spring Boot の設定ファイルで、キー=値形式でアプリの各種設定を書く場所です。環境に応じて外部化でき、起動時に自動で読み込まれます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このプロジェクトでは H2 の接続情報、Batchスキーマ初期化、MyBatisマッパー位置、H2コンソール有効化などをここで指定しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-e を付けると例外情報も出る</t>
+    <rPh sb="4" eb="5">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レイガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git clone </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://github.com/devsuperior/hello-world-spring-batch.git</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Simplified Git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①GitHubからURLをコピー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/mtk57/SpringBatchChunkTest.git</t>
+  </si>
+  <si>
+    <t>②BASの三本線から、Help → Get Started</t>
+    <rPh sb="5" eb="8">
+      <t>サンボンセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③Clone from Git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④URLを入力してEnter</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クローンしたリポジトリを開きますか？ それとも現在のワークスペースに追加しますか？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤ポップアップが出るので「Add to Workspace」</t>
+    <rPh sb="8" eb="9">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥Cloneされる（/user/projects の下にリポジトリが出来る）</t>
+    <rPh sb="26" eb="27">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑦Simplified Git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑧RepositoryにCloneしたリポジトリが表示される</t>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Workspace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワークスペース</t>
+  </si>
+  <si>
+    <t>→ 「今BASで開いているフォルダ or .code-workspace」のこと</t>
+  </si>
+  <si>
+    <t>プロジェクト</t>
+  </si>
+  <si>
+    <t>→ ふつうは「/home/user/projects/xxx みたいな1フォルダ」をそう呼ぶことが多い</t>
+  </si>
+  <si>
+    <t>Gitリポジトリ</t>
+  </si>
+  <si>
+    <t>→ そのフォルダの直下に .git フォルダ があるかどうかで決まる</t>
+  </si>
+  <si>
+    <t>実務では、</t>
+  </si>
+  <si>
+    <t>1プロジェクトフォルダ = 1 Gitリポジトリ</t>
+  </si>
+  <si>
+    <t>BASではそのフォルダをワークスペースとして開く</t>
+  </si>
+  <si>
+    <t>という運用が一番多いです。</t>
+  </si>
+  <si>
+    <t>→File → Open Folder... でそのフォルダを開く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→この操作重要！</t>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SOURCE CONTROL</t>
+  </si>
+  <si>
+    <t>REPOSITORIES</t>
+  </si>
+  <si>
+    <t>CHANGES</t>
+  </si>
+  <si>
+    <t>GRAPH</t>
+  </si>
+  <si>
+    <t>GITLENS</t>
+  </si>
+  <si>
+    <t>VS Code（やBAS）のGit機能を超強化する拡張機能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「このコード、誰が・いつ・どんなコミットで 変えたの？」</t>
+  </si>
+  <si>
+    <t>「このファイル、どんな履歴 をたどって今の状態になったの？」</t>
+  </si>
+  <si>
+    <t>みたいなことを、エディタの中でパッと見えるようにしてくれます。</t>
+  </si>
+  <si>
+    <t>REPOSITORIES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitLens拡張が追加しているリポジトリビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミット履歴を線でつないで見せてくれるビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まだコミットしていない変更ファイルの一覧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今このBASで扱っているGitリポジトリの一覧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pull</t>
+  </si>
+  <si>
+    <t>Push</t>
+  </si>
+  <si>
+    <t>Clone</t>
+  </si>
+  <si>
+    <t>Fetch</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>Pull, Push</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>Stash</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Worktrees</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Add Co-authors...</t>
+  </si>
+  <si>
+    <t>Copy Changes (Patch)</t>
+  </si>
+  <si>
+    <t>Share as Cloud Patch...</t>
+  </si>
+  <si>
+    <t>Generate Commit Message with GitLens...</t>
+  </si>
+  <si>
+    <t>Show Git Output</t>
+  </si>
+  <si>
+    <t>別のブランチや、過去のコミットに切り替える</t>
+  </si>
+  <si>
+    <t>GitHub 側の最新履歴だけをダウンロードするが、作業中のブランチにはまだ反映しない</t>
+  </si>
+  <si>
+    <t>ステージした変更を「1つの履歴（スナップショット）」として保存する</t>
+  </si>
+  <si>
+    <t>GitHub（リモート）側の変更を、手元（ローカル）に取り込む</t>
+  </si>
+  <si>
+    <t>手元のコミットを GitHub に送る</t>
+  </si>
+  <si>
+    <t>GitHub 上のリポジトリを丸ごとコピーして、手元に作る</t>
+  </si>
+  <si>
+    <t>まだコミットしていない変更の一覧／差分ビューを開く</t>
+  </si>
+  <si>
+    <t>Pull／Push 周りのちょっと細かい操作のサブメニュー</t>
+  </si>
+  <si>
+    <t>GitHub などの「リモートリポジトリ」の設定を扱う</t>
+  </si>
+  <si>
+    <t>作業中の変更を一時的にしまって、作業ツリーをキレイな状態に戻す</t>
+  </si>
+  <si>
+    <t>特定のコミットに「名前（タグ）」を付ける</t>
+  </si>
+  <si>
+    <t>1つのリポジトリから、複数の作業用フォルダ（ワークツリー）を作る機能</t>
+  </si>
+  <si>
+    <t>現在のブランチや作業状態を、指定した過去のコミットに戻す</t>
+  </si>
+  <si>
+    <t>コミットに「共同作者（Co-authored-by）」を追加する</t>
+  </si>
+  <si>
+    <t>そのコミットや変更の差分（パッチ）をテキストとしてコピーする</t>
+  </si>
+  <si>
+    <t>今の変更やコミットを「Cloud Patch」としてクラウドにアップし、URLで共有する機能</t>
+  </si>
+  <si>
+    <t>GitLens のAIに、コミットメッセージを自動で考えてもらう機能</t>
+  </si>
+  <si>
+    <t>Git が内部で実行しているコマンドと、その結果ログを表示する</t>
+  </si>
+  <si>
+    <t>ステージ（Gitの追跡対象）にすら追加されていないファイルは、Changesに表示される。（ファイルのツールチップにも「Untracked」と出る）→「＋」ボタンでステージに追加できる。</t>
+    <rPh sb="9" eb="11">
+      <t>ツイセキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージされているが、コミットされていないファイルも、Changesに表示される。このファイルの変更を取り消すには「Discard Changes」を使う。（アンドゥみたいなアイコン）</t>
+    <rPh sb="48" eb="50">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→重要</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Checkout to...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランチに関する操作（作成・削除・リネームなど）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右クリックのメニューにチェリーピックもある</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★こっちのがTortoiseGitに近いかも。</t>
+    <rPh sb="18" eb="19">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AIアシスタント。ジュールと発音。</t>
+    <rPh sb="14" eb="16">
+      <t>ハツオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほぼ使わない？気になる</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -596,7 +1558,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,6 +1590,22 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -649,7 +1627,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -672,13 +1650,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,10 +1678,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1011,80 +2016,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FF6450-600E-40AD-8F1C-A40D14B3DEBD}">
-  <dimension ref="B3:I36"/>
+  <dimension ref="B3:N126"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
         <v>98</v>
-      </c>
-      <c r="D17" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1095,7 +2100,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1104,12 +2109,12 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1120,7 +2125,7 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1131,7 +2136,7 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1142,7 +2147,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1162,7 +2167,7 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1173,7 +2178,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1184,7 +2189,7 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1193,12 +2198,12 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1209,7 +2214,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1220,7 +2225,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B34" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1231,7 +2236,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B35" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1242,7 +2247,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B36" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1250,6 +2255,322 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B40" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B45" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B50" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
+        <v>309</v>
+      </c>
+      <c r="D54" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B56" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B57" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B58" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B62" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B68" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B70" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B74" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B77" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B78" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B80" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B81" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B82" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B86" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B87" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B89" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B90" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B91" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B92" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B93" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B95" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B96" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B97" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B98" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B100" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B101" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B102" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B104" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B105" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B106" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B109" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B110" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B113" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B114" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B115" t="s">
+        <v>345</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B117" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B118" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B120" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B121" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B123" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B124" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B125" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B126" t="s">
+        <v>353</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1259,24 +2580,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE9C7C9-0501-47DF-ADA3-DA5DE6CFF2AF}">
-  <dimension ref="B2:D27"/>
+  <dimension ref="B2:E27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="30.75" customWidth="1"/>
     <col min="3" max="3" width="52.875" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="22.125" customWidth="1"/>
     <col min="5" max="5" width="49.5" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
@@ -1394,7 +2715,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>33</v>
@@ -1405,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>35</v>
@@ -1433,7 +2754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1444,7 +2765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1455,7 +2776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
@@ -1466,89 +2787,90 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+        <v>413</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>35</v>
@@ -1562,6 +2884,325 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E26DF2-27AF-4505-8D7F-313C12FC5CC0}">
+  <dimension ref="B4:W61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B29" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E29" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>357</v>
+      </c>
+      <c r="E30" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
+        <v>358</v>
+      </c>
+      <c r="E31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E32" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="W32" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E33" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="W33" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>359</v>
+      </c>
+      <c r="E34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E35" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>365</v>
+      </c>
+      <c r="E36" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
+        <v>360</v>
+      </c>
+      <c r="E37" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E38" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E39" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="E40" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
+        <v>370</v>
+      </c>
+      <c r="G43" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>371</v>
+      </c>
+      <c r="G44" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>372</v>
+      </c>
+      <c r="G45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
+        <v>409</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="P46" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>373</v>
+      </c>
+      <c r="G47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B48" t="s">
+        <v>374</v>
+      </c>
+      <c r="G48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>375</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B50" t="s">
+        <v>376</v>
+      </c>
+      <c r="G50" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
+        <v>377</v>
+      </c>
+      <c r="G51" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
+        <v>378</v>
+      </c>
+      <c r="G52" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
+        <v>379</v>
+      </c>
+      <c r="G53" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
+        <v>380</v>
+      </c>
+      <c r="G54" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>381</v>
+      </c>
+      <c r="G55" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B56" t="s">
+        <v>382</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="P56" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G57" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B58" t="s">
+        <v>384</v>
+      </c>
+      <c r="G58" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>385</v>
+      </c>
+      <c r="G59" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>386</v>
+      </c>
+      <c r="G60" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
+        <v>387</v>
+      </c>
+      <c r="G61" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0957E3D-C1DB-4236-AD70-CE7D76C9D549}">
   <dimension ref="B2:F17"/>
   <sheetViews>
@@ -1580,24 +3221,24 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
@@ -1605,13 +3246,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -1622,13 +3263,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>23</v>
@@ -1639,13 +3280,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>23</v>
@@ -1656,13 +3297,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>28</v>
@@ -1673,13 +3314,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>28</v>
@@ -1687,63 +3328,63 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1753,12 +3394,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E03622-214E-42EF-A8A2-78D8D9D8A2CF}">
   <dimension ref="B3:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1770,81 +3411,81 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
@@ -1852,10 +3493,10 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -1863,10 +3504,10 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>23</v>
@@ -1874,10 +3515,10 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>23</v>
@@ -1885,10 +3526,10 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>23</v>
@@ -1896,10 +3537,10 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>28</v>
@@ -1907,10 +3548,10 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
@@ -1918,10 +3559,10 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>28</v>
@@ -1929,97 +3570,820 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A3EBF5-FAA1-40B5-950A-1DD2A36888AB}">
+  <dimension ref="B2:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B15" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0C4B5E-41DC-4C00-8C61-AC6BCB95C4D9}">
+  <dimension ref="B3:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="52.875" customWidth="1"/>
+    <col min="4" max="4" width="53.625" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B27" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C33" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D662ED-7918-47B0-A440-7B2F86C0790F}">
+  <dimension ref="B5:F14"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="F14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B84EB83-54F8-46D9-B0C4-A2DCB02DF56B}">
+  <dimension ref="B6:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J12" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BAS_memo.xlsx
+++ b/BAS_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6AD565-9701-4810-B63A-60B513F06DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB314FB-7BF9-4321-B554-D9C9EE7FA4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Command" sheetId="6" r:id="rId7"/>
     <sheet name="CAP" sheetId="7" r:id="rId8"/>
     <sheet name="Java(SpringBatch)" sheetId="8" r:id="rId9"/>
+    <sheet name="DI" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="467">
   <si>
     <t>Configure Keybinding</t>
   </si>
@@ -1551,6 +1552,291 @@
   </si>
   <si>
     <t>ほぼ使わない？気になる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dependency Injection</t>
+  </si>
+  <si>
+    <t>DI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>class Service {</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>一言でいうと：</t>
+  </si>
+  <si>
+    <t>です。</t>
+  </si>
+  <si>
+    <t>さっきの例を DI にすると：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private Repository repo;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // コンストラクタで「外から」入れてもらう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Service(Repository repo) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.repo = repo;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>Spring の世界だとイメージはこう：</t>
+  </si>
+  <si>
+    <t>メリットだけ超ざっくり：</t>
+  </si>
+  <si>
+    <t>Spring では：</t>
+  </si>
+  <si>
+    <t>* `@Component`, `@Service`, `@Repository`, `@Mapper` などを付ける</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  → Spring が勝手に `new` して管理対象にする</t>
+  </si>
+  <si>
+    <t>* それを使いたい側で</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  @Autowired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PersonMapper mapper;</t>
+  </si>
+  <si>
+    <t>つまり、</t>
+  </si>
+  <si>
+    <t>というのが DI の具体的な姿です。</t>
+  </si>
+  <si>
+    <t>こんなイメージを持っておくとOKです。</t>
+  </si>
+  <si>
+    <t>Spring Batch / MyBatis の話も、この「外から入れてもらう」流れの一部だと思って見ると整理しやすくなります。</t>
+  </si>
+  <si>
+    <r>
+      <t>クラスAが、クラスBを使っている状態を「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AはBに依存している</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」 と言います。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. まず前提：「依存」ってなに？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Service は Repository がないと動けない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  → Service は Repository に「</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>依存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」している。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    private Repository repo = new Repository(); // 自分で new している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 依存性注入（DI）とは？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「自分で new しないで、外から入れてもらう」しくみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Spring が裏で `new Repository()` する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Spring が裏で `new Service(repository)` する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・なので、自分のコードでは `new` をほとんど書かない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">これが「依存性（Repository）を、外から注入（Injection）している」＝ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dependency Injection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. なんでそんなことするの？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. テストしやすい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. 差し替えやすい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本物の Repository の代わりに、テスト用のダミーを渡せる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB版Repository → メモリ版Repository など、実装を切り替えやすい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. クラス同士のベタ結合を減らせる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>`new` をあちこちに書かないので、コードがスッキリ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. Spring での DI の見え方</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  と書く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  → Spring が そのフィールドに、用意しておいたインスタンスを入れてくれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「どのクラスを new するか」は Spring が管理し、「使う側は @Autowired で受け取るだけ」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5. ざっくりイメージまとめ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>「使いたいものは</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外（Spring）からもらう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どれを new するかはフレームワーク側の仕事」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「使いたいものは自分で `new` する」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昔：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DI：</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1696,7 +1982,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -2016,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FF6450-600E-40AD-8F1C-A40D14B3DEBD}">
-  <dimension ref="B3:N126"/>
+  <dimension ref="B3:N129"/>
   <sheetViews>
     <sheetView topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+      <selection activeCell="D132" sqref="D132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2570,6 +2856,370 @@
     <row r="126" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B126" t="s">
         <v>353</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B129" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A260979B-AC5D-44AC-8A56-31F887E992EC}">
+  <dimension ref="B2:J67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C4" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D6" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D7" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D8" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C12" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D14" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D18" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D19" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D21" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D22" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D23" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D24" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D25" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D27" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D28" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D29" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D32" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C34" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D35" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D36" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E37" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D38" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D40" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E41" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C43" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D44" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D45" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D46" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D48" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D49" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D50" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D51" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D52" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D54" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D55" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D56" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C58" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D59" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D62" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D63" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="D64" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D66" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.4">
+      <c r="D67" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -2582,7 +3232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE9C7C9-0501-47DF-ADA3-DA5DE6CFF2AF}">
   <dimension ref="B2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/BAS_memo.xlsx
+++ b/BAS_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB314FB-7BF9-4321-B554-D9C9EE7FA4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A540D3A-327A-47A9-B29D-BC79A8389BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="614">
   <si>
     <t>Configure Keybinding</t>
   </si>
@@ -1568,6 +1568,12 @@
     <t>}</t>
   </si>
   <si>
+    <t>```</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
     <t>一言でいうと：</t>
   </si>
   <si>
@@ -1610,10 +1616,16 @@
     <t>* それを使いたい側で</t>
   </si>
   <si>
+    <t xml:space="preserve">  ```java</t>
+  </si>
+  <si>
     <t xml:space="preserve">  @Autowired</t>
   </si>
   <si>
     <t xml:space="preserve">  PersonMapper mapper;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ```</t>
   </si>
   <si>
     <t>つまり、</t>
@@ -1837,6 +1849,476 @@
   </si>
   <si>
     <t>DI：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アノテーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@Bean</t>
+  </si>
+  <si>
+    <t>@Bean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public Job job(JobRepository jobRepository, Step personImportStep) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return new JobBuilder("personImportJob", jobRepository)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .start(personImportStep)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .incrementer(new RunIdIncrementer())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            .build();</t>
+  </si>
+  <si>
+    <t>このメソッドを実行してできた Job オブジェクトを</t>
+  </si>
+  <si>
+    <t>Spring コンテナに 1個だけ作って保管しておいて</t>
+  </si>
+  <si>
+    <t>他のクラスから @Autowired Job job; などで 使えるようにする</t>
+  </si>
+  <si>
+    <t>@Configuration</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このメソッドが返したオブジェクトを、Spring の“部品（Bean）”として登録するためのマーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@Configuration が付いたクラスの中の</t>
+  </si>
+  <si>
+    <t>@Bean が付いたメソッドを読んで、</t>
+  </si>
+  <si>
+    <t>その戻り値を Spring が管理するオブジェクト（Bean）として登録 します。</t>
+  </si>
+  <si>
+    <r>
+      <t>「このクラスは</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>設定を書くクラス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ですよ」と Spring に教えるためのマーク</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Job</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッチ全体の「シナリオ」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：</t>
+  </si>
+  <si>
+    <t>CSV取込ステップ</t>
+  </si>
+  <si>
+    <t>→ 集計ステップ</t>
+  </si>
+  <si>
+    <t>→ 結果メール送信ステップ</t>
+  </si>
+  <si>
+    <t>こういう「一連の流れ」を 1つにまとめたものが Job</t>
+  </si>
+  <si>
+    <t>あなたのプロジェクトの personImportJob は</t>
+  </si>
+  <si>
+    <t>「personImportStep を1回実行するだけのジョブ」です。</t>
+  </si>
+  <si>
+    <t>Step</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Job を構成する1つ1つの「作業単位」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つの Job の中に複数 Step を並べられる。</t>
+  </si>
+  <si>
+    <t>種類はざっくり2つ：</t>
+  </si>
+  <si>
+    <t>Tasklet ステップ（1回きりの処理）</t>
+  </si>
+  <si>
+    <t>チャンクステップ（Reader/Processor/Writer の繰り返し）</t>
+  </si>
+  <si>
+    <t>personImportStep は</t>
+  </si>
+  <si>
+    <t>「チャンク式で CSV→DB へ書き込むステップ」です。</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>Processor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力を読む係</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どこから読むかは実装次第：</t>
+  </si>
+  <si>
+    <t>CSVファイル</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>キュー　など</t>
+  </si>
+  <si>
+    <t>あなたのプロジェクトでは</t>
+  </si>
+  <si>
+    <t>FlatFileItemReader&lt;PersonCsv&gt; が</t>
+  </si>
+  <si>
+    <t>「CSVファイルを1行ずつ PersonCsv にして返す」Reader です。</t>
+  </si>
+  <si>
+    <t>読んだデータを「加工・変換」する係</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型変換（文字列 → 日付/数値）</t>
+  </si>
+  <si>
+    <t>不正データの判定＆スキップ</t>
+  </si>
+  <si>
+    <t>複数項目から新しい値を計算（年齢など）</t>
+  </si>
+  <si>
+    <t>PersonProcessor は</t>
+  </si>
+  <si>
+    <t>生年月日文字列を LocalDate に変換</t>
+  </si>
+  <si>
+    <t>年齢を計算</t>
+  </si>
+  <si>
+    <t>PersonEntity に詰め替え</t>
+  </si>
+  <si>
+    <t>無効な日付なら null を返してスキップ</t>
+  </si>
+  <si>
+    <t>というロジックを担当しています。</t>
+  </si>
+  <si>
+    <t>Writer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加工済みデータを書き出す係</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力先の例：</t>
+  </si>
+  <si>
+    <t>DB（INSERT/UPDATE）</t>
+  </si>
+  <si>
+    <t>ファイル</t>
+  </si>
+  <si>
+    <t>メッセージキュー　など</t>
+  </si>
+  <si>
+    <t>チャンク単位（例：5件ずつ）でまとめて書くのが特徴。</t>
+  </si>
+  <si>
+    <t>MyBatisBatchItemWriter&lt;PersonEntity&gt; が</t>
+  </si>
+  <si>
+    <t>PersonMapper.insert() を呼んで</t>
+  </si>
+  <si>
+    <t>persons テーブルに INSERT する Writer</t>
+  </si>
+  <si>
+    <t>になっています。</t>
+  </si>
+  <si>
+    <t>このプロジェクトに限った「クラスが動く順番」を、できるだけシンプルに書きます。</t>
+  </si>
+  <si>
+    <t>## アプリ起動時（1回だけ）</t>
+  </si>
+  <si>
+    <t>1. **`SpringBatchChunkTestApplication.main()` が呼ばれる**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * `SpringApplication.run(...)` を実行。</t>
+  </si>
+  <si>
+    <t>2. **Spring が各クラスを準備**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * `@SpringBootApplication` によりコンポーネントスキャン。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * `@Configuration` な</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * `BatchConfig`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * `PersonImportStepConfig`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       などが読み込まれ、</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * その中の `@Bean` メソッドが呼ばれて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * `Job`（`personImportJob`）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * `Step`（`personImportStep`）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * `ItemReader`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * `PersonProcessor`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * `ItemWriter`（MyBatisBatchItemWriter）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       などが **1個ずつ作られて登録** される。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * `@MapperScan` によって `PersonMapper` も生成される。</t>
+  </si>
+  <si>
+    <t>ここまでは「設定を読むフェーズ」で、**まだCSV処理は走っていない**イメージです。</t>
+  </si>
+  <si>
+    <t>## ジョブ実行時（データ件数に応じて繰り返し）</t>
+  </si>
+  <si>
+    <t>ジョブとして動き出してからの「1件のデータが通る流れ」はこうです。</t>
+  </si>
+  <si>
+    <t>### ① Step実行開始</t>
+  </si>
+  <si>
+    <t>* `personImportJob` の中で</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  → **`personImportStep` がスタート**。</t>
+  </si>
+  <si>
+    <t>### ② Reader → Processor → Writer の順</t>
+  </si>
+  <si>
+    <t>チャンク処理の「1レコードあたり」の流れは：</t>
+  </si>
+  <si>
+    <t>1. **ItemReader（`FlatFileItemReader&lt;PersonCsv&gt;`）**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * CSVファイルから1行読み込む</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     → `PersonCsv` オブジェクト生成。</t>
+  </si>
+  <si>
+    <t>2. **ItemProcessor（`PersonProcessor`）**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * `PersonCsv` を受け取る。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * 生年月日文字列を `LocalDate` にパース。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * 年齢を計算。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * `PersonEntity` を作って返す。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * パースに失敗したら `null` を返し、そのレコードはスキップ。</t>
+  </si>
+  <si>
+    <t>3. **ItemWriter（MyBatisBatchItemWriter + `PersonMapper`）**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * `PersonProcessor` が返した `PersonEntity` をまとめて受け取る。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * 内部で **`PersonMapper.insert(personEntity)` を繰り返し呼び出す**。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * DB（`persons` テーブル）に INSERT。</t>
+  </si>
+  <si>
+    <t>### ③ チャンク単位のコミット</t>
+  </si>
+  <si>
+    <t>* 上の **②（Reader→Processor→Writer）を「最大5件」分まとめて1セット** として処理。</t>
+  </si>
+  <si>
+    <t>* 5件終わると、トランザクションを **コミット**。</t>
+  </si>
+  <si>
+    <t>* まだCSVに行が残っていれば、また</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt; Reader → Processor → Writer（最大5件） → コミット</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &gt; を繰り返す。</t>
+  </si>
+  <si>
+    <t>## クラス名でざっくり順番を書くと…</t>
+  </si>
+  <si>
+    <t>1. **起動時**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * `SpringBatchChunkTestApplication`（`main`）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * → `BatchConfig` / `PersonImportStepConfig` などの設定クラスが読まれる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * → その中の `@Bean` メソッドで</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     `Job`, `Step`, `Reader`, `Processor`, `Writer` などが作成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   * → `PersonMapper` も `@MapperScan` で登録</t>
+  </si>
+  <si>
+    <t>2. **ジョブ実行時（1レコードごと）**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1. `FlatFileItemReader&lt;PersonCsv&gt;` が CSV から読む</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2. `PersonProcessor` が `PersonCsv` → `PersonEntity` に変換</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3. `MyBatisBatchItemWriter` が `PersonMapper.insert(...)` を呼んで DB に書く</t>
+  </si>
+  <si>
+    <t>この **①→②→③ の流れを、CSV の行数分だけ繰り返す**、というシーケンスです。</t>
+  </si>
+  <si>
+    <t>------</t>
+  </si>
+  <si>
+    <t>もう少し具体的にいうと：</t>
+  </si>
+  <si>
+    <t>* あなたがやっていること</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  → `main()` で</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SpringApplication.run(SpringBatchChunkTestApplication.class, args);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  を呼んでいるだけ。</t>
+  </si>
+  <si>
+    <t>* その中で Spring Boot が内部的に</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1. `@Configuration` や `@Bean` から</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     `personImportJob` を見つける</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2. `JobLauncherApplicationRunner`（Spring Boot が用意しているクラス）が</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     「登録されているジョブある？ → じゃあ実行するね」と自動で起動する</t>
+  </si>
+  <si>
+    <t>なので、</t>
+  </si>
+  <si>
+    <t>* **誰が**：`JobLauncherApplicationRunner`（Spring Boot の内部部品）</t>
+  </si>
+  <si>
+    <t>* **いつ**：`SpringApplication.run(...)` でアプリが立ち上がった直後</t>
+  </si>
+  <si>
+    <t>という順番で、ジョブが「勝手に」実行されます。</t>
+  </si>
+  <si>
+    <t>もしこれを止めたければ、`application.properties` などで</t>
+  </si>
+  <si>
+    <t>```properties</t>
+  </si>
+  <si>
+    <t>spring.batch.job.enabled=false</t>
+  </si>
+  <si>
+    <t>とすると、「起動時に自動でジョブをキックしない」ようにできます。</t>
+  </si>
+  <si>
+    <t>&gt; **ジョブをキックしているのは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Spring Boot（Spring Batch）」で、タイミングは「アプリ起動直後」**</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2305,7 +2787,7 @@
   <dimension ref="B3:N129"/>
   <sheetViews>
     <sheetView topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D132" sqref="D132"/>
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2871,8 +3353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A260979B-AC5D-44AC-8A56-31F887E992EC}">
   <dimension ref="B2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2887,12 +3369,12 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C4" s="3" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
@@ -2908,7 +3390,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="D7" s="6" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2930,37 +3412,37 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C12" s="3" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="D14" s="3" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.4">
@@ -2976,7 +3458,7 @@
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D19" s="6" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -2996,7 +3478,7 @@
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D21" s="6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -3007,7 +3489,7 @@
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D22" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -3018,7 +3500,7 @@
     </row>
     <row r="23" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D23" s="6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -3029,7 +3511,7 @@
     </row>
     <row r="24" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D24" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -3051,97 +3533,97 @@
     </row>
     <row r="27" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D27" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D28" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D32" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C34" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D35" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D36" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E37" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D38" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E39" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D40" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E41" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C43" s="3" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D45" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D46" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D48" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D49" s="6" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -3150,7 +3632,7 @@
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D50" s="6" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -3159,67 +3641,67 @@
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D51" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D52" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D55" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.4">
       <c r="C58" s="3" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D59" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D60" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D62" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D63" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D66" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D67" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -3232,8 +3714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE9C7C9-0501-47DF-ADA3-DA5DE6CFF2AF}">
   <dimension ref="B2:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3368,7 +3850,7 @@
         <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
@@ -3537,7 +4019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E26DF2-27AF-4505-8D7F-313C12FC5CC0}">
   <dimension ref="B4:W61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -4317,10 +4799,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A3EBF5-FAA1-40B5-950A-1DD2A36888AB}">
-  <dimension ref="B2:D15"/>
+  <dimension ref="B2:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4430,6 +4912,99 @@
         <v>201</v>
       </c>
     </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B20" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B21" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C21" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C26" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C27" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C28" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C29" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C30" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C31" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C32" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C33" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C34" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>481</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4440,7 +5015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0C4B5E-41DC-4C00-8C61-AC6BCB95C4D9}">
   <dimension ref="B3:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -4927,13 +5502,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B84EB83-54F8-46D9-B0C4-A2DCB02DF56B}">
-  <dimension ref="B6:J19"/>
+  <dimension ref="B6:J204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
@@ -5016,19 +5594,686 @@
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C21" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C26" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C33" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C37" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C38" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C44" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C47" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C48" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C49" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C51" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C52" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C53" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B55" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C55" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C57" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C58" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C59" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C60" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C62" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C63" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C64" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C65" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C66" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C67" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B69" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C69" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C71" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C72" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C73" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C74" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C76" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C78" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C79" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C80" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C81" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C82" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B87" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B89" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C91" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C92" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C94" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C95" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C96" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C97" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C98" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C99" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C100" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C101" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C102" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C103" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C104" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C105" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C106" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C107" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C109" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B111" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C113" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C115" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D117" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D118" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C120" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D122" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D124" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E125" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E126" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D128" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E129" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E130" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E131" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E132" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E133" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D135" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E136" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E137" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="E138" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C140" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D141" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D142" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="143" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D143" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="144" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="D144" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D145" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B148" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B150" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B152" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C153" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C154" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C155" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C156" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C157" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B159" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C160" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C161" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C162" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C164" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B168" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B169" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B170" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B171" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B173" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B175" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B176" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B178" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B179" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B180" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B182" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B184" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B186" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B187" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B188" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B189" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B191" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B193" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B194" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B196" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B198" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B200" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B201" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B202" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B204" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>

--- a/BAS_memo.xlsx
+++ b/BAS_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A540D3A-327A-47A9-B29D-BC79A8389BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3617977E-796C-44C9-BA47-E7E47A40DC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="8" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -1991,10 +1991,6 @@
     <t>Processor</t>
   </si>
   <si>
-    <t>Processor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力を読む係</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2319,6 +2315,10 @@
   </si>
   <si>
     <t>「Spring Boot（Spring Batch）」で、タイミングは「アプリ起動直後」**</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reader</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2790,49 +2790,49 @@
       <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B3" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B8" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B12" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B17" s="3" t="s">
         <v>97</v>
       </c>
@@ -2840,22 +2840,22 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B22" s="4" t="s">
         <v>101</v>
       </c>
@@ -2866,7 +2866,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B23" s="4" t="s">
         <v>113</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B24" s="4" t="s">
         <v>102</v>
       </c>
@@ -2891,7 +2891,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B25" s="4" t="s">
         <v>103</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B26" s="4" t="s">
         <v>104</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B27" s="4" t="s">
         <v>105</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2933,7 +2933,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B29" s="4" t="s">
         <v>106</v>
       </c>
@@ -2944,7 +2944,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B30" s="4" t="s">
         <v>107</v>
       </c>
@@ -2955,7 +2955,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B31" s="4" t="s">
         <v>115</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.7">
       <c r="B32" s="4" t="s">
         <v>108</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B33" s="4" t="s">
         <v>109</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B34" s="4" t="s">
         <v>110</v>
       </c>
@@ -3002,7 +3002,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B35" s="4" t="s">
         <v>111</v>
       </c>
@@ -3013,7 +3013,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B36" s="4" t="s">
         <v>112</v>
       </c>
@@ -3024,37 +3024,37 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B40" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B41" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B42" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B45" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B46" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B47" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B50" s="3" t="s">
         <v>279</v>
       </c>
@@ -3062,17 +3062,17 @@
         <v>280</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B51" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B52" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B54" t="s">
         <v>309</v>
       </c>
@@ -3080,212 +3080,212 @@
         <v>310</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B56" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B57" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B58" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B59" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B61" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B62" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B64" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B65" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B67" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B68" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B70" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B71" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B74" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B75" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B77" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B78" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B80" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B81" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B82" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B83" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B86" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B87" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B89" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B90" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B91" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B92" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B93" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B95" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B96" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B97" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B98" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B100" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B101" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B102" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B104" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B105" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B106" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B109" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B110" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.7">
       <c r="B113" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.7">
       <c r="B114" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.7">
       <c r="B115" t="s">
         <v>345</v>
       </c>
@@ -3300,47 +3300,47 @@
         <v>355</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.7">
       <c r="B117" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.7">
       <c r="B118" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.7">
       <c r="B120" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.7">
       <c r="B121" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.7">
       <c r="B123" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.7">
       <c r="B124" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.7">
       <c r="B125" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.7">
       <c r="B126" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B129" s="3"/>
     </row>
   </sheetData>
@@ -3357,9 +3357,9 @@
       <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B2" s="3" t="s">
         <v>416</v>
       </c>
@@ -3367,17 +3367,17 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.7">
       <c r="C4" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.7">
       <c r="D5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.7">
       <c r="D6" s="6" t="s">
         <v>417</v>
       </c>
@@ -3388,7 +3388,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.7">
       <c r="D7" s="6" t="s">
         <v>447</v>
       </c>
@@ -3399,7 +3399,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.7">
       <c r="D8" s="6" t="s">
         <v>418</v>
       </c>
@@ -3410,42 +3410,42 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.7">
       <c r="D9" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.7">
       <c r="D10" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.7">
       <c r="C12" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.7">
       <c r="D13" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.7">
       <c r="D14" s="3" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.7">
       <c r="D15" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.7">
       <c r="D17" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.7">
       <c r="D18" s="6" t="s">
         <v>417</v>
       </c>
@@ -3456,7 +3456,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.7">
       <c r="D19" s="6" t="s">
         <v>424</v>
       </c>
@@ -3467,7 +3467,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.7">
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -3476,7 +3476,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.7">
       <c r="D21" s="6" t="s">
         <v>425</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.7">
       <c r="D22" s="6" t="s">
         <v>426</v>
       </c>
@@ -3498,7 +3498,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.7">
       <c r="D23" s="6" t="s">
         <v>427</v>
       </c>
@@ -3509,7 +3509,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.7">
       <c r="D24" s="6" t="s">
         <v>428</v>
       </c>
@@ -3520,7 +3520,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:10" x14ac:dyDescent="0.7">
       <c r="D25" s="6" t="s">
         <v>418</v>
       </c>
@@ -3531,97 +3531,97 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.7">
       <c r="D27" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:10" x14ac:dyDescent="0.7">
       <c r="D28" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.7">
       <c r="D29" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.7">
       <c r="D30" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.7">
       <c r="D32" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.7">
       <c r="C34" s="3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.7">
       <c r="D35" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.7">
       <c r="D36" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.7">
       <c r="E37" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.7">
       <c r="D38" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.7">
       <c r="E39" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.7">
       <c r="D40" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.7">
       <c r="E41" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.7">
       <c r="C43" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.7">
       <c r="D44" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.7">
       <c r="D45" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.7">
       <c r="D46" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.7">
       <c r="D48" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.7">
       <c r="D49" s="6" t="s">
         <v>436</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.7">
       <c r="D50" s="6" t="s">
         <v>437</v>
       </c>
@@ -3639,67 +3639,67 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.7">
       <c r="D51" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.7">
       <c r="D52" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.7">
       <c r="D54" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.7">
       <c r="D55" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:8" x14ac:dyDescent="0.7">
       <c r="D56" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:8" x14ac:dyDescent="0.7">
       <c r="C58" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:8" x14ac:dyDescent="0.7">
       <c r="D59" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:8" x14ac:dyDescent="0.7">
       <c r="D60" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:8" x14ac:dyDescent="0.7">
       <c r="D62" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.7">
       <c r="D63" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:8" x14ac:dyDescent="0.7">
       <c r="D64" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.7">
       <c r="D66" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.7">
       <c r="D67" t="s">
         <v>442</v>
       </c>
@@ -3714,11 +3714,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE9C7C9-0501-47DF-ADA3-DA5DE6CFF2AF}">
   <dimension ref="B2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="30.75" customWidth="1"/>
     <col min="3" max="3" width="52.875" customWidth="1"/>
@@ -3727,12 +3727,12 @@
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B2" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
@@ -4023,19 +4023,19 @@
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B4" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C6" t="s">
         <v>333</v>
       </c>
@@ -4043,47 +4043,47 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B8" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C15" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.7">
       <c r="B17" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.7">
       <c r="B19" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.7">
       <c r="B21" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.7">
       <c r="B29" s="3" t="s">
         <v>356</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.7">
       <c r="B30" t="s">
         <v>357</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.7">
       <c r="B31" t="s">
         <v>358</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.7">
       <c r="E32" s="8" t="s">
         <v>406</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.7">
       <c r="E33" s="9" t="s">
         <v>407</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.7">
       <c r="B34" t="s">
         <v>359</v>
       </c>
@@ -4131,12 +4131,12 @@
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.7">
       <c r="E35" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.7">
       <c r="B36" t="s">
         <v>365</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.7">
       <c r="B37" t="s">
         <v>360</v>
       </c>
@@ -4152,22 +4152,22 @@
         <v>361</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.7">
       <c r="E38" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.7">
       <c r="E39" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.7">
       <c r="E40" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.7">
       <c r="B43" t="s">
         <v>370</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.7">
       <c r="B44" t="s">
         <v>371</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.7">
       <c r="B45" t="s">
         <v>372</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.7">
       <c r="B46" t="s">
         <v>409</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.7">
       <c r="B47" t="s">
         <v>373</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.7">
       <c r="B48" t="s">
         <v>374</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B49" t="s">
         <v>375</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B50" t="s">
         <v>376</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B51" t="s">
         <v>377</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B52" t="s">
         <v>378</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B53" t="s">
         <v>379</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B54" t="s">
         <v>380</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B55" t="s">
         <v>381</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B56" t="s">
         <v>382</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B57" t="s">
         <v>383</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B58" t="s">
         <v>384</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B59" t="s">
         <v>385</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B60" t="s">
         <v>386</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.7">
       <c r="B61" t="s">
         <v>387</v>
       </c>
@@ -4342,7 +4342,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="7.125" customWidth="1"/>
     <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
@@ -4351,12 +4351,12 @@
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B2" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B3" s="2" t="s">
         <v>56</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -4458,12 +4458,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.7">
       <c r="C11" s="2" t="s">
         <v>57</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.7">
       <c r="C12" s="1" t="s">
         <v>74</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.7">
       <c r="C13" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.7">
       <c r="C14" s="1" t="s">
         <v>78</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.7">
       <c r="C15" s="1" t="s">
         <v>80</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.7">
       <c r="C16" s="1" t="s">
         <v>82</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.7">
       <c r="C17" s="1" t="s">
         <v>84</v>
       </c>
@@ -4534,14 +4534,14 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="40.625" customWidth="1"/>
     <col min="3" max="3" width="39.375" customWidth="1"/>
     <col min="4" max="4" width="47.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B3" s="2" t="s">
         <v>118</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B4" s="1" t="s">
         <v>121</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B5" s="1" t="s">
         <v>124</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B6" s="1" t="s">
         <v>127</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B7" s="1" t="s">
         <v>130</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B8" s="1" t="s">
         <v>133</v>
       </c>
@@ -4607,12 +4607,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B10" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B11" s="2" t="s">
         <v>136</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B12" s="1" t="s">
         <v>138</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B13" s="1" t="s">
         <v>140</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B14" s="1" t="s">
         <v>142</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B15" s="1" t="s">
         <v>143</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B16" s="1" t="s">
         <v>145</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B17" s="1" t="s">
         <v>147</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B18" s="1" t="s">
         <v>149</v>
       </c>
@@ -4700,12 +4700,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B20" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B21" s="2" t="s">
         <v>150</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B22" s="1" t="s">
         <v>101</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B23" s="1" t="s">
         <v>155</v>
       </c>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B24" s="1" t="s">
         <v>157</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B25" s="1" t="s">
         <v>160</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B26" s="1" t="s">
         <v>163</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B27" s="1" t="s">
         <v>166</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B28" s="1" t="s">
         <v>169</v>
       </c>
@@ -4805,14 +4805,14 @@
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="38.5" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B2" s="2" t="s">
         <v>176</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B3" s="1" t="s">
         <v>179</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B4" s="1" t="s">
         <v>182</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B5" s="1" t="s">
         <v>185</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B6" s="1" t="s">
         <v>188</v>
       </c>
@@ -4867,12 +4867,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B10" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B11" s="2" t="s">
         <v>192</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B12" s="1" t="s">
         <v>194</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B13" s="1" t="s">
         <v>196</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B14" s="1" t="s">
         <v>198</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B15" s="1" t="s">
         <v>200</v>
       </c>
@@ -4912,12 +4912,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B20" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B21" s="7" t="s">
         <v>482</v>
       </c>
@@ -4925,22 +4925,22 @@
         <v>487</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C22" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C23" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C24" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B26" s="7" t="s">
         <v>473</v>
       </c>
@@ -4948,59 +4948,59 @@
         <v>483</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C27" s="6" t="s">
         <v>472</v>
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C28" s="6" t="s">
         <v>474</v>
       </c>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C29" s="6" t="s">
         <v>475</v>
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C30" s="6" t="s">
         <v>476</v>
       </c>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C31" s="6" t="s">
         <v>477</v>
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.7">
       <c r="C32" s="6" t="s">
         <v>478</v>
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.7">
       <c r="C33" s="6" t="s">
         <v>418</v>
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.7">
       <c r="C34" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.7">
       <c r="C35" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.7">
       <c r="C36" t="s">
         <v>481</v>
       </c>
@@ -5019,14 +5019,14 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="3" max="3" width="52.875" customWidth="1"/>
     <col min="4" max="4" width="53.625" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B3" s="2" t="s">
         <v>56</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -5250,12 +5250,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B20" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B21" s="2" t="s">
         <v>236</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B22" s="1">
         <v>1</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B23" s="1">
         <v>2</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B24" s="1">
         <v>3</v>
       </c>
@@ -5299,12 +5299,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B27" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.7">
       <c r="B28" t="s">
         <v>243</v>
       </c>
@@ -5312,82 +5312,82 @@
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.7">
       <c r="D29" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.7">
       <c r="D30" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.7">
       <c r="D31" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C33" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C34" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C35" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C36" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C37" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C38" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C39" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C40" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C41" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C42" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C43" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C45" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.7">
       <c r="C46" t="s">
         <v>258</v>
       </c>
@@ -5406,14 +5406,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B5" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B6" s="6" t="s">
         <v>265</v>
       </c>
@@ -5421,7 +5421,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B7" s="6" t="s">
         <v>266</v>
       </c>
@@ -5429,7 +5429,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B8" s="6" t="s">
         <v>260</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B9" s="6" t="s">
         <v>261</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B10" s="6" t="s">
         <v>262</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B11" s="6" t="s">
         <v>263</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.7">
       <c r="B12" s="6" t="s">
         <v>206</v>
       </c>
@@ -5484,12 +5484,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.7">
       <c r="F13" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.7">
       <c r="F14" t="s">
         <v>273</v>
       </c>
@@ -5504,21 +5504,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B84EB83-54F8-46D9-B0C4-A2DCB02DF56B}">
   <dimension ref="B6:J204"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J169" sqref="J169"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B6" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B7" s="6" t="s">
         <v>259</v>
       </c>
@@ -5530,7 +5530,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B8" s="6" t="s">
         <v>330</v>
       </c>
@@ -5542,7 +5542,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B9" s="6" t="s">
         <v>274</v>
       </c>
@@ -5554,7 +5554,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B10" s="6" t="s">
         <v>275</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B11" s="6" t="s">
         <v>149</v>
       </c>
@@ -5584,32 +5584,32 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.7">
       <c r="J12" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.7">
       <c r="B16" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B17" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B18" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B19" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B21" s="3" t="s">
         <v>488</v>
       </c>
@@ -5617,45 +5617,45 @@
         <v>489</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C23" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C24" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C25" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C26" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C28" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C30" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C31" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B33" s="3" t="s">
         <v>497</v>
       </c>
@@ -5663,617 +5663,617 @@
         <v>498</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C35" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C37" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C38" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C39" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C41" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C42" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B44" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C44" t="s">
         <v>506</v>
       </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C46" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C46" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C47" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C47" t="s">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C48" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C48" t="s">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C49" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C49" t="s">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C51" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C51" t="s">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C52" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C52" t="s">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C53" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C53" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B55" s="3" t="s">
         <v>505</v>
       </c>
       <c r="C55" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C57" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C58" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C59" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C59" t="s">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C60" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C60" t="s">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C62" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C62" t="s">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C63" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C63" t="s">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C64" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C64" t="s">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C65" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C65" t="s">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C66" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C66" t="s">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C67" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C67" t="s">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B69" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B69" s="3" t="s">
+      <c r="C69" t="s">
         <v>525</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C71" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C71" t="s">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C72" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C72" t="s">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C73" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C73" t="s">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C74" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C74" t="s">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C76" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C76" t="s">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C78" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C79" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C78" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C79" t="s">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C80" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C80" t="s">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C81" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C81" t="s">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C82" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C82" t="s">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B87" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B87" t="s">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B89" s="3" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B89" s="3" t="s">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C91" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C91" t="s">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C92" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C92" t="s">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C94" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C94" t="s">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C95" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C95" t="s">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C96" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C96" t="s">
+    <row r="97" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C97" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C97" t="s">
+    <row r="98" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C98" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C98" t="s">
+    <row r="99" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C99" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C99" t="s">
+    <row r="100" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C100" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C100" t="s">
+    <row r="101" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C101" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C101" t="s">
+    <row r="102" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C102" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C102" t="s">
+    <row r="103" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C103" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C103" t="s">
+    <row r="104" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C104" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C104" t="s">
+    <row r="105" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C105" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C105" t="s">
+    <row r="106" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C106" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C106" t="s">
+    <row r="107" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C107" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C107" t="s">
+    <row r="109" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C109" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C109" t="s">
+    <row r="111" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B111" s="3" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B111" s="3" t="s">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="C113" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C113" t="s">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="C115" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C115" s="3" t="s">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="D117" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D117" t="s">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="D118" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D118" t="s">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="C120" s="3" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C120" s="3" t="s">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="D122" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D122" t="s">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="D124" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D124" t="s">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="E125" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E125" t="s">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="E126" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E126" t="s">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="D128" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D128" t="s">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="E129" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E129" t="s">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="E130" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E130" t="s">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="E131" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E131" t="s">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="E132" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E132" t="s">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="E133" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E133" t="s">
+    <row r="135" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="D135" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D135" t="s">
+    <row r="136" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="E136" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E136" t="s">
+    <row r="137" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="E137" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E137" t="s">
+    <row r="138" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="E138" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="E138" t="s">
+    <row r="140" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="C140" s="3" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="C140" s="3" t="s">
+    <row r="141" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="D141" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D141" t="s">
+    <row r="142" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="D142" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D142" t="s">
+    <row r="143" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="D143" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D143" t="s">
+    <row r="144" spans="3:5" x14ac:dyDescent="0.7">
+      <c r="D144" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.4">
-      <c r="D144" t="s">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="D145" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="D145" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B148" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.7">
       <c r="B150" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B152" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B152" s="3" t="s">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="C153" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C153" t="s">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="C154" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C154" t="s">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="C155" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C155" t="s">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="C156" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C156" t="s">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="C157" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C157" t="s">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="B159" s="3" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B159" s="3" t="s">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.7">
+      <c r="C160" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C160" t="s">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C161" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C161" t="s">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C162" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C162" t="s">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C164" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C164" t="s">
+    <row r="168" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B168" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B168" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B169" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B170" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B170" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B171" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B173" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B175" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B175" t="s">
+    <row r="176" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B176" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B176" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B178" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B179" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.4">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B180" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B182" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.7">
+      <c r="B184" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B184" t="s">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.7">
+      <c r="B186" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B186" t="s">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.7">
+      <c r="B187" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B187" t="s">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.7">
+      <c r="B188" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B188" t="s">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.7">
+      <c r="B189" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B189" t="s">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.7">
+      <c r="B191" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B191" t="s">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.7">
+      <c r="B193" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B193" t="s">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.7">
+      <c r="B194" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B194" t="s">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.7">
+      <c r="B196" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B196" t="s">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.7">
+      <c r="B198" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B198" t="s">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.7">
+      <c r="B200" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B200" t="s">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.7">
+      <c r="B201" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B201" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B202" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B204" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/BAS_memo.xlsx
+++ b/BAS_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3617977E-796C-44C9-BA47-E7E47A40DC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E09A5BE-0DA7-43B0-965D-8B67D97467F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="8" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
+    <workbookView xWindow="8850" yWindow="840" windowWidth="23625" windowHeight="12540" firstSheet="2" activeTab="8" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="CAP" sheetId="7" r:id="rId8"/>
     <sheet name="Java(SpringBatch)" sheetId="8" r:id="rId9"/>
     <sheet name="DI" sheetId="10" r:id="rId10"/>
+    <sheet name="yaml" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="880">
   <si>
     <t>Configure Keybinding</t>
   </si>
@@ -533,9 +534,6 @@
     <t xml:space="preserve"> spring-boot-starter-web など</t>
   </si>
   <si>
-    <t>&lt;dependency&gt;</t>
-  </si>
-  <si>
     <t>1つのライブラリ定義</t>
   </si>
   <si>
@@ -661,9 +659,6 @@
   </si>
   <si>
     <t>データベース接続したい</t>
-  </si>
-  <si>
-    <t>application.ymlに4行書くだけで自動接続</t>
   </si>
   <si>
     <t>BTPにデプロイしたい</t>
@@ -2321,12 +2316,1249 @@
     <t>Reader</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>&lt;dependencies&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;dependency&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spring-boot-starter-jdbc</t>
+  </si>
+  <si>
+    <t>spring-boot-starter-data-jpa</t>
+  </si>
+  <si>
+    <t>spring-boot-starter-test</t>
+  </si>
+  <si>
+    <t>spring-batch-test</t>
+  </si>
+  <si>
+    <t>commons-csv</t>
+  </si>
+  <si>
+    <t>httpclient</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>lombok</t>
+  </si>
+  <si>
+    <t>spring-boot-starter-actuator</t>
+  </si>
+  <si>
+    <t>cds-starter-cloudfoundry</t>
+  </si>
+  <si>
+    <t>jackson-databind</t>
+  </si>
+  <si>
+    <t>HikariCP</t>
+  </si>
+  <si>
+    <t>spring-boot-maven-plugin</t>
+  </si>
+  <si>
+    <t>pom.xml / dependency / artifactId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBアクセス用。JDBC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBアクセス用。JPA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト用</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ngdbc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAP HANA に接続するための JDBC ドライバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSVファイルを読み書きするためのライブラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTP通信（外部Web API呼び出しなど）を行うためのクライアント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組み込みDB。ローカル実行やテストで使う想定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Getter/Setter などを自動生成してコードを簡潔にするライブラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘルスチェックやメトリクスなど、運用監視用のエンドポイントを提供</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cloud Foundry 上で動かすための SAP 用スターター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSON の変換（オブジェクト⇔JSON）用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB接続プールの実装。高速・安定したコネクション管理用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mvn package したときに、Spring Boot の実行可能 JAR を作るプラグイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>junit-jupiter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spring:</t>
+  </si>
+  <si>
+    <t>datasource:</t>
+  </si>
+  <si>
+    <r>
+      <t>cloud</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> プロファイルのときだけ、このファイルの設定を有効にする、という指定です。</t>
+    </r>
+  </si>
+  <si>
+    <t>組み込みTomcatなど「Webサーバーは起動しない」＝バッチやコンソールアプリ用の設定です。</t>
+  </si>
+  <si>
+    <t>DBドライバに SAP HANA用ドライバを指定</t>
+    <rPh sb="16" eb="17">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">driver-class-name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>com.sap.db.jdbc.Driver</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">main.web-application-type: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>none</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">config.activate.on-profile: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cloud</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>url:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>username:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cloud Foundry の環境変数 VCAP_SERVICES から取得</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hikari:</t>
+  </si>
+  <si>
+    <t>DBコネクションプール（HikariCP）の設定</t>
+  </si>
+  <si>
+    <t>データソース（SAP HANA／HDIコンテナ）の設定</t>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mybatis:</t>
+  </si>
+  <si>
+    <t>MyBatis の設定</t>
+  </si>
+  <si>
+    <t>mapper-locations:</t>
+  </si>
+  <si>
+    <t>マッパーファイルのパスを設定</t>
+    <rPh sb="12" eb="14">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type-aliases-package:</t>
+  </si>
+  <si>
+    <t>指定されたパッケージ配下のクラスを簡単な名前で使えるようにする</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>configuration:</t>
+  </si>
+  <si>
+    <t>その他もろもろの設定</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sql:</t>
+  </si>
+  <si>
+    <t>batch:</t>
+  </si>
+  <si>
+    <t>Spring Batch のジョブ起動方法や、管理テーブルの作成方法 を設定する場所</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起動時の SQL 初期化処理 などを制御する設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jpa:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPA/Hibernate を使ったDBアクセスの細かい挙動（テーブル自動作成、ログ表示、方言など）を決める設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YAML</t>
+  </si>
+  <si>
+    <t>設定ファイルなどに使われる「書きやすくて読みやすいデータの書き方のルール」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#でコメントを書ける</t>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsonより読みやすい（波括弧やダブルクォーテーションが無い、インデント（スペース）で階層表現）</t>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ナミカッコ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YAML1.2はjsonを包含した仕様</t>
+    <rPh sb="13" eb="15">
+      <t>ホウガン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>application.yaml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配置：src/main/resources/application.yaml</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spring Boot の設定を外出しするためのメインファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ポート番号などサーバ設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・DB接続情報（URL・ユーザー名 など）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ログレベル</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・自作の設定値（例：自分で決めた my.app.xxx）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>等々</t>
+    <rPh sb="0" eb="2">
+      <t>ナドナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ内容を application.properties で書くこともできる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>application.yml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に4行書くだけで自動接続</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（application.yml）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java Persistence API</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いわゆるORM（ORマッパー）のJava版</t>
+    <rPh sb="20" eb="21">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javaのクラス（エンティティ）とRDB（テーブルの行）を自動で対応づけてくれる仕組み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほぼ SQL を書かずに DB とやり取りできる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単純なSQLはこれでもよいが複雑なのはJDBCやMyBatisを使う。</t>
+    <rPh sb="0" eb="2">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フクザツ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境ごとに設定を分けたいときは、application-{profile}.yaml　という名前が使える。</t>
+    <rPh sb="46" eb="48">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例：application-cloud.yaml</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cloud Foundry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリをクラウドに簡単デプロイするための「PaaS（プラットフォーム）」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類：PaaS（Platform as a Service）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴：オープンソース／マルチクラウド対応（AWS, Azure, GCP, SAP BTP など上で動かせる）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理団体：Cloud Foundry Foundation（Linux Foundation 傘下の団体）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HDIコンテナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAP HANA用の「アプリ専用データベース箱」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HANA Deployment Infrastructure Container</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル／ビュー／ストアドプロシージャ などのDBオブジェクトをまとめて入れておく“専用スペースです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つのHDIコンテナの中に、そのアプリ用のオブジェクトだけが入ります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のHDIコンテナとはスキーマ権限でしっかり分離されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通のHANAだと1つのDBスキーマにいろんなアプリのテーブルが混ざる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HDIコンテナだとアプリごとに「箱（コンテナ）」を分ける。その箱ごとにユーザ・権限・スキーマが用意される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HDIコンテナは基本的に「ペア」になっています</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザインタイムコンテナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.hdbtable, .hdbview など「設計情報（定義ファイル）」を置くところ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランタイムコンテナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際のテーブル・ビューなど、動くDBオブジェクトが作られるスキーマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルド（デプロイ）すると、「デザインタイム → ランタイム」に変換されてHANAにオブジェクトが作られます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シノニム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>synonym</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※「同義語」という意味</t>
+    <rPh sb="2" eb="5">
+      <t>ドウギゴ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAP HANA / HDI コンテナでのシノニムは、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コンテナの外にあるテーブル／ビュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・別のHDIコンテナのオブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・他スキーマのオブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にアクセスしたいときに、シノニムを作っておいて、そこ経由でアクセスします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜イメージ＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.外部スキーマ OTHER_SCHEMA.SALES_ORDER がある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.自分のHDIコンテナ内に、SALES_ORDER というシノニムを定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アプリ側は、HDIコンテナ内の SALES_ORDER を普通のテーブルのように使える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキーマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキーマ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキーマn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル1…テーブルn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビュー1…ビューn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストアド1…ストアドn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキーマを分ける理由：</t>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アプリごと、システムごとに 領域を分けて管理 したい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・権限（どのユーザがどこにアクセスできるか）を スキーマ単位で制御 したい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースの中にある“名前付きの箱（グループ）”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@Autowired</t>
+  </si>
+  <si>
+    <t>@Column</t>
+  </si>
+  <si>
+    <t>@Component</t>
+  </si>
+  <si>
+    <t>@Configuration</t>
+  </si>
+  <si>
+    <t>@Data</t>
+  </si>
+  <si>
+    <t>@EnableTransactionManagement</t>
+  </si>
+  <si>
+    <t>@Entity</t>
+  </si>
+  <si>
+    <t>@GeneratedValue</t>
+  </si>
+  <si>
+    <t>@Id</t>
+  </si>
+  <si>
+    <t>@Mapper</t>
+  </si>
+  <si>
+    <t>@Override</t>
+  </si>
+  <si>
+    <t>@Qualifier</t>
+  </si>
+  <si>
+    <t>@Repository</t>
+  </si>
+  <si>
+    <t>@Service</t>
+  </si>
+  <si>
+    <t>@Slf4j</t>
+  </si>
+  <si>
+    <t>@StepScope</t>
+  </si>
+  <si>
+    <t>@Table</t>
+  </si>
+  <si>
+    <t>@Value</t>
+  </si>
+  <si>
+    <t>このクラスを「Spring が管理する部品（Bean）」として登録して、@Autowired などで注入できるようにする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@Component の一種で、「ビジネスロジックを書くサービスクラスだよ」と Spring に教える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@Component の一種で、「DBアクセスをするクラスだよ」と Spring に教える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyBatis のマッパーとして登録し、SQL とメソッドを紐づけてくれる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spring に「ここに他の Bean を自動で注入して（DIして）」とお願いする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ型の Bean が複数あるとき、「この名前の Bean を注入して」と指定する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このクラスは JPA で管理する「エンティティ（テーブルの1行に対応するクラス）」ですよ、と宣言する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのテーブルと対応させるかを指定する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このフィールドがテーブルの「主キー（ID）」です、と JPA に教える。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DI / コンポーネント関連</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPA / エンティティ関連</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID を DB や自動シーケンスで自動採番してもらう設定（自分で値をセットしなくてよくなる）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このフィールドがテーブルのどのカラムと対応するか、詳細設定（カラム名、長さ、NULL許可など）を書く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lombok 関連</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getter/setter, toString, equals, hashCode, コンストラクタなどを自動生成してくれる（ボイラープレート削減）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>log.info(...) などで使える log フィールド（SLF4Jロガー）を自動で生やしてくれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spring 設定・値注入</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@Transactional などのトランザクション管理を有効にするスイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>application.yaml などの設定値（プロパティ）を、そのフィールドに注入してくれる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spring Batch 関連</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その Bean を「ステップ実行中だけ有効なスコープ」で管理し、ジョブパラメータなどを注入しやすくする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java 標準</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親クラスやインタフェースのメソッドを正しくオーバーライドしていることをコンパイラにチェックしてもらう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップを実行するときに、その都度つくり直される Bean にする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通の @Component や @Bean の Bean は</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ起動時に 1回だけ 作られてずっと同じインスタンスが使われます（シングルトン）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@StepScope を付けると、その Bean は：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステップ開始時に初めて生成される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステップが終わると捨てられる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Bean の中で @Value("#{jobParameters['xxx']}") みたいにジョブパラメータを安全に受け取れる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とりあえず、Reader / Processor / Writerには必ず付ける！</t>
+    <rPh sb="35" eb="36">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChunkContext</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stepが今どんな状態か」を持つオブジェクト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>であって、「Tasklet方式かChunk方式か」を選ぶ話とは 別もの です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stepの方式（Tasklet / Chunk）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ 「処理の書き方」の違い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ 「今のチャンク／ステップの情報（パラメータ・実行IDなど）」を持っている入れ物</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→ Tasklet の execute や、ChunkListener から使える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なので、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Tasklet 方式だから ChunkContext を使う」、「Chunk 方式だから ChunkContext を使う」という“どちらか”の話ではなくて、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Step が動いているときの状態にアクセスしたいときに使う道具が ChunkContext」</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントが起きたときに呼び出される“待ち受け役”のクラス／メソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョブの開始・終了をフックしたい → JobExecutionListener</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステップの開始・終了をフックしたい → StepExecutionListener</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャンクの前後をフックしたい → ChunkListener</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item 読み込み前後・エラー時をフックしたい → ItemReadListener など</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何が嬉しいのか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・メインの処理（ビジネスロジック）と</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・付随する処理（ログ、監視、リトライ、通知など）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を分離できるので、コードが見やすく・テストしやすくなります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>@Bean が付いたメソッドを呼び出すとき、Springは</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>メソッド引数にも自動で依存性注入（DI）を行う</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// 疑似コードイメージ</t>
+  </si>
+  <si>
+    <t>Job sampleJob = batchConfig.sampleJob(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    applicationContext.getBean(JobRepository.class),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    applicationContext.getBean(Step.class),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    applicationContext.getBean(SampleJobListener.class)</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>みたいなことを、Spring が裏側でやってくれている感じです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッドの引数のDIについて</t>
+    <rPh sb="5" eb="7">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public Job sampleJob(JobRepository jobRepository,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Step sampleStep,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     SampleJobListener listener) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ...</t>
+  </si>
+  <si>
+    <t>→3つの引数は全てBean</t>
+    <rPh sb="4" eb="6">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッドの引数以外のDIについて</t>
+    <rPh sb="5" eb="7">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の場合は@Autowiredが必要。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・コンストラクタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Setterメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の場合はアノテーションなしでDIしてくれる</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・@Bean メソッドの 引数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・@Configuration クラスの コンストラクタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜超シンプルなコード例＞</t>
+    <rPh sb="1" eb="2">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. メイン処理（Tasklet）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// メインのバッチ処理（仕事本体）</t>
+  </si>
+  <si>
+    <t>public class SampleTasklet implements Tasklet {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @Override</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public RepeatStatus execute(StepContribution contribution,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                ChunkContext chunkContext) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("メイン処理：実際のバッチ処理をここに書く");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return RepeatStatus.FINISHED;</t>
+  </si>
+  <si>
+    <t>2. リスナー（ジョブ開始／終了のログだけ担当）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// ジョブ開始・終了だけを担当するリスナー</t>
+  </si>
+  <si>
+    <t>public class SampleJobListener implements JobExecutionListener {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void beforeJob(JobExecution jobExecution) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("リスナー：ジョブ開始");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void afterJob(JobExecution jobExecution) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.out.println("リスナー：ジョブ終了");</t>
+  </si>
+  <si>
+    <t>3. Job 定義で「メイン」と「リスナー」を組み合わせる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public class BatchConfig {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @Bean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Step sampleStep(JobRepository jobRepository,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           PlatformTransactionManager transactionManager,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           SampleTasklet tasklet) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return new StepBuilder("sampleStep", jobRepository)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .tasklet(tasklet, transactionManager)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .build();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Job sampleJob(JobRepository jobRepository,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         Step sampleStep,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         SampleJobListener listener) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return new JobBuilder("sampleJob", jobRepository)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .start(sampleStep)      // メイン処理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .listener(listener)     // リスナーをここで「後付け」</t>
+  </si>
+  <si>
+    <t>ベストプラクティス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 Step = 1つの意味のある処理単位</t>
+  </si>
+  <si>
+    <t>例：掃除、コピー、集計、通知 など</t>
+  </si>
+  <si>
+    <t>1 Tasklet = その Step の責務を果たすための実装</t>
+  </si>
+  <si>
+    <t>同じ責務の範囲なら、内部で複数の小さい処理があってもOK</t>
+  </si>
+  <si>
+    <t>性質の違う処理・後から別々に制御したくなる処理</t>
+  </si>
+  <si>
+    <t>→ Step を分ける（＝Tasklet も分ける）</t>
+  </si>
+  <si>
+    <t>バッドプラクティス</t>
+  </si>
+  <si>
+    <t>1つの Tasklet に、</t>
+  </si>
+  <si>
+    <t>・テーブルA→Bにコピー</t>
+  </si>
+  <si>
+    <t>・集計結果のINSERT</t>
+  </si>
+  <si>
+    <t>・バックアップ</t>
+  </si>
+  <si>
+    <t>・掃除</t>
+  </si>
+  <si>
+    <t>・メール送信</t>
+  </si>
+  <si>
+    <t>…みたいに、性質の違う処理を全部詰め込むと：</t>
+  </si>
+  <si>
+    <t>・何の Step なのか分かりづらい</t>
+  </si>
+  <si>
+    <t>・エラーの時にどこまで終わったか分かりづらい</t>
+  </si>
+  <si>
+    <t>・後から一部だけリトライ／スキップしたいときに困る</t>
+  </si>
+  <si>
+    <t>ので、これは Stepを分割したほうがいい です。（1step / 1tasklet）</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2374,6 +3606,29 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2395,7 +3650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2427,13 +3682,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2468,6 +3749,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2784,55 +4086,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FF6450-600E-40AD-8F1C-A40D14B3DEBD}">
-  <dimension ref="B3:N129"/>
+  <dimension ref="B3:N192"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:2">
       <c r="B3" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:2">
       <c r="B8" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:9">
       <c r="B17" s="3" t="s">
         <v>97</v>
       </c>
@@ -2840,22 +4142,22 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:9">
       <c r="B18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:9">
       <c r="B19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:9">
       <c r="B21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:9">
       <c r="B22" s="4" t="s">
         <v>101</v>
       </c>
@@ -2866,7 +4168,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:9">
       <c r="B23" s="4" t="s">
         <v>113</v>
       </c>
@@ -2880,7 +4182,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:9">
       <c r="B24" s="4" t="s">
         <v>102</v>
       </c>
@@ -2891,7 +4193,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:9">
       <c r="B25" s="4" t="s">
         <v>103</v>
       </c>
@@ -2902,7 +4204,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:9">
       <c r="B26" s="4" t="s">
         <v>104</v>
       </c>
@@ -2913,7 +4215,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:9">
       <c r="B27" s="4" t="s">
         <v>105</v>
       </c>
@@ -2924,7 +4226,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="2:9">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2933,7 +4235,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:9">
       <c r="B29" s="4" t="s">
         <v>106</v>
       </c>
@@ -2944,7 +4246,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="2:9">
       <c r="B30" s="4" t="s">
         <v>107</v>
       </c>
@@ -2955,7 +4257,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:9">
       <c r="B31" s="4" t="s">
         <v>115</v>
       </c>
@@ -2969,7 +4271,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="2:9">
       <c r="B32" s="4" t="s">
         <v>108</v>
       </c>
@@ -2980,7 +4282,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="33" spans="2:8">
       <c r="B33" s="4" t="s">
         <v>109</v>
       </c>
@@ -2991,7 +4293,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:8">
       <c r="B34" s="4" t="s">
         <v>110</v>
       </c>
@@ -3002,7 +4304,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="35" spans="2:8">
       <c r="B35" s="4" t="s">
         <v>111</v>
       </c>
@@ -3013,7 +4315,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="36" spans="2:8">
       <c r="B36" s="4" t="s">
         <v>112</v>
       </c>
@@ -3024,324 +4326,588 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.7">
+    <row r="40" spans="2:8">
       <c r="B40" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
       <c r="B45" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B46" t="s">
+    <row r="51" spans="2:4">
+      <c r="B51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
+        <v>307</v>
+      </c>
+      <c r="D54" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B47" t="s">
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B50" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C50" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B51" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B52" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B54" t="s">
-        <v>309</v>
-      </c>
-      <c r="D54" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B56" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B57" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B58" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B59" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B61" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B62" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B64" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B65" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B67" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B68" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B70" t="s">
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B71" t="s">
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B74" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B75" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B77" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B78" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B80" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B81" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B82" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B83" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B86" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B87" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B89" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B90" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B91" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B92" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B93" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B95" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B96" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B97" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B98" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B100" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B101" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B102" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B104" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B105" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B106" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B109" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B110" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.7">
+    <row r="113" spans="2:14">
       <c r="B113" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14">
+      <c r="B114" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14">
+      <c r="B115" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.7">
-      <c r="B114" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.7">
-      <c r="B115" t="s">
-        <v>345</v>
-      </c>
       <c r="I115" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
       <c r="M115" s="9"/>
       <c r="N115" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.7">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14">
       <c r="B117" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14">
+      <c r="B118" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14">
+      <c r="B120" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.7">
-      <c r="B118" t="s">
+    <row r="121" spans="2:14">
+      <c r="B121" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.7">
-      <c r="B120" t="s">
+    <row r="123" spans="2:14">
+      <c r="B123" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.7">
-      <c r="B121" t="s">
+    <row r="124" spans="2:14">
+      <c r="B124" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.7">
-      <c r="B123" t="s">
+    <row r="125" spans="2:14">
+      <c r="B125" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.7">
-      <c r="B124" t="s">
+    <row r="126" spans="2:14">
+      <c r="B126" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.7">
-      <c r="B125" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.7">
-      <c r="B126" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B129" s="3"/>
+    <row r="129" spans="2:3">
+      <c r="B129" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="B136" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C136" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D150" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4">
+      <c r="B155" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="B156" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4">
+      <c r="B158" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="C160" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6">
+      <c r="B161" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6">
+      <c r="C162" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6">
+      <c r="B163" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6">
+      <c r="B166" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D166" t="s">
+        <v>717</v>
+      </c>
+      <c r="F166" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6">
+      <c r="B167" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6">
+      <c r="B168" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6">
+      <c r="B169" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6">
+      <c r="B170" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6">
+      <c r="B171" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6">
+      <c r="B173" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6">
+      <c r="B174" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6">
+      <c r="B175" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6">
+      <c r="B176" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" s="15" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4">
+      <c r="B182" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4">
+      <c r="C183" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="D184" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="D185" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4">
+      <c r="D186" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4">
+      <c r="C187" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4">
+      <c r="C188" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4">
+      <c r="B190" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4">
+      <c r="B191" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4">
+      <c r="B192" t="s">
+        <v>738</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3351,35 +4917,35 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A260979B-AC5D-44AC-8A56-31F887E992EC}">
-  <dimension ref="B2:J67"/>
+  <dimension ref="B2:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:10">
       <c r="B2" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="C4" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="D5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="D6" s="6" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="C4" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="D5" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="D6" s="6" t="s">
-        <v>417</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -3388,9 +4954,9 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:10">
       <c r="D7" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -3399,9 +4965,9 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:10">
       <c r="D8" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -3410,44 +4976,44 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:10">
       <c r="D9" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.7">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
       <c r="D10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="C12" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="C12" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:10">
       <c r="D13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="D14" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="D15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10">
+      <c r="D17" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="D14" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.7">
-      <c r="D15" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.7">
-      <c r="D17" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.7">
+    <row r="18" spans="4:10">
       <c r="D18" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -3456,9 +5022,9 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.7">
+    <row r="19" spans="4:10">
       <c r="D19" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -3467,7 +5033,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.7">
+    <row r="20" spans="4:10">
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -3476,9 +5042,9 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.7">
+    <row r="21" spans="4:10">
       <c r="D21" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -3487,9 +5053,9 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.7">
+    <row r="22" spans="4:10">
       <c r="D22" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -3498,9 +5064,9 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.7">
+    <row r="23" spans="4:10">
       <c r="D23" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -3509,9 +5075,9 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.7">
+    <row r="24" spans="4:10">
       <c r="D24" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -3520,9 +5086,9 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.7">
+    <row r="25" spans="4:10">
       <c r="D25" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -3531,177 +5097,508 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.7">
+    <row r="27" spans="4:10">
       <c r="D27" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10">
+      <c r="D28" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10">
+      <c r="D29" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10">
+      <c r="D30" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10">
+      <c r="D32" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="D35" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="D36" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="E37" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="D38" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="E39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="D40" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="E41" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5">
+      <c r="C43" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="D44" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.7">
-      <c r="D28" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.7">
-      <c r="D29" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.7">
-      <c r="D30" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.7">
-      <c r="D32" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="C34" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D35" t="s">
+    <row r="45" spans="3:5">
+      <c r="D45" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D36" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="E37" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D38" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="E39" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D40" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="E41" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="C43" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D44" t="s">
+    <row r="46" spans="3:5">
+      <c r="D46" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D45" t="s">
+    <row r="48" spans="3:5">
+      <c r="D48" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D46" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D48" t="s">
+    <row r="49" spans="3:8">
+      <c r="D49" s="6" t="s">
         <v>434</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="D49" s="6" t="s">
-        <v>436</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.7">
+    <row r="50" spans="3:8">
       <c r="D50" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.7">
+    <row r="51" spans="3:8">
       <c r="D51" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="D52" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="D54" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="D55" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="D52" t="s">
+    <row r="56" spans="3:8">
+      <c r="D56" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="C58" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="D54" t="s">
+    <row r="59" spans="3:8">
+      <c r="D59" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="D60" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8">
+      <c r="D62" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8">
+      <c r="D63" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="D64" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="D66" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="D55" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="D56" t="s">
+    <row r="67" spans="2:10">
+      <c r="D67" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="C58" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="D59" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="D60" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="D62" t="s">
+    <row r="72" spans="2:10">
+      <c r="B72" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="C73" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="C75" s="6" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="D63" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.7">
-      <c r="D64" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.7">
-      <c r="D66" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.7">
-      <c r="D67" t="s">
-        <v>442</v>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="C76" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="C77" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="C78" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="C79" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="C80" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="C83" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="C84" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="C85" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="C86" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="C87" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="C88" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="C89" s="18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="B94" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="B95" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="B96" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>829</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981985AD-375E-43D0-827A-D4C89BA4242E}">
+  <dimension ref="B4:O24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="4" spans="2:15">
+      <c r="B4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="C5" t="s">
+        <v>651</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="C7" t="s">
+        <v>650</v>
+      </c>
+      <c r="O7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="C9" t="s">
+        <v>645</v>
+      </c>
+      <c r="O9" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="D10" t="s">
+        <v>649</v>
+      </c>
+      <c r="O10" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="D11" t="s">
+        <v>652</v>
+      </c>
+      <c r="O11" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="D12" t="s">
+        <v>653</v>
+      </c>
+      <c r="O12" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="D13" t="s">
+        <v>654</v>
+      </c>
+      <c r="O13" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="D15" t="s">
+        <v>656</v>
+      </c>
+      <c r="O15" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="C17" t="s">
+        <v>667</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="C18" t="s">
+        <v>668</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="C19" t="s">
+        <v>671</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" t="s">
+        <v>659</v>
+      </c>
+      <c r="O21" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="C22" t="s">
+        <v>661</v>
+      </c>
+      <c r="O22" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="C23" t="s">
+        <v>663</v>
+      </c>
+      <c r="O23" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="C24" t="s">
+        <v>665</v>
+      </c>
+      <c r="O24" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -3718,7 +5615,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="30.75" customWidth="1"/>
     <col min="3" max="3" width="52.875" customWidth="1"/>
@@ -3727,12 +5624,12 @@
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:4">
       <c r="B2" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
@@ -3743,7 +5640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3754,7 +5651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3765,7 +5662,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3776,7 +5673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
@@ -3787,7 +5684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
@@ -3798,7 +5695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -3809,7 +5706,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3820,7 +5717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3831,7 +5728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3842,7 +5739,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
@@ -3853,7 +5750,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:4">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -3864,7 +5761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="15" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
@@ -3875,7 +5772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="16" spans="2:4">
       <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
@@ -3886,7 +5783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:5">
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
@@ -3897,7 +5794,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:5">
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
@@ -3908,7 +5805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="19" spans="2:5">
       <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
@@ -3919,19 +5816,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:5">
       <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:5">
       <c r="B21" s="1" t="s">
         <v>3</v>
       </c>
@@ -3942,7 +5839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:5">
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
@@ -3953,7 +5850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:5">
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3964,7 +5861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="24" spans="2:5">
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
@@ -3975,7 +5872,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="25" spans="2:5">
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
@@ -3986,7 +5883,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="26" spans="2:5">
       <c r="B26" s="1" t="s">
         <v>12</v>
       </c>
@@ -3997,7 +5894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="27" spans="2:5">
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
@@ -4023,309 +5920,309 @@
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:4">
       <c r="B4" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="C6" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B5" t="s">
+      <c r="D6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="C6" t="s">
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
         <v>333</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B8" t="s">
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B10" t="s">
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B14" t="s">
+    <row r="17" spans="2:23">
+      <c r="B17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="C15" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="B17" t="s">
+    <row r="21" spans="2:23">
+      <c r="B21" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="B19" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="B21" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:23">
       <c r="B29" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E29" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23">
+      <c r="B30" t="s">
+        <v>355</v>
+      </c>
+      <c r="E30" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23">
+      <c r="B31" t="s">
         <v>356</v>
       </c>
-      <c r="E29" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="B30" t="s">
+      <c r="E31" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23">
+      <c r="E32" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="W32" s="8" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23">
+      <c r="E33" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="W33" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23">
+      <c r="B34" t="s">
         <v>357</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E34" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23">
+      <c r="E35" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23">
+      <c r="B36" t="s">
+        <v>363</v>
+      </c>
+      <c r="E36" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23">
+      <c r="B37" t="s">
+        <v>358</v>
+      </c>
+      <c r="E37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23">
+      <c r="E38" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23">
+      <c r="E39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23">
+      <c r="E40" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23">
+      <c r="B43" t="s">
+        <v>368</v>
+      </c>
+      <c r="G43" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23">
+      <c r="B44" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="B31" t="s">
-        <v>358</v>
-      </c>
-      <c r="E31" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="E32" s="8" t="s">
+      <c r="G44" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23">
+      <c r="B45" t="s">
+        <v>370</v>
+      </c>
+      <c r="G45" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23">
+      <c r="B46" t="s">
+        <v>407</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="P46" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="W32" s="8" t="s">
+    </row>
+    <row r="47" spans="2:23">
+      <c r="B47" t="s">
+        <v>371</v>
+      </c>
+      <c r="G47" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23">
+      <c r="B48" t="s">
+        <v>372</v>
+      </c>
+      <c r="G48" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16">
+      <c r="B49" t="s">
+        <v>373</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="P49" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16">
+      <c r="B50" t="s">
+        <v>374</v>
+      </c>
+      <c r="G50" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16">
+      <c r="B51" t="s">
+        <v>375</v>
+      </c>
+      <c r="G51" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="E33" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="W33" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="B34" t="s">
-        <v>359</v>
-      </c>
-      <c r="E34" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="E35" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="B36" t="s">
-        <v>365</v>
-      </c>
-      <c r="E36" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="B37" t="s">
-        <v>360</v>
-      </c>
-      <c r="E37" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="E38" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="E39" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="E40" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="B43" t="s">
-        <v>370</v>
-      </c>
-      <c r="G43" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="B44" t="s">
-        <v>371</v>
-      </c>
-      <c r="G44" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="B45" t="s">
-        <v>372</v>
-      </c>
-      <c r="G45" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="B46" t="s">
-        <v>409</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="P46" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="B47" t="s">
-        <v>373</v>
-      </c>
-      <c r="G47" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.7">
-      <c r="B48" t="s">
-        <v>374</v>
-      </c>
-      <c r="G48" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B49" t="s">
-        <v>375</v>
-      </c>
-      <c r="G49" s="8" t="s">
+    <row r="52" spans="2:16">
+      <c r="B52" t="s">
+        <v>376</v>
+      </c>
+      <c r="G52" t="s">
         <v>394</v>
       </c>
-      <c r="P49" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B50" t="s">
-        <v>376</v>
-      </c>
-      <c r="G50" t="s">
+    </row>
+    <row r="53" spans="2:16">
+      <c r="B53" t="s">
+        <v>377</v>
+      </c>
+      <c r="G53" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B51" t="s">
-        <v>377</v>
-      </c>
-      <c r="G51" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B52" t="s">
+    <row r="54" spans="2:16">
+      <c r="B54" t="s">
         <v>378</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G54" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B53" t="s">
+    <row r="55" spans="2:16">
+      <c r="B55" t="s">
         <v>379</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G55" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B54" t="s">
+    <row r="56" spans="2:16">
+      <c r="B56" t="s">
         <v>380</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G56" s="8" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B55" t="s">
+      <c r="P56" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16">
+      <c r="B57" t="s">
         <v>381</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G57" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B56" t="s">
+    <row r="58" spans="2:16">
+      <c r="B58" t="s">
         <v>382</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G58" t="s">
         <v>400</v>
       </c>
-      <c r="P56" s="9" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B57" t="s">
+    </row>
+    <row r="59" spans="2:16">
+      <c r="B59" t="s">
         <v>383</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G59" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B58" t="s">
+    <row r="60" spans="2:16">
+      <c r="B60" t="s">
         <v>384</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G60" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B59" t="s">
+    <row r="61" spans="2:16">
+      <c r="B61" t="s">
         <v>385</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G61" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B60" t="s">
-        <v>386</v>
-      </c>
-      <c r="G60" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.7">
-      <c r="B61" t="s">
-        <v>387</v>
-      </c>
-      <c r="G61" t="s">
-        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -4336,13 +6233,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0957E3D-C1DB-4236-AD70-CE7D76C9D549}">
-  <dimension ref="B2:F17"/>
+  <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="7.125" customWidth="1"/>
     <col min="3" max="3" width="31.75" bestFit="1" customWidth="1"/>
@@ -4351,12 +6248,12 @@
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:6">
       <c r="B2" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:6">
       <c r="B3" s="2" t="s">
         <v>56</v>
       </c>
@@ -4373,7 +6270,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:6">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -4390,7 +6287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:6">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -4407,7 +6304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:6">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -4424,7 +6321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:6">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -4441,7 +6338,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:6">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -4458,12 +6355,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:6">
       <c r="B10" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:6">
       <c r="C11" s="2" t="s">
         <v>57</v>
       </c>
@@ -4471,7 +6368,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:6">
       <c r="C12" s="1" t="s">
         <v>74</v>
       </c>
@@ -4479,7 +6376,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:6">
       <c r="C13" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,7 +6384,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:6">
       <c r="C14" s="1" t="s">
         <v>78</v>
       </c>
@@ -4495,7 +6392,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="15" spans="2:6">
       <c r="C15" s="1" t="s">
         <v>80</v>
       </c>
@@ -4503,7 +6400,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="16" spans="2:6">
       <c r="C16" s="1" t="s">
         <v>82</v>
       </c>
@@ -4511,13 +6408,16 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:5">
       <c r="C17" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>85</v>
       </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4528,20 +6428,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E03622-214E-42EF-A8A2-78D8D9D8A2CF}">
-  <dimension ref="B3:D28"/>
+  <dimension ref="B3:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="40.625" customWidth="1"/>
     <col min="3" max="3" width="39.375" customWidth="1"/>
     <col min="4" max="4" width="47.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>118</v>
       </c>
@@ -4552,7 +6452,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>121</v>
       </c>
@@ -4563,7 +6463,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:4">
       <c r="B5" s="1" t="s">
         <v>124</v>
       </c>
@@ -4574,7 +6474,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>127</v>
       </c>
@@ -4585,7 +6485,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>130</v>
       </c>
@@ -4596,7 +6496,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>133</v>
       </c>
@@ -4607,12 +6507,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:4">
       <c r="B10" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" s="2" t="s">
         <v>136</v>
       </c>
@@ -4623,7 +6523,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>138</v>
       </c>
@@ -4634,7 +6534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>140</v>
       </c>
@@ -4645,7 +6545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:4">
       <c r="B14" s="1" t="s">
         <v>142</v>
       </c>
@@ -4656,7 +6556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="15" spans="2:4">
       <c r="B15" s="1" t="s">
         <v>143</v>
       </c>
@@ -4667,7 +6567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="16" spans="2:4">
       <c r="B16" s="1" t="s">
         <v>145</v>
       </c>
@@ -4678,7 +6578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
         <v>147</v>
       </c>
@@ -4689,23 +6589,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:4">
       <c r="B18" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:4">
       <c r="B20" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.7">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" s="2" t="s">
         <v>150</v>
       </c>
@@ -4716,9 +6616,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="22" spans="2:4">
       <c r="B22" s="1" t="s">
-        <v>101</v>
+        <v>612</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>153</v>
@@ -4727,69 +6627,209 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="23" spans="2:4">
       <c r="B23" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="1" t="s">
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="1" t="s">
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D26" s="1" t="s">
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D27" s="1" t="s">
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>171</v>
-      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="D39" s="13"/>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="D43" s="13"/>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="D44" s="13"/>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="D45" s="13"/>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="D46" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4799,210 +6839,475 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A3EBF5-FAA1-40B5-950A-1DD2A36888AB}">
-  <dimension ref="B2:D36"/>
+  <dimension ref="B2:D89"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="38.5" customWidth="1"/>
     <col min="4" max="4" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="2:4">
+      <c r="B11" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="16" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="2:4">
+      <c r="B15" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B15" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B20" s="3" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>688</v>
+      </c>
+      <c r="C18" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="C19" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" s="15" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="C21" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="C27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="C35" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="C36" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="C37" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="C38" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="7" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B21" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C21" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="C22" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="C23" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="C24" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B26" s="7" t="s">
+      <c r="C40" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="C41" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="C42" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="C43" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C26" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="C27" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="C28" s="6" t="s">
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="C44" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="C29" s="6" t="s">
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="C45" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="C30" s="6" t="s">
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="C46" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="C31" s="6" t="s">
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="C47" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="C48" t="s">
         <v>477</v>
       </c>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="C32" s="6" t="s">
+    </row>
+    <row r="49" spans="2:3">
+      <c r="C49" t="s">
         <v>478</v>
       </c>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.7">
-      <c r="C33" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.7">
-      <c r="C34" t="s">
+    </row>
+    <row r="50" spans="2:3">
+      <c r="C50" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.7">
-      <c r="C35" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.7">
-      <c r="C36" t="s">
-        <v>481</v>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>742</v>
+      </c>
+      <c r="C52" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>753</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>752</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>749</v>
+      </c>
+      <c r="C55" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
+        <v>740</v>
+      </c>
+      <c r="C56" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
+        <v>751</v>
+      </c>
+      <c r="C57" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" t="s">
+        <v>746</v>
+      </c>
+      <c r="C60" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" t="s">
+        <v>756</v>
+      </c>
+      <c r="C61" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
+        <v>748</v>
+      </c>
+      <c r="C62" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" t="s">
+        <v>747</v>
+      </c>
+      <c r="C63" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" t="s">
+        <v>741</v>
+      </c>
+      <c r="C64" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
+        <v>744</v>
+      </c>
+      <c r="C67" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" t="s">
+        <v>754</v>
+      </c>
+      <c r="C68" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" s="3" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" t="s">
+        <v>745</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" t="s">
+        <v>757</v>
+      </c>
+      <c r="C72" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
+        <v>755</v>
+      </c>
+      <c r="C75" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="C76" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="C78" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="C79" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="C81" s="7" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="C82" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="C83" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="C84" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="C86" s="17" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>750</v>
+      </c>
+      <c r="C89" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>
@@ -5019,14 +7324,14 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="52.875" customWidth="1"/>
     <col min="4" max="4" width="53.625" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>56</v>
       </c>
@@ -5034,27 +7339,27 @@
         <v>136</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.7">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:5">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -5062,222 +7367,222 @@
         <v>149</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:5">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:5">
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:5">
       <c r="B8" s="1">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:5">
       <c r="B9" s="1">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:5">
       <c r="B10" s="1">
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="11" spans="2:5">
       <c r="B11" s="1">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:5">
       <c r="B12" s="1">
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="13" spans="2:5">
       <c r="B13" s="1">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:5">
       <c r="B14" s="1">
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="15" spans="2:5">
       <c r="B15" s="1">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="16" spans="2:5">
       <c r="B16" s="1">
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="17" spans="2:5">
       <c r="B17" s="1">
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:5">
       <c r="B18" s="1">
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="20" spans="2:5">
       <c r="B20" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
       <c r="B23" s="1">
         <v>2</v>
       </c>
@@ -5285,111 +7590,111 @@
         <v>149</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="1">
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B27" s="3" t="s">
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B28" t="s">
+    <row r="29" spans="2:5">
+      <c r="D29" t="s">
         <v>243</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="30" spans="2:5">
+      <c r="D30" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="D29" t="s">
+    <row r="31" spans="2:5">
+      <c r="D31" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="D30" t="s">
+    <row r="33" spans="3:3">
+      <c r="C33" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="D31" t="s">
+    <row r="35" spans="3:3">
+      <c r="C35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.7">
-      <c r="C33" s="3" t="s">
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.7">
-      <c r="C34" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.7">
-      <c r="C35" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.7">
-      <c r="C36" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.7">
-      <c r="C37" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.7">
-      <c r="C38" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.7">
-      <c r="C39" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.7">
-      <c r="C40" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.7">
-      <c r="C41" t="s">
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.7">
-      <c r="C42" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.7">
-      <c r="C43" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.7">
-      <c r="C45" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.7">
-      <c r="C46" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -5402,96 +7707,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D662ED-7918-47B0-A440-7B2F86C0790F}">
   <dimension ref="B5:F14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:6">
       <c r="B5" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:6">
       <c r="B7" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:6">
       <c r="B8" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.7">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.7">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.7">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="F13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="F14" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.7">
-      <c r="F14" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5502,25 +7807,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B84EB83-54F8-46D9-B0C4-A2DCB02DF56B}">
-  <dimension ref="B6:J204"/>
+  <dimension ref="B6:J316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="D310" sqref="D310"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:10">
       <c r="B6" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -5530,9 +7835,9 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:10">
       <c r="B8" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -5542,9 +7847,9 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="2:10">
       <c r="B9" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -5554,9 +7859,9 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:10">
       <c r="B10" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -5566,10 +7871,10 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.7">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="6" t="s">
         <v>149</v>
       </c>
@@ -5581,699 +7886,1457 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.7">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="J12" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.7">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.7">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.7">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.7">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C21" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" t="s">
         <v>488</v>
       </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C23" t="s">
+    <row r="25" spans="2:3">
+      <c r="C25" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C24" t="s">
+    <row r="26" spans="2:3">
+      <c r="C26" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C25" t="s">
+    <row r="28" spans="2:3">
+      <c r="C28" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C26" t="s">
+    <row r="30" spans="2:3">
+      <c r="C30" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C28" t="s">
+    <row r="31" spans="2:3">
+      <c r="C31" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C30" t="s">
+    <row r="33" spans="2:3">
+      <c r="B33" s="3" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B33" s="3" t="s">
+    <row r="34" spans="2:3">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="C35" t="s">
         <v>497</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C35" t="s">
+    <row r="38" spans="2:3">
+      <c r="C38" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C37" t="s">
+    <row r="39" spans="2:3">
+      <c r="C39" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C38" t="s">
+    <row r="41" spans="2:3">
+      <c r="C41" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C39" t="s">
+    <row r="42" spans="2:3">
+      <c r="C42" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C41" t="s">
+    <row r="44" spans="2:3">
+      <c r="B44" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C44" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="C46" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="C47" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="C48" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="C49" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="C51" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="C52" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="3" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C42" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B44" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="C44" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C46" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C47" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C48" t="s">
+      <c r="C55" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="C58" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="C62" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="C64" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="C65" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="C66" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="C67" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C69" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="C71" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="C72" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="C73" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="C74" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="C76" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="C78" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C49" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C51" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C52" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C53" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B55" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="C55" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C57" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C58" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C59" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C60" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C62" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C63" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C64" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C65" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C66" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C67" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B69" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C69" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C71" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C72" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C73" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C74" t="s">
+    <row r="79" spans="2:3">
+      <c r="C79" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C76" t="s">
+    <row r="80" spans="2:3">
+      <c r="C80" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C78" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C79" t="s">
+    <row r="81" spans="2:3">
+      <c r="C81" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C80" t="s">
+    <row r="82" spans="2:3">
+      <c r="C82" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C81" t="s">
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C82" t="s">
+    <row r="89" spans="2:3">
+      <c r="B89" s="3" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B87" t="s">
+    <row r="91" spans="2:3">
+      <c r="C91" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B89" s="3" t="s">
+    <row r="92" spans="2:3">
+      <c r="C92" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C91" t="s">
+    <row r="94" spans="2:3">
+      <c r="C94" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C92" t="s">
+    <row r="95" spans="2:3">
+      <c r="C95" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C94" t="s">
+    <row r="96" spans="2:3">
+      <c r="C96" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C95" t="s">
+    <row r="97" spans="2:3">
+      <c r="C97" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C96" t="s">
+    <row r="98" spans="2:3">
+      <c r="C98" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C97" t="s">
+    <row r="99" spans="2:3">
+      <c r="C99" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C98" t="s">
+    <row r="100" spans="2:3">
+      <c r="C100" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C99" t="s">
+    <row r="101" spans="2:3">
+      <c r="C101" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C100" t="s">
+    <row r="102" spans="2:3">
+      <c r="C102" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C101" t="s">
+    <row r="103" spans="2:3">
+      <c r="C103" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C102" t="s">
+    <row r="104" spans="2:3">
+      <c r="C104" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C103" t="s">
+    <row r="105" spans="2:3">
+      <c r="C105" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C104" t="s">
+    <row r="106" spans="2:3">
+      <c r="C106" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C105" t="s">
+    <row r="107" spans="2:3">
+      <c r="C107" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C106" t="s">
+    <row r="109" spans="2:3">
+      <c r="C109" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C107" t="s">
+    <row r="111" spans="2:3">
+      <c r="B111" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C109" t="s">
+    <row r="113" spans="3:5">
+      <c r="C113" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B111" s="3" t="s">
+    <row r="115" spans="3:5">
+      <c r="C115" s="3" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="C113" t="s">
+    <row r="117" spans="3:5">
+      <c r="D117" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="C115" s="3" t="s">
+    <row r="118" spans="3:5">
+      <c r="D118" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D117" t="s">
+    <row r="120" spans="3:5">
+      <c r="C120" s="3" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D118" t="s">
+    <row r="122" spans="3:5">
+      <c r="D122" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="C120" s="3" t="s">
+    <row r="124" spans="3:5">
+      <c r="D124" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D122" t="s">
+    <row r="125" spans="3:5">
+      <c r="E125" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D124" t="s">
+    <row r="126" spans="3:5">
+      <c r="E126" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="E125" t="s">
+    <row r="128" spans="3:5">
+      <c r="D128" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="E126" t="s">
+    <row r="129" spans="3:5">
+      <c r="E129" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D128" t="s">
+    <row r="130" spans="3:5">
+      <c r="E130" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="E129" t="s">
+    <row r="131" spans="3:5">
+      <c r="E131" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="E130" t="s">
+    <row r="132" spans="3:5">
+      <c r="E132" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="E131" t="s">
+    <row r="133" spans="3:5">
+      <c r="E133" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="E132" t="s">
+    <row r="135" spans="3:5">
+      <c r="D135" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="E133" t="s">
+    <row r="136" spans="3:5">
+      <c r="E136" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D135" t="s">
+    <row r="137" spans="3:5">
+      <c r="E137" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="E136" t="s">
+    <row r="138" spans="3:5">
+      <c r="E138" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="E137" t="s">
+    <row r="140" spans="3:5">
+      <c r="C140" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="E138" t="s">
+    <row r="141" spans="3:5">
+      <c r="D141" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="C140" s="3" t="s">
+    <row r="142" spans="3:5">
+      <c r="D142" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D141" t="s">
+    <row r="143" spans="3:5">
+      <c r="D143" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D142" t="s">
+    <row r="144" spans="3:5">
+      <c r="D144" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D143" t="s">
+    <row r="145" spans="2:4">
+      <c r="D145" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.7">
-      <c r="D144" t="s">
+    <row r="148" spans="2:4">
+      <c r="B148" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="D145" t="s">
+    <row r="152" spans="2:4">
+      <c r="B152" s="3" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B148" t="s">
+    <row r="153" spans="2:4">
+      <c r="C153" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="C154" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4">
+      <c r="C155" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="C156" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4">
+      <c r="C157" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="C160" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="C161" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="C162" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="C164" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="B170" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B150" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B152" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="C153" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="C154" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="C155" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="C156" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="C157" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="B159" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.7">
-      <c r="C160" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C161" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C162" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="C164" t="s">
+    <row r="173" spans="2:3">
+      <c r="B173" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B168" t="s">
+    <row r="175" spans="2:3">
+      <c r="B175" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B169" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B170" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B171" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B173" t="s">
+    <row r="176" spans="2:3">
+      <c r="B176" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B175" t="s">
+    <row r="178" spans="2:2">
+      <c r="B178" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.7">
-      <c r="B176" t="s">
+    <row r="180" spans="2:2">
+      <c r="B180" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B178" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B179" t="s">
+    <row r="184" spans="2:2">
+      <c r="B184" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B180" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B182" t="s">
+    <row r="186" spans="2:2">
+      <c r="B186" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B184" t="s">
+    <row r="187" spans="2:2">
+      <c r="B187" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B186" t="s">
+    <row r="188" spans="2:2">
+      <c r="B188" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B187" t="s">
+    <row r="189" spans="2:2">
+      <c r="B189" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B188" t="s">
+    <row r="191" spans="2:2">
+      <c r="B191" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B189" t="s">
+    <row r="193" spans="2:2">
+      <c r="B193" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B191" t="s">
+    <row r="194" spans="2:2">
+      <c r="B194" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B193" t="s">
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B194" t="s">
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B196" t="s">
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B198" t="s">
+    <row r="201" spans="2:2">
+      <c r="B201" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B200" t="s">
+    <row r="202" spans="2:2">
+      <c r="B202" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B201" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B202" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B204" t="s">
-        <v>610</v>
+    <row r="209" spans="2:2">
+      <c r="B209" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="15" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9">
+      <c r="B225" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9">
+      <c r="B227" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9">
+      <c r="B228" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9">
+      <c r="B229" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9">
+      <c r="B230" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9">
+      <c r="B232" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9">
+      <c r="B233" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9">
+      <c r="B234" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9">
+      <c r="B235" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9">
+      <c r="B237" s="3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9">
+      <c r="B238" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9">
+      <c r="C239" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+      <c r="I239" s="6"/>
+    </row>
+    <row r="240" spans="2:9">
+      <c r="C240" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+      <c r="I240" s="6"/>
+    </row>
+    <row r="241" spans="2:10">
+      <c r="C241" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+      <c r="I241" s="6"/>
+    </row>
+    <row r="242" spans="2:10">
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6"/>
+      <c r="I242" s="6"/>
+    </row>
+    <row r="243" spans="2:10">
+      <c r="C243" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+      <c r="I243" s="6"/>
+    </row>
+    <row r="244" spans="2:10">
+      <c r="C244" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+      <c r="I244" s="6"/>
+    </row>
+    <row r="245" spans="2:10">
+      <c r="C245" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+      <c r="I245" s="6"/>
+    </row>
+    <row r="246" spans="2:10">
+      <c r="C246" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+      <c r="I246" s="6"/>
+    </row>
+    <row r="247" spans="2:10">
+      <c r="C247" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+      <c r="I247" s="6"/>
+    </row>
+    <row r="248" spans="2:10">
+      <c r="C248" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+      <c r="I248" s="6"/>
+    </row>
+    <row r="249" spans="2:10">
+      <c r="C249" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6"/>
+      <c r="I249" s="6"/>
+    </row>
+    <row r="251" spans="2:10">
+      <c r="B251" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="252" spans="2:10">
+      <c r="C252" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6"/>
+      <c r="I252" s="6"/>
+      <c r="J252" s="6"/>
+    </row>
+    <row r="253" spans="2:10">
+      <c r="C253" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+      <c r="I253" s="6"/>
+      <c r="J253" s="6"/>
+    </row>
+    <row r="254" spans="2:10">
+      <c r="C254" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+      <c r="I254" s="6"/>
+      <c r="J254" s="6"/>
+    </row>
+    <row r="255" spans="2:10">
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+      <c r="I255" s="6"/>
+      <c r="J255" s="6"/>
+    </row>
+    <row r="256" spans="2:10">
+      <c r="C256" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
+      <c r="I256" s="6"/>
+      <c r="J256" s="6"/>
+    </row>
+    <row r="257" spans="2:10">
+      <c r="C257" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+      <c r="I257" s="6"/>
+      <c r="J257" s="6"/>
+    </row>
+    <row r="258" spans="2:10">
+      <c r="C258" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6"/>
+      <c r="I258" s="6"/>
+      <c r="J258" s="6"/>
+    </row>
+    <row r="259" spans="2:10">
+      <c r="C259" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+      <c r="I259" s="6"/>
+      <c r="J259" s="6"/>
+    </row>
+    <row r="260" spans="2:10">
+      <c r="C260" s="6"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6"/>
+      <c r="I260" s="6"/>
+      <c r="J260" s="6"/>
+    </row>
+    <row r="261" spans="2:10">
+      <c r="C261" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="6"/>
+      <c r="I261" s="6"/>
+      <c r="J261" s="6"/>
+    </row>
+    <row r="262" spans="2:10">
+      <c r="C262" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="6"/>
+      <c r="I262" s="6"/>
+      <c r="J262" s="6"/>
+    </row>
+    <row r="263" spans="2:10">
+      <c r="C263" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="6"/>
+      <c r="I263" s="6"/>
+      <c r="J263" s="6"/>
+    </row>
+    <row r="264" spans="2:10">
+      <c r="C264" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
+      <c r="H264" s="6"/>
+      <c r="I264" s="6"/>
+      <c r="J264" s="6"/>
+    </row>
+    <row r="265" spans="2:10">
+      <c r="C265" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="6"/>
+      <c r="I265" s="6"/>
+      <c r="J265" s="6"/>
+    </row>
+    <row r="267" spans="2:10">
+      <c r="B267" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="268" spans="2:10">
+      <c r="C268" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="D268" s="6"/>
+      <c r="E268" s="6"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="6"/>
+      <c r="H268" s="6"/>
+      <c r="I268" s="6"/>
+      <c r="J268" s="6"/>
+    </row>
+    <row r="269" spans="2:10">
+      <c r="C269" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="D269" s="6"/>
+      <c r="E269" s="6"/>
+      <c r="F269" s="6"/>
+      <c r="G269" s="6"/>
+      <c r="H269" s="6"/>
+      <c r="I269" s="6"/>
+      <c r="J269" s="6"/>
+    </row>
+    <row r="270" spans="2:10">
+      <c r="C270" s="6"/>
+      <c r="D270" s="6"/>
+      <c r="E270" s="6"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
+      <c r="H270" s="6"/>
+      <c r="I270" s="6"/>
+      <c r="J270" s="6"/>
+    </row>
+    <row r="271" spans="2:10">
+      <c r="C271" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="D271" s="6"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="6"/>
+      <c r="G271" s="6"/>
+      <c r="H271" s="6"/>
+      <c r="I271" s="6"/>
+      <c r="J271" s="6"/>
+    </row>
+    <row r="272" spans="2:10">
+      <c r="C272" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
+      <c r="I272" s="6"/>
+      <c r="J272" s="6"/>
+    </row>
+    <row r="273" spans="3:10">
+      <c r="C273" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="D273" s="6"/>
+      <c r="E273" s="6"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="6"/>
+      <c r="I273" s="6"/>
+      <c r="J273" s="6"/>
+    </row>
+    <row r="274" spans="3:10">
+      <c r="C274" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6"/>
+      <c r="I274" s="6"/>
+      <c r="J274" s="6"/>
+    </row>
+    <row r="275" spans="3:10">
+      <c r="C275" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+      <c r="I275" s="6"/>
+      <c r="J275" s="6"/>
+    </row>
+    <row r="276" spans="3:10">
+      <c r="C276" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+      <c r="I276" s="6"/>
+      <c r="J276" s="6"/>
+    </row>
+    <row r="277" spans="3:10">
+      <c r="C277" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+      <c r="I277" s="6"/>
+      <c r="J277" s="6"/>
+    </row>
+    <row r="278" spans="3:10">
+      <c r="C278" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
+      <c r="I278" s="6"/>
+      <c r="J278" s="6"/>
+    </row>
+    <row r="279" spans="3:10">
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+      <c r="I279" s="6"/>
+      <c r="J279" s="6"/>
+    </row>
+    <row r="280" spans="3:10">
+      <c r="C280" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+      <c r="I280" s="6"/>
+      <c r="J280" s="6"/>
+    </row>
+    <row r="281" spans="3:10">
+      <c r="C281" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
+      <c r="F281" s="6"/>
+      <c r="G281" s="6"/>
+      <c r="H281" s="6"/>
+      <c r="I281" s="6"/>
+      <c r="J281" s="6"/>
+    </row>
+    <row r="282" spans="3:10">
+      <c r="C282" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="D282" s="6"/>
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
+      <c r="I282" s="6"/>
+      <c r="J282" s="6"/>
+    </row>
+    <row r="283" spans="3:10">
+      <c r="C283" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
+      <c r="I283" s="6"/>
+      <c r="J283" s="6"/>
+    </row>
+    <row r="284" spans="3:10">
+      <c r="C284" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
+      <c r="G284" s="6"/>
+      <c r="H284" s="6"/>
+      <c r="I284" s="6"/>
+      <c r="J284" s="6"/>
+    </row>
+    <row r="285" spans="3:10">
+      <c r="C285" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="D285" s="6"/>
+      <c r="E285" s="6"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
+      <c r="H285" s="6"/>
+      <c r="I285" s="6"/>
+      <c r="J285" s="6"/>
+    </row>
+    <row r="286" spans="3:10">
+      <c r="C286" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="D286" s="6"/>
+      <c r="E286" s="6"/>
+      <c r="F286" s="6"/>
+      <c r="G286" s="6"/>
+      <c r="H286" s="6"/>
+      <c r="I286" s="6"/>
+      <c r="J286" s="6"/>
+    </row>
+    <row r="287" spans="3:10">
+      <c r="C287" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="D287" s="6"/>
+      <c r="E287" s="6"/>
+      <c r="F287" s="6"/>
+      <c r="G287" s="6"/>
+      <c r="H287" s="6"/>
+      <c r="I287" s="6"/>
+      <c r="J287" s="6"/>
+    </row>
+    <row r="288" spans="3:10">
+      <c r="C288" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D288" s="6"/>
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
+      <c r="G288" s="6"/>
+      <c r="H288" s="6"/>
+      <c r="I288" s="6"/>
+      <c r="J288" s="6"/>
+    </row>
+    <row r="289" spans="2:10">
+      <c r="C289" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D289" s="6"/>
+      <c r="E289" s="6"/>
+      <c r="F289" s="6"/>
+      <c r="G289" s="6"/>
+      <c r="H289" s="6"/>
+      <c r="I289" s="6"/>
+      <c r="J289" s="6"/>
+    </row>
+    <row r="293" spans="2:10">
+      <c r="B293" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="294" spans="2:10">
+      <c r="B294" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="295" spans="2:10">
+      <c r="B295" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="297" spans="2:10">
+      <c r="B297" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="298" spans="2:10">
+      <c r="B298" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="300" spans="2:10">
+      <c r="B300" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="301" spans="2:10">
+      <c r="B301" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="304" spans="2:10">
+      <c r="B304" s="3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" t="s">
+        <v>879</v>
       </c>
     </row>
   </sheetData>

--- a/BAS_memo.xlsx
+++ b/BAS_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E09A5BE-0DA7-43B0-965D-8B67D97467F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A87E084-774D-4511-B30E-03F70D8D9F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="840" windowWidth="23625" windowHeight="12540" firstSheet="2" activeTab="8" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="904">
   <si>
     <t>Configure Keybinding</t>
   </si>
@@ -982,9 +982,6 @@
   </si>
   <si>
     <t>cd hello-world-spring-batch</t>
-  </si>
-  <si>
-    <t>mvn clean package -DskipTests</t>
   </si>
   <si>
     <t>この Spring Batch プロジェクトのソースコードをコンパイルして、実行できる形（jar）にまとめる。ただしテストは省略</t>
@@ -3551,6 +3548,182 @@
   </si>
   <si>
     <t>ので、これは Stepを分割したほうがいい です。（1step / 1tasklet）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mvn clean package -DskipTests</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>classpath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java がファイルを探しに行く場所のリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mavenプロジェクトでは</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>という「デフォルトの場所」を自動で探しに行きます</t>
+  </si>
+  <si>
+    <t>Spring Boot は</t>
+  </si>
+  <si>
+    <r>
+      <t>スキーマ用: classpath:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schema.sql</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>データ用: classpath:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data.sql</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java ソース</t>
+  </si>
+  <si>
+    <t>Spring Boot や IDE（IntelliJ, VS Code の拡張など）は</t>
+  </si>
+  <si>
+    <t>この前提でいろいろ自動化されています。</t>
+  </si>
+  <si>
+    <t>Maven の標準レイアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　→{プロジェクト}/src/main/java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>リソース</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（application.properties, schema.sql など）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　→{プロジェクト}/src/main/resources</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;!-- Javaソース --&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;resources&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;resource&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/resource&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/resources&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;!-- リソース --&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これを変えるにはpom.xmlを変える必要がある</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;directory&gt;src/my-resources&lt;/directory&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;sourceDirectory&gt;src/my-java&lt;/sourceDirectory&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{プロジェクト}/target/classes 配下が classpath のルート</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3714,7 +3887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3767,9 +3940,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4086,10 +4256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FF6450-600E-40AD-8F1C-A40D14B3DEBD}">
-  <dimension ref="B3:N192"/>
+  <dimension ref="B3:N198"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B183" sqref="B183"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4343,515 +4513,515 @@
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C50" t="s">
         <v>277</v>
-      </c>
-      <c r="C50" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" t="s">
+        <v>306</v>
+      </c>
+      <c r="D54" t="s">
         <v>307</v>
-      </c>
-      <c r="D54" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="2:4">
       <c r="B58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" spans="2:4">
       <c r="B61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="B62" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="B64" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="2:2">
       <c r="B80" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="2:14">
       <c r="B113" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" spans="2:14">
       <c r="B114" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="115" spans="2:14">
       <c r="B115" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
       <c r="M115" s="9"/>
       <c r="N115" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="2:14">
       <c r="B117" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="118" spans="2:14">
       <c r="B118" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="120" spans="2:14">
       <c r="B120" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="121" spans="2:14">
       <c r="B121" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123" spans="2:14">
       <c r="B123" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="124" spans="2:14">
       <c r="B124" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="125" spans="2:14">
       <c r="B125" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="126" spans="2:14">
       <c r="B126" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="129" spans="2:3">
       <c r="B129" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="133" spans="2:3">
       <c r="B133" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="136" spans="2:3">
       <c r="B136" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C136" t="s">
         <v>689</v>
-      </c>
-      <c r="C136" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="139" spans="2:3">
       <c r="B139" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="143" spans="2:3">
       <c r="B143" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="144" spans="2:3">
       <c r="B144" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="145" spans="2:4">
       <c r="B145" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="146" spans="2:4">
       <c r="B146" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="147" spans="2:4">
       <c r="B147" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="150" spans="2:4">
       <c r="B150" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D150" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="151" spans="2:4">
       <c r="B151" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="152" spans="2:4">
       <c r="B152" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="153" spans="2:4">
       <c r="B153" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="154" spans="2:4">
       <c r="B154" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="155" spans="2:4">
       <c r="B155" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="156" spans="2:4">
       <c r="B156" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="158" spans="2:4">
       <c r="B158" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="159" spans="2:4">
       <c r="B159" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="160" spans="2:4">
       <c r="C160" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="161" spans="2:6">
       <c r="B161" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="162" spans="2:6">
       <c r="C162" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="163" spans="2:6">
       <c r="B163" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="166" spans="2:6">
       <c r="B166" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D166" t="s">
         <v>716</v>
       </c>
-      <c r="D166" t="s">
+      <c r="F166" t="s">
         <v>717</v>
-      </c>
-      <c r="F166" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="167" spans="2:6">
       <c r="B167" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="168" spans="2:6">
       <c r="B168" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="169" spans="2:6">
       <c r="B169" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="170" spans="2:6">
       <c r="B170" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="171" spans="2:6">
       <c r="B171" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="173" spans="2:6">
       <c r="B173" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="174" spans="2:6">
       <c r="B174" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="175" spans="2:6">
       <c r="B175" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="176" spans="2:6">
       <c r="B176" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="179" spans="2:4">
       <c r="B179" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="180" spans="2:4">
       <c r="B180" s="15" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="181" spans="2:4">
@@ -4861,52 +5031,72 @@
     </row>
     <row r="182" spans="2:4">
       <c r="B182" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="183" spans="2:4">
       <c r="C183" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="184" spans="2:4">
       <c r="D184" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="185" spans="2:4">
       <c r="D185" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="186" spans="2:4">
       <c r="D186" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="187" spans="2:4">
       <c r="C187" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="188" spans="2:4">
       <c r="C188" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="190" spans="2:4">
       <c r="B190" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="191" spans="2:4">
       <c r="B191" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="192" spans="2:4">
       <c r="B192" t="s">
-        <v>738</v>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
+        <v>903</v>
       </c>
     </row>
   </sheetData>
@@ -4927,25 +5117,25 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="C4" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="D5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="D6" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -4956,7 +5146,7 @@
     </row>
     <row r="7" spans="2:10">
       <c r="D7" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -4967,7 +5157,7 @@
     </row>
     <row r="8" spans="2:10">
       <c r="D8" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -4978,42 +5168,42 @@
     </row>
     <row r="9" spans="2:10">
       <c r="D9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="D10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="C12" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="D13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="D14" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="D15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="4:10">
       <c r="D17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="4:10">
       <c r="D18" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -5024,7 +5214,7 @@
     </row>
     <row r="19" spans="4:10">
       <c r="D19" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -5044,7 +5234,7 @@
     </row>
     <row r="21" spans="4:10">
       <c r="D21" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -5055,7 +5245,7 @@
     </row>
     <row r="22" spans="4:10">
       <c r="D22" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -5066,7 +5256,7 @@
     </row>
     <row r="23" spans="4:10">
       <c r="D23" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -5077,7 +5267,7 @@
     </row>
     <row r="24" spans="4:10">
       <c r="D24" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -5088,7 +5278,7 @@
     </row>
     <row r="25" spans="4:10">
       <c r="D25" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -5099,97 +5289,97 @@
     </row>
     <row r="27" spans="4:10">
       <c r="D27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="4:10">
       <c r="D28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="4:10">
       <c r="D29" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="4:10">
       <c r="D30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="4:10">
       <c r="D32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="D35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="D36" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="3:5">
       <c r="E37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="38" spans="3:5">
       <c r="D38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="39" spans="3:5">
       <c r="E39" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="40" spans="3:5">
       <c r="D40" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="3:5">
       <c r="E41" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="43" spans="3:5">
       <c r="C43" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="3:5">
       <c r="D44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="3:5">
       <c r="D45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="3:5">
       <c r="D46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="3:5">
       <c r="D48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="3:8">
       <c r="D49" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -5198,7 +5388,7 @@
     </row>
     <row r="50" spans="3:8">
       <c r="D50" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -5207,82 +5397,82 @@
     </row>
     <row r="51" spans="3:8">
       <c r="D51" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="52" spans="3:8">
       <c r="D52" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" spans="3:8">
       <c r="D54" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="3:8">
       <c r="D55" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="3:8">
       <c r="D56" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" spans="3:8">
       <c r="C58" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" spans="3:8">
       <c r="D59" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60" spans="3:8">
       <c r="D60" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="3:8">
       <c r="D62" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="3:8">
       <c r="D63" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="3:8">
       <c r="D64" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="2:10">
       <c r="D66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="67" spans="2:10">
       <c r="D67" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="2:10">
       <c r="B72" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="C73" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="75" spans="2:10">
       <c r="C75" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -5293,7 +5483,7 @@
     </row>
     <row r="76" spans="2:10">
       <c r="C76" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
@@ -5302,12 +5492,12 @@
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="J76" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="77" spans="2:10">
       <c r="C77" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -5318,7 +5508,7 @@
     </row>
     <row r="78" spans="2:10">
       <c r="C78" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
@@ -5329,7 +5519,7 @@
     </row>
     <row r="79" spans="2:10">
       <c r="C79" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -5340,7 +5530,7 @@
     </row>
     <row r="80" spans="2:10">
       <c r="C80" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
@@ -5351,7 +5541,7 @@
     </row>
     <row r="83" spans="2:9">
       <c r="C83" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -5362,7 +5552,7 @@
     </row>
     <row r="84" spans="2:9">
       <c r="C84" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -5373,7 +5563,7 @@
     </row>
     <row r="85" spans="2:9">
       <c r="C85" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -5384,7 +5574,7 @@
     </row>
     <row r="86" spans="2:9">
       <c r="C86" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
@@ -5395,7 +5585,7 @@
     </row>
     <row r="87" spans="2:9">
       <c r="C87" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -5406,7 +5596,7 @@
     </row>
     <row r="88" spans="2:9">
       <c r="C88" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -5416,48 +5606,48 @@
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="2:9">
-      <c r="C89" s="18" t="s">
-        <v>815</v>
+      <c r="C89" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="93" spans="2:9">
       <c r="B93" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="94" spans="2:9">
       <c r="B94" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="95" spans="2:9">
       <c r="B95" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="96" spans="2:9">
       <c r="B96" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -5478,127 +5668,127 @@
   <sheetData>
     <row r="4" spans="2:15">
       <c r="B4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="2:15">
       <c r="C5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="2:15">
       <c r="C7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" spans="2:15">
       <c r="C9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="2:15">
       <c r="D10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="O10" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="D11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="O11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" spans="2:15">
       <c r="D12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="D13" t="s">
+        <v>653</v>
+      </c>
+      <c r="O13" t="s">
         <v>654</v>
-      </c>
-      <c r="O13" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="15" spans="2:15">
       <c r="D15" t="s">
+        <v>655</v>
+      </c>
+      <c r="O15" t="s">
         <v>656</v>
-      </c>
-      <c r="O15" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="17" spans="2:15">
       <c r="C17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="18" spans="2:15">
       <c r="C18" t="s">
+        <v>667</v>
+      </c>
+      <c r="O18" s="15" t="s">
         <v>668</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="19" spans="2:15">
       <c r="C19" t="s">
+        <v>670</v>
+      </c>
+      <c r="O19" s="15" t="s">
         <v>671</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" t="s">
+        <v>658</v>
+      </c>
+      <c r="O21" t="s">
         <v>659</v>
-      </c>
-      <c r="O21" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="22" spans="2:15">
       <c r="C22" t="s">
+        <v>660</v>
+      </c>
+      <c r="O22" t="s">
         <v>661</v>
-      </c>
-      <c r="O22" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="23" spans="2:15">
       <c r="C23" t="s">
+        <v>662</v>
+      </c>
+      <c r="O23" t="s">
         <v>663</v>
-      </c>
-      <c r="O23" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="24" spans="2:15">
       <c r="C24" t="s">
+        <v>664</v>
+      </c>
+      <c r="O24" t="s">
         <v>665</v>
-      </c>
-      <c r="O24" t="s">
-        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -5821,10 +6011,10 @@
         <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>411</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>412</v>
       </c>
       <c r="E20" s="10"/>
     </row>
@@ -5924,305 +6114,305 @@
   <sheetData>
     <row r="4" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="C6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" t="s">
         <v>331</v>
-      </c>
-      <c r="D6" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="C15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="2:23">
       <c r="B17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="2:23">
       <c r="B19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="2:23">
       <c r="B21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="2:23">
       <c r="B29" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="2:23">
       <c r="B30" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E30" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="2:23">
       <c r="B31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="2:23">
       <c r="E32" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W32" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="33" spans="2:23">
       <c r="E33" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="W33" s="9" t="s">
         <v>405</v>
-      </c>
-      <c r="W33" s="9" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="34" spans="2:23">
       <c r="B34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="2:23">
       <c r="E35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="2:23">
       <c r="B36" t="s">
+        <v>362</v>
+      </c>
+      <c r="E36" t="s">
         <v>363</v>
-      </c>
-      <c r="E36" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="37" spans="2:23">
       <c r="B37" t="s">
+        <v>357</v>
+      </c>
+      <c r="E37" t="s">
         <v>358</v>
-      </c>
-      <c r="E37" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="38" spans="2:23">
       <c r="E38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="2:23">
       <c r="E39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40" spans="2:23">
       <c r="E40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="2:23">
       <c r="B43" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="2:23">
       <c r="B44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="2:23">
       <c r="B45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G45" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="2:23">
       <c r="B46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="2:23">
       <c r="B47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G47" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="2:23">
       <c r="B48" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="2:16">
       <c r="B49" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P49" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="2:16">
       <c r="B50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G50" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="2:16">
       <c r="B51" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G51" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52" spans="2:16">
       <c r="B52" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G52" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="53" spans="2:16">
       <c r="B53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G53" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" spans="2:16">
       <c r="B54" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="2:16">
       <c r="B55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="2:16">
       <c r="B56" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P56" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="57" spans="2:16">
       <c r="B57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G57" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="2:16">
       <c r="B58" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G58" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="2:16">
       <c r="B59" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G59" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="2:16">
       <c r="B60" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G60" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="2:16">
       <c r="B61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G61" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -6428,10 +6618,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E03622-214E-42EF-A8A2-78D8D9D8A2CF}">
-  <dimension ref="B3:D46"/>
+  <dimension ref="B3:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6618,7 +6808,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>153</v>
@@ -6629,7 +6819,7 @@
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>155</v>
@@ -6693,143 +6883,236 @@
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D32" s="13"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D34" s="13"/>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D35" s="13"/>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>632</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>633</v>
       </c>
       <c r="D36" s="13"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D37" s="13"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D38" s="13"/>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D39" s="13"/>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D40" s="13"/>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D41" s="13"/>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D42" s="13"/>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D43" s="13"/>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D44" s="13"/>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D45" s="13"/>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D46" s="13"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="3" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="15" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="6" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="6" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="6" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="6" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="6" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="6" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="6" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6839,10 +7122,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A3EBF5-FAA1-40B5-950A-1DD2A36888AB}">
-  <dimension ref="B2:D89"/>
+  <dimension ref="B2:D96"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6933,7 +7216,7 @@
         <v>195</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -6954,63 +7237,63 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C18" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="C19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="C20" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="C21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="C22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="C26" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="2:3">
       <c r="C27" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -7018,296 +7301,316 @@
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C35" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="C36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="C37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="C38" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C40" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="C41" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D41" s="6"/>
     </row>
     <row r="42" spans="2:4">
       <c r="C42" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D42" s="6"/>
     </row>
     <row r="43" spans="2:4">
       <c r="C43" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D43" s="6"/>
     </row>
     <row r="44" spans="2:4">
       <c r="C44" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D44" s="6"/>
     </row>
     <row r="45" spans="2:4">
       <c r="C45" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="2:4">
       <c r="C46" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D46" s="6"/>
     </row>
     <row r="47" spans="2:4">
       <c r="C47" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="2:4">
       <c r="C48" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="C49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="C50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C52" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C55" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C56" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C57" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C60" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C61" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C62" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C63" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C64" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C67" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C68" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C72" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C75" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="C76" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="C78" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="C79" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="C81" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="C82" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="83" spans="2:3">
       <c r="C83" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="84" spans="2:3">
       <c r="C84" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="C86" s="17" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="B88" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C89" t="s">
-        <v>780</v>
+        <v>779</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -7809,8 +8112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B84EB83-54F8-46D9-B0C4-A2DCB02DF56B}">
   <dimension ref="B6:J316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="D310" sqref="D310"/>
+    <sheetView topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7837,7 +8140,7 @@
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -7861,7 +8164,7 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="6" t="s">
-        <v>273</v>
+        <v>879</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -7871,7 +8174,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -7886,40 +8189,40 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="J12" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C21" t="s">
         <v>486</v>
-      </c>
-      <c r="C21" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="22" spans="2:3">
@@ -7927,45 +8230,45 @@
     </row>
     <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="C26" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="C30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="C31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C33" t="s">
         <v>495</v>
-      </c>
-      <c r="C33" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="34" spans="2:3">
@@ -7973,40 +8276,40 @@
     </row>
     <row r="35" spans="2:3">
       <c r="C35" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="C37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="C38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="C39" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="C41" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="C42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C44" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="2:3">
@@ -8014,45 +8317,45 @@
     </row>
     <row r="46" spans="2:3">
       <c r="C46" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="C47" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="C48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="C49" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="C51" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="C52" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="C53" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C55" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -8060,640 +8363,640 @@
     </row>
     <row r="57" spans="2:3">
       <c r="C57" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="C58" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="C59" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="C60" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="C62" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="C63" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="64" spans="2:3">
       <c r="C64" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="C65" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="C66" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="C67" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C69" t="s">
         <v>522</v>
-      </c>
-      <c r="C69" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="C71" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="C72" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="C73" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="C74" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="C76" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="C78" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="C79" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="80" spans="2:3">
       <c r="C80" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="C81" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="C82" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="87" spans="2:3">
       <c r="B87" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="B89" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="91" spans="2:3">
       <c r="C91" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="C92" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="C94" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="95" spans="2:3">
       <c r="C95" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="C96" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="97" spans="2:3">
       <c r="C97" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="98" spans="2:3">
       <c r="C98" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="99" spans="2:3">
       <c r="C99" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="100" spans="2:3">
       <c r="C100" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="101" spans="2:3">
       <c r="C101" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="102" spans="2:3">
       <c r="C102" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="103" spans="2:3">
       <c r="C103" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="104" spans="2:3">
       <c r="C104" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="105" spans="2:3">
       <c r="C105" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="106" spans="2:3">
       <c r="C106" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="107" spans="2:3">
       <c r="C107" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="109" spans="2:3">
       <c r="C109" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="111" spans="2:3">
       <c r="B111" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="113" spans="3:5">
       <c r="C113" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="115" spans="3:5">
       <c r="C115" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="117" spans="3:5">
       <c r="D117" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="118" spans="3:5">
       <c r="D118" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="120" spans="3:5">
       <c r="C120" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="122" spans="3:5">
       <c r="D122" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="124" spans="3:5">
       <c r="D124" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="125" spans="3:5">
       <c r="E125" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="126" spans="3:5">
       <c r="E126" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="128" spans="3:5">
       <c r="D128" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="129" spans="3:5">
       <c r="E129" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="130" spans="3:5">
       <c r="E130" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="131" spans="3:5">
       <c r="E131" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="132" spans="3:5">
       <c r="E132" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="133" spans="3:5">
       <c r="E133" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="135" spans="3:5">
       <c r="D135" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="3:5">
       <c r="E136" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="137" spans="3:5">
       <c r="E137" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="138" spans="3:5">
       <c r="E138" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="140" spans="3:5">
       <c r="C140" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="141" spans="3:5">
       <c r="D141" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="142" spans="3:5">
       <c r="D142" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="143" spans="3:5">
       <c r="D143" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="144" spans="3:5">
       <c r="D144" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="145" spans="2:4">
       <c r="D145" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="148" spans="2:4">
       <c r="B148" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="150" spans="2:4">
       <c r="B150" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="152" spans="2:4">
       <c r="B152" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="153" spans="2:4">
       <c r="C153" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="154" spans="2:4">
       <c r="C154" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="155" spans="2:4">
       <c r="C155" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="156" spans="2:4">
       <c r="C156" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="157" spans="2:4">
       <c r="C157" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="159" spans="2:4">
       <c r="B159" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="160" spans="2:4">
       <c r="C160" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="161" spans="2:3">
       <c r="C161" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="162" spans="2:3">
       <c r="C162" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="C164" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="B168" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="169" spans="2:3">
       <c r="B169" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="170" spans="2:3">
       <c r="B170" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="171" spans="2:3">
       <c r="B171" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="173" spans="2:3">
       <c r="B173" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="175" spans="2:3">
       <c r="B175" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="176" spans="2:3">
       <c r="B176" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" s="15" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="215" spans="2:2">
       <c r="B215" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="220" spans="2:2">
       <c r="B220" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="221" spans="2:2">
       <c r="B221" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="225" spans="2:9">
       <c r="B225" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="227" spans="2:9">
       <c r="B227" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="228" spans="2:9">
       <c r="B228" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="229" spans="2:9">
       <c r="B229" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="230" spans="2:9">
       <c r="B230" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="232" spans="2:9">
       <c r="B232" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="233" spans="2:9">
       <c r="B233" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="234" spans="2:9">
       <c r="B234" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="235" spans="2:9">
       <c r="B235" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="237" spans="2:9">
       <c r="B237" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="238" spans="2:9">
       <c r="B238" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="239" spans="2:9">
       <c r="C239" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
@@ -8704,7 +9007,7 @@
     </row>
     <row r="240" spans="2:9">
       <c r="C240" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
@@ -8715,7 +9018,7 @@
     </row>
     <row r="241" spans="2:10">
       <c r="C241" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
@@ -8735,7 +9038,7 @@
     </row>
     <row r="243" spans="2:10">
       <c r="C243" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
@@ -8746,7 +9049,7 @@
     </row>
     <row r="244" spans="2:10">
       <c r="C244" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
@@ -8757,7 +9060,7 @@
     </row>
     <row r="245" spans="2:10">
       <c r="C245" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
@@ -8768,7 +9071,7 @@
     </row>
     <row r="246" spans="2:10">
       <c r="C246" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
@@ -8779,7 +9082,7 @@
     </row>
     <row r="247" spans="2:10">
       <c r="C247" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
@@ -8790,7 +9093,7 @@
     </row>
     <row r="248" spans="2:10">
       <c r="C248" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
@@ -8801,7 +9104,7 @@
     </row>
     <row r="249" spans="2:10">
       <c r="C249" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D249" s="6"/>
       <c r="E249" s="6"/>
@@ -8812,12 +9115,12 @@
     </row>
     <row r="251" spans="2:10">
       <c r="B251" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="252" spans="2:10">
       <c r="C252" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
@@ -8829,7 +9132,7 @@
     </row>
     <row r="253" spans="2:10">
       <c r="C253" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
@@ -8841,7 +9144,7 @@
     </row>
     <row r="254" spans="2:10">
       <c r="C254" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
@@ -8863,7 +9166,7 @@
     </row>
     <row r="256" spans="2:10">
       <c r="C256" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
@@ -8875,7 +9178,7 @@
     </row>
     <row r="257" spans="2:10">
       <c r="C257" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
@@ -8887,7 +9190,7 @@
     </row>
     <row r="258" spans="2:10">
       <c r="C258" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
@@ -8899,7 +9202,7 @@
     </row>
     <row r="259" spans="2:10">
       <c r="C259" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
@@ -8921,7 +9224,7 @@
     </row>
     <row r="261" spans="2:10">
       <c r="C261" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
@@ -8933,7 +9236,7 @@
     </row>
     <row r="262" spans="2:10">
       <c r="C262" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
@@ -8945,7 +9248,7 @@
     </row>
     <row r="263" spans="2:10">
       <c r="C263" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
@@ -8957,7 +9260,7 @@
     </row>
     <row r="264" spans="2:10">
       <c r="C264" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
@@ -8969,7 +9272,7 @@
     </row>
     <row r="265" spans="2:10">
       <c r="C265" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
@@ -8981,12 +9284,12 @@
     </row>
     <row r="267" spans="2:10">
       <c r="B267" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="268" spans="2:10">
       <c r="C268" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D268" s="6"/>
       <c r="E268" s="6"/>
@@ -8998,7 +9301,7 @@
     </row>
     <row r="269" spans="2:10">
       <c r="C269" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
@@ -9020,7 +9323,7 @@
     </row>
     <row r="271" spans="2:10">
       <c r="C271" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D271" s="6"/>
       <c r="E271" s="6"/>
@@ -9032,7 +9335,7 @@
     </row>
     <row r="272" spans="2:10">
       <c r="C272" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D272" s="6"/>
       <c r="E272" s="6"/>
@@ -9044,7 +9347,7 @@
     </row>
     <row r="273" spans="3:10">
       <c r="C273" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D273" s="6"/>
       <c r="E273" s="6"/>
@@ -9056,7 +9359,7 @@
     </row>
     <row r="274" spans="3:10">
       <c r="C274" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D274" s="6"/>
       <c r="E274" s="6"/>
@@ -9068,7 +9371,7 @@
     </row>
     <row r="275" spans="3:10">
       <c r="C275" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
@@ -9080,7 +9383,7 @@
     </row>
     <row r="276" spans="3:10">
       <c r="C276" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D276" s="6"/>
       <c r="E276" s="6"/>
@@ -9092,7 +9395,7 @@
     </row>
     <row r="277" spans="3:10">
       <c r="C277" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D277" s="6"/>
       <c r="E277" s="6"/>
@@ -9104,7 +9407,7 @@
     </row>
     <row r="278" spans="3:10">
       <c r="C278" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
@@ -9126,7 +9429,7 @@
     </row>
     <row r="280" spans="3:10">
       <c r="C280" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
@@ -9138,7 +9441,7 @@
     </row>
     <row r="281" spans="3:10">
       <c r="C281" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
@@ -9150,7 +9453,7 @@
     </row>
     <row r="282" spans="3:10">
       <c r="C282" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
@@ -9162,7 +9465,7 @@
     </row>
     <row r="283" spans="3:10">
       <c r="C283" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
@@ -9174,7 +9477,7 @@
     </row>
     <row r="284" spans="3:10">
       <c r="C284" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
@@ -9186,7 +9489,7 @@
     </row>
     <row r="285" spans="3:10">
       <c r="C285" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
@@ -9198,7 +9501,7 @@
     </row>
     <row r="286" spans="3:10">
       <c r="C286" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
@@ -9210,7 +9513,7 @@
     </row>
     <row r="287" spans="3:10">
       <c r="C287" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
@@ -9222,7 +9525,7 @@
     </row>
     <row r="288" spans="3:10">
       <c r="C288" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
@@ -9234,7 +9537,7 @@
     </row>
     <row r="289" spans="2:10">
       <c r="C289" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
@@ -9246,97 +9549,97 @@
     </row>
     <row r="293" spans="2:10">
       <c r="B293" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="294" spans="2:10">
       <c r="B294" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="295" spans="2:10">
       <c r="B295" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="297" spans="2:10">
       <c r="B297" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="298" spans="2:10">
       <c r="B298" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="300" spans="2:10">
       <c r="B300" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="301" spans="2:10">
       <c r="B301" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="304" spans="2:10">
       <c r="B304" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="305" spans="2:2">
       <c r="B305" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="306" spans="2:2">
       <c r="B306" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="307" spans="2:2">
       <c r="B307" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="308" spans="2:2">
       <c r="B308" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="309" spans="2:2">
       <c r="B309" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="310" spans="2:2">
       <c r="B310" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="312" spans="2:2">
       <c r="B312" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="313" spans="2:2">
       <c r="B313" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="314" spans="2:2">
       <c r="B314" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="315" spans="2:2">
       <c r="B315" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="316" spans="2:2">
       <c r="B316" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>

--- a/BAS_memo.xlsx
+++ b/BAS_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A87E084-774D-4511-B30E-03F70D8D9F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BBC799-CE13-49D7-B70C-E15E76709BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="980">
   <si>
     <t>Configure Keybinding</t>
   </si>
@@ -3725,6 +3725,234 @@
   <si>
     <t>{プロジェクト}/target/classes 配下が classpath のルート</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■SAP BTP BASのSpring BatchからH2コンソールを使う</t>
+  </si>
+  <si>
+    <t>1.pom.xmlに以下を追加。(H2はメモリDBなのでバッチのようにアプリが終わってしまう場合はTomCatを常時起動しておく必要がある)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;dependency&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;groupId&gt;org.springframework.boot&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;artifactId&gt;spring-boot-starter-web&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/dependency&gt;</t>
+  </si>
+  <si>
+    <t>2.application.properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  spring.main.web-application-type=servlet  # Webサーバとして起動する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  #spring.main.web-application-type=none    # Webサーバとして起動しない(バッチアプリはこれ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  spring.h2.console.enabled=true                    # H2コンソールを有効</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  spring.h2.console.path=/h2-console                # 後で出てくるURLに付けるパス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  spring.h2.console.settings.web-allow-others=true  # H2コンソールを外部からアクセス可能にするか否か</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  spring.batch.job.enabled=false        # バッチジョブの自動起動有無。falseだとアプリが起動してもジョブは起動せずWebサーバだけが立ち上がる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        # 以下のようなログが出ていなければ自動起動は抑止されている</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                          JobLauncherApplicationRunner : Running default command line with: ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                          Job: [SimpleJob: [name=sampleDataJob]] launched with the following parameters: ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  spring.profiles.active=local          # テスト用/本番用の切り替え</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  #spring.profiles.active=cloud         # テスト用/本番用の切り替え</t>
+  </si>
+  <si>
+    <t>3.ビルドしてアプリを起動する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ログに以下が出ていればOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tomcat started on port 8080 (http) with context path '/'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  H2 console available at '/h2-console'.</t>
+  </si>
+  <si>
+    <t>4.Ctrl + Shift + P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ports: Preview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  →ブラウザで新しいタブが勝手に開く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>5.開いたタブのURLの末尾に</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  /h2-console</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  →H2コンソールが開く</t>
+  </si>
+  <si>
+    <t>6.H2コンソールのJDBC URLを</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  jdbc:h2:mem:testdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  にして「Connect」</t>
+  </si>
+  <si>
+    <t>この方法だとバッチが最後まで走り切った状態のDBを覗くことになるので</t>
+  </si>
+  <si>
+    <t>バッチが走る前にDBを変更したい場合は、</t>
+  </si>
+  <si>
+    <t>7.以下のクラスを追加</t>
+  </si>
+  <si>
+    <t>package com.example.batch_h2_mybatis_chunk_test.web;</t>
+  </si>
+  <si>
+    <t>import java.time.Instant;</t>
+  </si>
+  <si>
+    <t>import java.util.HashMap;</t>
+  </si>
+  <si>
+    <t>import java.util.Map;</t>
+  </si>
+  <si>
+    <t>import org.springframework.batch.core.Job;</t>
+  </si>
+  <si>
+    <t>import org.springframework.batch.core.JobParameters;</t>
+  </si>
+  <si>
+    <t>import org.springframework.batch.core.JobParametersBuilder;</t>
+  </si>
+  <si>
+    <t>import org.springframework.batch.core.launch.JobLauncher;</t>
+  </si>
+  <si>
+    <t>import org.springframework.http.ResponseEntity;</t>
+  </si>
+  <si>
+    <t>import org.springframework.web.bind.annotation.GetMapping;</t>
+  </si>
+  <si>
+    <t>import org.springframework.web.bind.annotation.RestController;</t>
+  </si>
+  <si>
+    <t>@Profile("local")</t>
+  </si>
+  <si>
+    <t>@RestController</t>
+  </si>
+  <si>
+    <t>public class JobRunController {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private final JobLauncher jobLauncher;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private final Job sampleDataJob;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public JobRunController(JobLauncher jobLauncher, Job sampleDataJob) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.jobLauncher = jobLauncher;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.sampleDataJob = sampleDataJob;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @GetMapping("/run-sample-job")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public ResponseEntity&lt;String&gt; runJob() throws Exception {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // ジョブパラメータに時刻を入れて、毎回別ジョブとみなしてもらう</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        JobParameters params = new JobParametersBuilder()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .addLong("runAt", Instant.now().toEpochMilli())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                .toJobParameters();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        jobLauncher.run(sampleDataJob, params);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return ResponseEntity.ok("sampleDataJob started");</t>
+  </si>
+  <si>
+    <t>8.ビルドして、手順3～6を実施</t>
+  </si>
+  <si>
+    <t>9.まだジョブは起動していないので、DBを変更しておく。</t>
+  </si>
+  <si>
+    <t>10.URLの/h2-console以降を</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  /run-sample-job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  に変更</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  →画面にsampleDataJob startedが出るのでジョブが開始される</t>
+  </si>
+  <si>
+    <t>11.元に戻すときは</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   application.propertiesから以下をコメントアウト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   #spring.h2.console.enabled=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   #spring.h2.console.path=/h2-console</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   #spring.h2.console.settings.web-allow-others=true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   #spring.batch.job.enabled=false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   #spring.main.web-application-type=servlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   spring.main.web-application-type=none</t>
   </si>
 </sst>
 </file>
@@ -4258,7 +4486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FF6450-600E-40AD-8F1C-A40D14B3DEBD}">
   <dimension ref="B3:N198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A193" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
@@ -8110,10 +8338,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B84EB83-54F8-46D9-B0C4-A2DCB02DF56B}">
-  <dimension ref="B6:J316"/>
+  <dimension ref="B6:J422"/>
   <sheetViews>
-    <sheetView topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9642,6 +9870,406 @@
         <v>878</v>
       </c>
     </row>
+    <row r="322" spans="2:2">
+      <c r="B322" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2">
+      <c r="B372" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2">
+      <c r="B373" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2">
+      <c r="B374" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2">
+      <c r="B382" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2">
+      <c r="B384" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2">
+      <c r="B385" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2">
+      <c r="B387" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2">
+      <c r="B388" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2">
+      <c r="B389" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2">
+      <c r="B390" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2">
+      <c r="B392" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2">
+      <c r="B393" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2">
+      <c r="B394" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2">
+      <c r="B395" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2">
+      <c r="B396" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2">
+      <c r="B397" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2">
+      <c r="B399" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2">
+      <c r="B401" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2">
+      <c r="B402" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2">
+      <c r="B403" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2">
+      <c r="B405" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2">
+      <c r="B407" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2">
+      <c r="B409" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2">
+      <c r="B410" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2">
+      <c r="B411" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2">
+      <c r="B412" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2">
+      <c r="B414" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2">
+      <c r="B415" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2">
+      <c r="B416" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2">
+      <c r="B417" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2">
+      <c r="B418" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2">
+      <c r="B419" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2">
+      <c r="B421" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2">
+      <c r="B422" t="s">
+        <v>979</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BAS_memo.xlsx
+++ b/BAS_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BBC799-CE13-49D7-B70C-E15E76709BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83D1115-4CDE-46C2-917A-CFAA80A04E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="1017">
   <si>
     <t>Configure Keybinding</t>
   </si>
@@ -3954,12 +3954,162 @@
   <si>
     <t xml:space="preserve">   spring.main.web-application-type=none</t>
   </si>
+  <si>
+    <t>1. Javaソースの特定フォルダをコンパイルから外す</t>
+  </si>
+  <si>
+    <r>
+      <t>src/main/java/com/example/ignore/**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> をビルド対象外にしたい例：</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;plugins&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;plugin&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;groupId&gt;org.apache.maven.plugins&lt;/groupId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;artifactId&gt;maven-compiler-plugin&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;version&gt;3.13.0&lt;/version&gt; &lt;!-- 例 --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;configuration&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;excludes&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          &lt;exclude&gt;com/example/ignore/**&lt;/exclude&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/excludes&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;/configuration&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/plugin&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/plugins&gt;</t>
+  </si>
+  <si>
+    <t>これで、そのパターンにマッチするクラスはコンパイルされません。</t>
+  </si>
+  <si>
+    <t>2. リソースフォルダを外す</t>
+  </si>
+  <si>
+    <r>
+      <t>src/main/resources/tmp/**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を含めたくない例：</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;resources&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;resource&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;directory&gt;src/main/resources&lt;/directory&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;excludes&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;exclude&gt;tmp/**&lt;/exclude&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;/excludes&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;/resource&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/resources&gt;</t>
+  </si>
+  <si>
+    <t>3. テストクラス・テストフォルダを外す</t>
+  </si>
+  <si>
+    <r>
+      <t>src/test/java/com/example/slow/**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> をテスト実行から除外：</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;artifactId&gt;maven-surefire-plugin&lt;/artifactId&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;version&gt;3.5.0&lt;/version&gt; &lt;!-- 例 --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          &lt;exclude&gt;com/example/slow/**&lt;/exclude&gt;</t>
+  </si>
+  <si>
+    <t>4. いちばん簡単な考え方</t>
+  </si>
+  <si>
+    <t>Maven が「自動でビルドする」のは基本この4つだけです</t>
+  </si>
+  <si>
+    <t>src/main/java</t>
+  </si>
+  <si>
+    <t>src/main/resources</t>
+  </si>
+  <si>
+    <t>src/test/java</t>
+  </si>
+  <si>
+    <t>src/test/resources</t>
+  </si>
+  <si>
+    <t>それ以外の場所に置いたものは、そもそもビルド対象になりません。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4025,6 +4175,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -4115,7 +4274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4169,6 +4328,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6846,10 +7014,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E03622-214E-42EF-A8A2-78D8D9D8A2CF}">
-  <dimension ref="B3:D71"/>
+  <dimension ref="B3:D149"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7340,6 +7508,272 @@
     <row r="71" spans="2:2">
       <c r="B71" s="6" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="30">
+      <c r="B80" s="18" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="14" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="14" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="14" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="14" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="14" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="14" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="14" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="14" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="14" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="14" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="14" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="14" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="14" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" ht="30">
+      <c r="B103" s="18" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="14" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="14" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="14" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="14" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="14" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="14" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="14" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="14" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="14" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" ht="30">
+      <c r="B120" s="18" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="14" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="14" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="14" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="14" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="14" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="14" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="14" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="14" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="14" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="14" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="14" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="14" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="14" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" ht="30">
+      <c r="B141" s="18" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="19"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="19" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="20" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="20" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="20" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="20" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="19"/>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="19" t="s">
+        <v>1016</v>
       </c>
     </row>
   </sheetData>
@@ -8340,7 +8774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B84EB83-54F8-46D9-B0C4-A2DCB02DF56B}">
   <dimension ref="B6:J422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+    <sheetView topLeftCell="A301" workbookViewId="0">
       <selection activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>

--- a/BAS_memo.xlsx
+++ b/BAS_memo.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83D1115-4CDE-46C2-917A-CFAA80A04E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4189FA7F-6B15-473A-8B1F-96A0C29B66F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
   </bookViews>
   <sheets>
-    <sheet name="基本" sheetId="3" r:id="rId1"/>
-    <sheet name="サイドメニュー一覧" sheetId="1" r:id="rId2"/>
-    <sheet name="GitHub" sheetId="9" r:id="rId3"/>
-    <sheet name="重要ファイル" sheetId="2" r:id="rId4"/>
-    <sheet name="Maven" sheetId="4" r:id="rId5"/>
-    <sheet name="SpringBoot" sheetId="5" r:id="rId6"/>
-    <sheet name="Command" sheetId="6" r:id="rId7"/>
-    <sheet name="CAP" sheetId="7" r:id="rId8"/>
-    <sheet name="Java(SpringBatch)" sheetId="8" r:id="rId9"/>
-    <sheet name="DI" sheetId="10" r:id="rId10"/>
-    <sheet name="yaml" sheetId="11" r:id="rId11"/>
+    <sheet name="イメージ" sheetId="12" r:id="rId1"/>
+    <sheet name="基本" sheetId="3" r:id="rId2"/>
+    <sheet name="サイドメニュー一覧" sheetId="1" r:id="rId3"/>
+    <sheet name="GitHub" sheetId="9" r:id="rId4"/>
+    <sheet name="重要ファイル" sheetId="2" r:id="rId5"/>
+    <sheet name="Maven" sheetId="4" r:id="rId6"/>
+    <sheet name="SpringBoot" sheetId="5" r:id="rId7"/>
+    <sheet name="Command" sheetId="6" r:id="rId8"/>
+    <sheet name="CAP" sheetId="7" r:id="rId9"/>
+    <sheet name="Java(SpringBatch)" sheetId="8" r:id="rId10"/>
+    <sheet name="DI" sheetId="10" r:id="rId11"/>
+    <sheet name="yaml" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="1045">
   <si>
     <t>Configure Keybinding</t>
   </si>
@@ -4104,12 +4105,100 @@
   <si>
     <t>それ以外の場所に置いたものは、そもそもビルド対象になりません。</t>
   </si>
+  <si>
+    <t>PaaSって何？</t>
+  </si>
+  <si>
+    <t>**「アプリを置いたら勝手に動く場所」**です。</t>
+  </si>
+  <si>
+    <t>たとえ話</t>
+  </si>
+  <si>
+    <t>Linuxサーバ（自分で管理）</t>
+  </si>
+  <si>
+    <t>電気・水道（OS設定）</t>
+  </si>
+  <si>
+    <t>家具（Javaなど実行環境のインストール）</t>
+  </si>
+  <si>
+    <t>鍵・防犯（証明書、FW）</t>
+  </si>
+  <si>
+    <t>掃除・修理（パッチ、障害対応）</t>
+  </si>
+  <si>
+    <t>全部自分。</t>
+  </si>
+  <si>
+    <t>PaaS（Cloud Foundry）</t>
+  </si>
+  <si>
+    <t>電気・水道・家具は最初からある（実行環境が用意されてる）</t>
+  </si>
+  <si>
+    <t>壊れたら大家が直す（OSや基盤の保守はお任せ）</t>
+  </si>
+  <si>
+    <t>具体的に何が「お任せ」になる？</t>
+  </si>
+  <si>
+    <t>OSやミドルのインストール/更新</t>
+  </si>
+  <si>
+    <t>サーバ増減（アクセス増えたら増やす等）</t>
+  </si>
+  <si>
+    <t>監視や復旧の仕組み（一定範囲）</t>
+  </si>
+  <si>
+    <t>Cloud Foundryだと何をするの？</t>
+  </si>
+  <si>
+    <t>基本はこれだけ：</t>
+  </si>
+  <si>
+    <t>アプリをデプロイ（push）</t>
+  </si>
+  <si>
+    <t>あなたは アプリ作りに集中して、サーバの世話はサービス側がやってくれます。</t>
+  </si>
+  <si>
+    <t>引っ越し先の 空き部屋を借りる感じ。</t>
+  </si>
+  <si>
+    <t>家具付き賃貸みたいな感じ。</t>
+  </si>
+  <si>
+    <t>あなたは 荷物（アプリ）を置くだけで住める（動く）</t>
+  </si>
+  <si>
+    <t>必要なら DB/認証などのサービスを紐づける</t>
+  </si>
+  <si>
+    <t>サーバ（クラウド）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAPUI5</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4189,8 +4278,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4206,6 +4310,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4274,7 +4402,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4338,6 +4466,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4353,6 +4505,1817 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61FAB9F4-6C5D-F10F-C211-7C57942576BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2227729" y="642097"/>
+          <a:ext cx="4975972" cy="2865344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>HDI </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>コンテナ  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>データ領域</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="円柱 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5DC9AE-D885-4162-7CA3-5907A9381988}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="1400175"/>
+          <a:ext cx="1390650" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テーブル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="円柱 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB26C72A-43D5-F51B-A3FC-F6A8027F159C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4476750" y="1400175"/>
+          <a:ext cx="1390650" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ビュー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97736EF7-0459-31F3-6F97-95E09F0F4F62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676525" y="3105150"/>
+          <a:ext cx="1143000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ユーザー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A9C89F-932D-0FC4-0E79-E26799E102BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048125" y="3105150"/>
+          <a:ext cx="1143000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>権限</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A746277-EF24-EF9C-7955-BDB2CA846C60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="2105025"/>
+          <a:ext cx="4905375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>Spring Boot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0"/>
+            <a:t> (Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t>サーバー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B18A276-6652-3620-406E-296B6AD5E18E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="1590675"/>
+          <a:ext cx="4905375" cy="485774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>CAP Java  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>フレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510F7032-95D4-289F-FBBA-F48E2384611E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="733425"/>
+          <a:ext cx="4905375" cy="781049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>CAP </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>アプリ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80AF6B3-EF23-61B3-BC5D-2ED4C66BD1A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2208679" y="3587002"/>
+          <a:ext cx="4975972" cy="432548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>SAP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0"/>
+            <a:t> HANA Cloud  (DB)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A85331-C31B-8751-86BA-D4A239551AAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="2724150"/>
+          <a:ext cx="4905375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>Cloud Foundry (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>基盤。実行環境。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>PaaS)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CE69E8-64C3-F9B0-4125-080AC4614FA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="3295650"/>
+          <a:ext cx="4905375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>Linux</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81D967B-F94E-0A4B-F6C2-66C55F821D04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209801" y="6686550"/>
+          <a:ext cx="11544300" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>Spring Boot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0"/>
+            <a:t> (Web</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t>サーバー</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5601385D-C811-293D-12D8-1EF1864033B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="6172200"/>
+          <a:ext cx="4905375" cy="485774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>CAP Java  (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>フレームワーク</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5F0C7F-1386-507E-9EE0-96128FA9F0A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="5314950"/>
+          <a:ext cx="4905375" cy="781049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>CAP </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:t>アプリ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CDA7785-AC71-9C9E-7993-6CB990219677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="7200900"/>
+          <a:ext cx="4905375" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>Linux</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2119B41-175B-978F-8C79-9210B2D090BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="1"/>
+          <a:endCxn id="3" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4143375" y="1123950"/>
+          <a:ext cx="4705350" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C98927-E9FB-C327-475F-8BBD811EAB14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="5324474"/>
+          <a:ext cx="4905375" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>H2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0"/>
+            <a:t> or SQLite3  (DB)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="円柱 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6915D5C4-6BBF-4BF9-9922-8B5948C2B17F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790825" y="5800725"/>
+          <a:ext cx="1295400" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テーブル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1672D41C-EEF2-7AB5-42D3-36A2C3CF5FCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="1"/>
+          <a:endCxn id="23" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4086225" y="5705475"/>
+          <a:ext cx="4762500" cy="366713"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="右中かっこ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95571B76-120C-E8CD-8327-DE7FC8ACA81D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13782675" y="5238750"/>
+          <a:ext cx="409575" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="右中かっこ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D817396-A926-F522-F4C4-490CABEF11E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13782675" y="685800"/>
+          <a:ext cx="409575" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="22225">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="矢印: 左カーブ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F9D9F46-3781-7B05-C4C9-52774FC7FCC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14287500" y="1724025"/>
+          <a:ext cx="895350" cy="4438650"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedLeftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DF2A1C-A60B-7191-C78D-4CD2CC6B326A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14697075" y="3743325"/>
+          <a:ext cx="1524000" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>デブロイ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>256054</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>65554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>185457</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>27454</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58EB5CF2-B062-5C71-0ABD-E7E29E598272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2217083" y="4066054"/>
+          <a:ext cx="4972050" cy="432547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:t>Linux</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>227199</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4CD798-FAD5-46B1-63A5-19E5792B43D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4168588" y="1994647"/>
+          <a:ext cx="4805643" cy="3644993"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>170049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB20DA4-49D2-0FE3-6F26-E8B7982542BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13946281" y="1111343"/>
+          <a:ext cx="3176307" cy="535922"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle" w="lg" len="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4651,857 +6614,3701 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FF6450-600E-40AD-8F1C-A40D14B3DEBD}">
-  <dimension ref="B3:N198"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1E2910-52C1-4E5C-A957-BB0119EF6EBB}">
+  <dimension ref="D2:BQ34"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="3.625" style="21"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2">
-      <c r="B3" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C50" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" t="s">
-        <v>306</v>
-      </c>
-      <c r="D54" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2">
-      <c r="B93" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2">
-      <c r="B95" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2">
-      <c r="B101" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14">
-      <c r="B113" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14">
-      <c r="B114" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14">
-      <c r="B115" t="s">
-        <v>342</v>
-      </c>
-      <c r="I115" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="9"/>
-      <c r="M115" s="9"/>
-      <c r="N115" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14">
-      <c r="B117" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14">
-      <c r="B118" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14">
-      <c r="B120" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14">
-      <c r="B121" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14">
-      <c r="B123" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14">
-      <c r="B124" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14">
-      <c r="B125" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14">
-      <c r="B126" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3">
-      <c r="B129" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3">
-      <c r="B130" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3">
-      <c r="B131" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3">
-      <c r="B132" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3">
-      <c r="B133" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3">
-      <c r="B136" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="C136" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3">
-      <c r="B137" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3">
-      <c r="B138" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3">
-      <c r="B139" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3">
-      <c r="B140" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3">
-      <c r="B143" s="3" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3">
-      <c r="B144" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4">
-      <c r="B145" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4">
-      <c r="B146" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4">
-      <c r="B147" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4">
-      <c r="B150" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="D150" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4">
-      <c r="B151" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4">
-      <c r="B152" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4">
-      <c r="B153" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4">
-      <c r="B154" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4">
-      <c r="B155" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4">
-      <c r="B156" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4">
-      <c r="B158" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4">
-      <c r="B159" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4">
-      <c r="C160" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="161" spans="2:6">
-      <c r="B161" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="162" spans="2:6">
-      <c r="C162" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="163" spans="2:6">
-      <c r="B163" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="166" spans="2:6">
-      <c r="B166" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="D166" t="s">
-        <v>716</v>
-      </c>
-      <c r="F166" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="167" spans="2:6">
-      <c r="B167" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="168" spans="2:6">
-      <c r="B168" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="169" spans="2:6">
-      <c r="B169" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="170" spans="2:6">
-      <c r="B170" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="171" spans="2:6">
-      <c r="B171" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="173" spans="2:6">
-      <c r="B173" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="174" spans="2:6">
-      <c r="B174" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="175" spans="2:6">
-      <c r="B175" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="176" spans="2:6">
-      <c r="B176" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4">
-      <c r="B179" s="3" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4">
-      <c r="B180" s="15" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4">
-      <c r="B181" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="182" spans="2:4">
-      <c r="B182" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="183" spans="2:4">
-      <c r="C183" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="184" spans="2:4">
-      <c r="D184" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="185" spans="2:4">
-      <c r="D185" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="186" spans="2:4">
-      <c r="D186" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="187" spans="2:4">
-      <c r="C187" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="188" spans="2:4">
-      <c r="C188" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="190" spans="2:4">
-      <c r="B190" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="191" spans="2:4">
-      <c r="B191" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="192" spans="2:4">
-      <c r="B192" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="3" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" t="s">
-        <v>903</v>
-      </c>
+    <row r="2" spans="4:69">
+      <c r="D2" s="23" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="24"/>
+      <c r="AZ2" s="24"/>
+    </row>
+    <row r="3" spans="4:69">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="24"/>
+      <c r="AX3" s="24"/>
+      <c r="AY3" s="24"/>
+      <c r="AZ3" s="24"/>
+      <c r="BI3" s="22" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="4" spans="4:69">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="24"/>
+      <c r="AU4" s="24"/>
+      <c r="AV4" s="24"/>
+      <c r="AW4" s="24"/>
+      <c r="AX4" s="24"/>
+      <c r="AY4" s="24"/>
+      <c r="AZ4" s="24"/>
+      <c r="BI4" s="27"/>
+      <c r="BJ4" s="27"/>
+      <c r="BK4" s="27"/>
+      <c r="BL4" s="27"/>
+      <c r="BM4" s="27"/>
+      <c r="BN4" s="27"/>
+      <c r="BO4" s="27"/>
+      <c r="BP4" s="27"/>
+      <c r="BQ4" s="27"/>
+    </row>
+    <row r="5" spans="4:69">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
+      <c r="AS5" s="24"/>
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="24"/>
+      <c r="AV5" s="24"/>
+      <c r="AW5" s="24"/>
+      <c r="AX5" s="24"/>
+      <c r="AY5" s="24"/>
+      <c r="AZ5" s="24"/>
+      <c r="BI5" s="27"/>
+      <c r="BJ5" s="27"/>
+      <c r="BK5" s="27"/>
+      <c r="BL5" s="27"/>
+      <c r="BM5" s="27"/>
+      <c r="BN5" s="27"/>
+      <c r="BO5" s="27"/>
+      <c r="BP5" s="27"/>
+      <c r="BQ5" s="27"/>
+    </row>
+    <row r="6" spans="4:69">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="24"/>
+      <c r="AM6" s="24"/>
+      <c r="AN6" s="24"/>
+      <c r="AO6" s="24"/>
+      <c r="AP6" s="24"/>
+      <c r="AQ6" s="24"/>
+      <c r="AR6" s="24"/>
+      <c r="AS6" s="24"/>
+      <c r="AT6" s="24"/>
+      <c r="AU6" s="24"/>
+      <c r="AV6" s="24"/>
+      <c r="AW6" s="24"/>
+      <c r="AX6" s="24"/>
+      <c r="AY6" s="24"/>
+      <c r="AZ6" s="24"/>
+      <c r="BI6" s="27"/>
+      <c r="BJ6" s="28" t="s">
+        <v>1044</v>
+      </c>
+      <c r="BK6" s="28"/>
+      <c r="BL6" s="28"/>
+      <c r="BM6" s="28"/>
+      <c r="BN6" s="28"/>
+      <c r="BO6" s="28"/>
+      <c r="BP6" s="28"/>
+      <c r="BQ6" s="27"/>
+    </row>
+    <row r="7" spans="4:69">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="24"/>
+      <c r="AI7" s="24"/>
+      <c r="AJ7" s="24"/>
+      <c r="AK7" s="24"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="24"/>
+      <c r="AN7" s="24"/>
+      <c r="AO7" s="24"/>
+      <c r="AP7" s="24"/>
+      <c r="AQ7" s="24"/>
+      <c r="AR7" s="24"/>
+      <c r="AS7" s="24"/>
+      <c r="AT7" s="24"/>
+      <c r="AU7" s="24"/>
+      <c r="AV7" s="24"/>
+      <c r="AW7" s="24"/>
+      <c r="AX7" s="24"/>
+      <c r="AY7" s="24"/>
+      <c r="AZ7" s="24"/>
+      <c r="BI7" s="27"/>
+      <c r="BJ7" s="28"/>
+      <c r="BK7" s="28"/>
+      <c r="BL7" s="28"/>
+      <c r="BM7" s="28"/>
+      <c r="BN7" s="28"/>
+      <c r="BO7" s="28"/>
+      <c r="BP7" s="28"/>
+      <c r="BQ7" s="27"/>
+    </row>
+    <row r="8" spans="4:69">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="24"/>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="24"/>
+      <c r="AS8" s="24"/>
+      <c r="AT8" s="24"/>
+      <c r="AU8" s="24"/>
+      <c r="AV8" s="24"/>
+      <c r="AW8" s="24"/>
+      <c r="AX8" s="24"/>
+      <c r="AY8" s="24"/>
+      <c r="AZ8" s="24"/>
+      <c r="BI8" s="27"/>
+      <c r="BJ8" s="28"/>
+      <c r="BK8" s="28"/>
+      <c r="BL8" s="28"/>
+      <c r="BM8" s="28"/>
+      <c r="BN8" s="28"/>
+      <c r="BO8" s="28"/>
+      <c r="BP8" s="28"/>
+      <c r="BQ8" s="27"/>
+    </row>
+    <row r="9" spans="4:69">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="24"/>
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="24"/>
+      <c r="AT9" s="24"/>
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="24"/>
+      <c r="AY9" s="24"/>
+      <c r="AZ9" s="24"/>
+      <c r="BI9" s="27"/>
+      <c r="BJ9" s="28"/>
+      <c r="BK9" s="28"/>
+      <c r="BL9" s="28"/>
+      <c r="BM9" s="28"/>
+      <c r="BN9" s="28"/>
+      <c r="BO9" s="28"/>
+      <c r="BP9" s="28"/>
+      <c r="BQ9" s="27"/>
+    </row>
+    <row r="10" spans="4:69">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="24"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="24"/>
+      <c r="AQ10" s="24"/>
+      <c r="AR10" s="24"/>
+      <c r="AS10" s="24"/>
+      <c r="AT10" s="24"/>
+      <c r="AU10" s="24"/>
+      <c r="AV10" s="24"/>
+      <c r="AW10" s="24"/>
+      <c r="AX10" s="24"/>
+      <c r="AY10" s="24"/>
+      <c r="AZ10" s="24"/>
+      <c r="BI10" s="27"/>
+      <c r="BJ10" s="28"/>
+      <c r="BK10" s="28"/>
+      <c r="BL10" s="28"/>
+      <c r="BM10" s="28"/>
+      <c r="BN10" s="28"/>
+      <c r="BO10" s="28"/>
+      <c r="BP10" s="28"/>
+      <c r="BQ10" s="27"/>
+    </row>
+    <row r="11" spans="4:69">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="24"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="24"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+      <c r="AI11" s="24"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="24"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="24"/>
+      <c r="AN11" s="24"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="24"/>
+      <c r="AQ11" s="24"/>
+      <c r="AR11" s="24"/>
+      <c r="AS11" s="24"/>
+      <c r="AT11" s="24"/>
+      <c r="AU11" s="24"/>
+      <c r="AV11" s="24"/>
+      <c r="AW11" s="24"/>
+      <c r="AX11" s="24"/>
+      <c r="AY11" s="24"/>
+      <c r="AZ11" s="24"/>
+      <c r="BI11" s="27"/>
+      <c r="BJ11" s="27"/>
+      <c r="BK11" s="27"/>
+      <c r="BL11" s="27"/>
+      <c r="BM11" s="27"/>
+      <c r="BN11" s="27"/>
+      <c r="BO11" s="27"/>
+      <c r="BP11" s="27"/>
+      <c r="BQ11" s="27"/>
+    </row>
+    <row r="12" spans="4:69">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="24"/>
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="24"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="24"/>
+      <c r="AQ12" s="24"/>
+      <c r="AR12" s="24"/>
+      <c r="AS12" s="24"/>
+      <c r="AT12" s="24"/>
+      <c r="AU12" s="24"/>
+      <c r="AV12" s="24"/>
+      <c r="AW12" s="24"/>
+      <c r="AX12" s="24"/>
+      <c r="AY12" s="24"/>
+      <c r="AZ12" s="24"/>
+      <c r="BI12" s="27"/>
+      <c r="BJ12" s="27"/>
+      <c r="BK12" s="27"/>
+      <c r="BL12" s="27"/>
+      <c r="BM12" s="27"/>
+      <c r="BN12" s="27"/>
+      <c r="BO12" s="27"/>
+      <c r="BP12" s="27"/>
+      <c r="BQ12" s="27"/>
+    </row>
+    <row r="13" spans="4:69">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="24"/>
+      <c r="AS13" s="24"/>
+      <c r="AT13" s="24"/>
+      <c r="AU13" s="24"/>
+      <c r="AV13" s="24"/>
+      <c r="AW13" s="24"/>
+      <c r="AX13" s="24"/>
+      <c r="AY13" s="24"/>
+      <c r="AZ13" s="24"/>
+      <c r="BI13" s="27"/>
+      <c r="BJ13" s="27"/>
+      <c r="BK13" s="27"/>
+      <c r="BL13" s="27"/>
+      <c r="BM13" s="27"/>
+      <c r="BN13" s="27"/>
+      <c r="BO13" s="27"/>
+      <c r="BP13" s="27"/>
+      <c r="BQ13" s="27"/>
+    </row>
+    <row r="14" spans="4:69">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="24"/>
+      <c r="AQ14" s="24"/>
+      <c r="AR14" s="24"/>
+      <c r="AS14" s="24"/>
+      <c r="AT14" s="24"/>
+      <c r="AU14" s="24"/>
+      <c r="AV14" s="24"/>
+      <c r="AW14" s="24"/>
+      <c r="AX14" s="24"/>
+      <c r="AY14" s="24"/>
+      <c r="AZ14" s="24"/>
+    </row>
+    <row r="15" spans="4:69">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="24"/>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="24"/>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="24"/>
+      <c r="AQ15" s="24"/>
+      <c r="AR15" s="24"/>
+      <c r="AS15" s="24"/>
+      <c r="AT15" s="24"/>
+      <c r="AU15" s="24"/>
+      <c r="AV15" s="24"/>
+      <c r="AW15" s="24"/>
+      <c r="AX15" s="24"/>
+      <c r="AY15" s="24"/>
+      <c r="AZ15" s="24"/>
+    </row>
+    <row r="16" spans="4:69">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="24"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="24"/>
+      <c r="AQ16" s="24"/>
+      <c r="AR16" s="24"/>
+      <c r="AS16" s="24"/>
+      <c r="AT16" s="24"/>
+      <c r="AU16" s="24"/>
+      <c r="AV16" s="24"/>
+      <c r="AW16" s="24"/>
+      <c r="AX16" s="24"/>
+      <c r="AY16" s="24"/>
+      <c r="AZ16" s="24"/>
+    </row>
+    <row r="17" spans="4:52">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="24"/>
+      <c r="AL17" s="24"/>
+      <c r="AM17" s="24"/>
+      <c r="AN17" s="24"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="24"/>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="24"/>
+      <c r="AS17" s="24"/>
+      <c r="AT17" s="24"/>
+      <c r="AU17" s="24"/>
+      <c r="AV17" s="24"/>
+      <c r="AW17" s="24"/>
+      <c r="AX17" s="24"/>
+      <c r="AY17" s="24"/>
+      <c r="AZ17" s="24"/>
+    </row>
+    <row r="18" spans="4:52">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="24"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="24"/>
+      <c r="AQ18" s="24"/>
+      <c r="AR18" s="24"/>
+      <c r="AS18" s="24"/>
+      <c r="AT18" s="24"/>
+      <c r="AU18" s="24"/>
+      <c r="AV18" s="24"/>
+      <c r="AW18" s="24"/>
+      <c r="AX18" s="24"/>
+      <c r="AY18" s="24"/>
+      <c r="AZ18" s="24"/>
+    </row>
+    <row r="19" spans="4:52">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="24"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="24"/>
+      <c r="AO19" s="24"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="24"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="24"/>
+      <c r="AV19" s="24"/>
+      <c r="AW19" s="24"/>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="24"/>
+    </row>
+    <row r="20" spans="4:52">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
+      <c r="AH20" s="24"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="24"/>
+      <c r="AN20" s="24"/>
+      <c r="AO20" s="24"/>
+      <c r="AP20" s="24"/>
+      <c r="AQ20" s="24"/>
+      <c r="AR20" s="24"/>
+      <c r="AS20" s="24"/>
+      <c r="AT20" s="24"/>
+      <c r="AU20" s="24"/>
+      <c r="AV20" s="24"/>
+      <c r="AW20" s="24"/>
+      <c r="AX20" s="24"/>
+      <c r="AY20" s="24"/>
+      <c r="AZ20" s="24"/>
+    </row>
+    <row r="21" spans="4:52">
+      <c r="AF21" s="22"/>
+    </row>
+    <row r="22" spans="4:52">
+      <c r="D22" s="25" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="26"/>
+      <c r="AD22" s="26"/>
+      <c r="AE22" s="26"/>
+      <c r="AF22" s="26"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="26"/>
+      <c r="AY22" s="26"/>
+      <c r="AZ22" s="26"/>
+    </row>
+    <row r="23" spans="4:52">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26"/>
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="26"/>
+      <c r="AS23" s="26"/>
+      <c r="AT23" s="26"/>
+      <c r="AU23" s="26"/>
+      <c r="AV23" s="26"/>
+      <c r="AW23" s="26"/>
+      <c r="AX23" s="26"/>
+      <c r="AY23" s="26"/>
+      <c r="AZ23" s="26"/>
+    </row>
+    <row r="24" spans="4:52">
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AQ24" s="26"/>
+      <c r="AR24" s="26"/>
+      <c r="AS24" s="26"/>
+      <c r="AT24" s="26"/>
+      <c r="AU24" s="26"/>
+      <c r="AV24" s="26"/>
+      <c r="AW24" s="26"/>
+      <c r="AX24" s="26"/>
+      <c r="AY24" s="26"/>
+      <c r="AZ24" s="26"/>
+    </row>
+    <row r="25" spans="4:52">
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="26"/>
+      <c r="AC25" s="26"/>
+      <c r="AD25" s="26"/>
+      <c r="AE25" s="26"/>
+      <c r="AF25" s="26"/>
+      <c r="AG25" s="26"/>
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="26"/>
+      <c r="AQ25" s="26"/>
+      <c r="AR25" s="26"/>
+      <c r="AS25" s="26"/>
+      <c r="AT25" s="26"/>
+      <c r="AU25" s="26"/>
+      <c r="AV25" s="26"/>
+      <c r="AW25" s="26"/>
+      <c r="AX25" s="26"/>
+      <c r="AY25" s="26"/>
+      <c r="AZ25" s="26"/>
+    </row>
+    <row r="26" spans="4:52">
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
+      <c r="AB26" s="26"/>
+      <c r="AC26" s="26"/>
+      <c r="AD26" s="26"/>
+      <c r="AE26" s="26"/>
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
+      <c r="AQ26" s="26"/>
+      <c r="AR26" s="26"/>
+      <c r="AS26" s="26"/>
+      <c r="AT26" s="26"/>
+      <c r="AU26" s="26"/>
+      <c r="AV26" s="26"/>
+      <c r="AW26" s="26"/>
+      <c r="AX26" s="26"/>
+      <c r="AY26" s="26"/>
+      <c r="AZ26" s="26"/>
+    </row>
+    <row r="27" spans="4:52">
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
+      <c r="AB27" s="26"/>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+      <c r="AE27" s="26"/>
+      <c r="AF27" s="26"/>
+      <c r="AG27" s="26"/>
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26"/>
+      <c r="AN27" s="26"/>
+      <c r="AO27" s="26"/>
+      <c r="AP27" s="26"/>
+      <c r="AQ27" s="26"/>
+      <c r="AR27" s="26"/>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="26"/>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="26"/>
+      <c r="AW27" s="26"/>
+      <c r="AX27" s="26"/>
+      <c r="AY27" s="26"/>
+      <c r="AZ27" s="26"/>
+    </row>
+    <row r="28" spans="4:52">
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="26"/>
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="26"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="26"/>
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="26"/>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="26"/>
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="26"/>
+      <c r="AW28" s="26"/>
+      <c r="AX28" s="26"/>
+      <c r="AY28" s="26"/>
+      <c r="AZ28" s="26"/>
+    </row>
+    <row r="29" spans="4:52">
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="26"/>
+      <c r="AA29" s="26"/>
+      <c r="AB29" s="26"/>
+      <c r="AC29" s="26"/>
+      <c r="AD29" s="26"/>
+      <c r="AE29" s="26"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="26"/>
+      <c r="AH29" s="26"/>
+      <c r="AI29" s="26"/>
+      <c r="AJ29" s="26"/>
+      <c r="AK29" s="26"/>
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="26"/>
+      <c r="AN29" s="26"/>
+      <c r="AO29" s="26"/>
+      <c r="AP29" s="26"/>
+      <c r="AQ29" s="26"/>
+      <c r="AR29" s="26"/>
+      <c r="AS29" s="26"/>
+      <c r="AT29" s="26"/>
+      <c r="AU29" s="26"/>
+      <c r="AV29" s="26"/>
+      <c r="AW29" s="26"/>
+      <c r="AX29" s="26"/>
+      <c r="AY29" s="26"/>
+      <c r="AZ29" s="26"/>
+    </row>
+    <row r="30" spans="4:52">
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
+      <c r="AB30" s="26"/>
+      <c r="AC30" s="26"/>
+      <c r="AD30" s="26"/>
+      <c r="AE30" s="26"/>
+      <c r="AF30" s="26"/>
+      <c r="AG30" s="26"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="26"/>
+      <c r="AN30" s="26"/>
+      <c r="AO30" s="26"/>
+      <c r="AP30" s="26"/>
+      <c r="AQ30" s="26"/>
+      <c r="AR30" s="26"/>
+      <c r="AS30" s="26"/>
+      <c r="AT30" s="26"/>
+      <c r="AU30" s="26"/>
+      <c r="AV30" s="26"/>
+      <c r="AW30" s="26"/>
+      <c r="AX30" s="26"/>
+      <c r="AY30" s="26"/>
+      <c r="AZ30" s="26"/>
+    </row>
+    <row r="31" spans="4:52">
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
+      <c r="AB31" s="26"/>
+      <c r="AC31" s="26"/>
+      <c r="AD31" s="26"/>
+      <c r="AE31" s="26"/>
+      <c r="AF31" s="26"/>
+      <c r="AG31" s="26"/>
+      <c r="AH31" s="26"/>
+      <c r="AI31" s="26"/>
+      <c r="AJ31" s="26"/>
+      <c r="AK31" s="26"/>
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="26"/>
+      <c r="AN31" s="26"/>
+      <c r="AO31" s="26"/>
+      <c r="AP31" s="26"/>
+      <c r="AQ31" s="26"/>
+      <c r="AR31" s="26"/>
+      <c r="AS31" s="26"/>
+      <c r="AT31" s="26"/>
+      <c r="AU31" s="26"/>
+      <c r="AV31" s="26"/>
+      <c r="AW31" s="26"/>
+      <c r="AX31" s="26"/>
+      <c r="AY31" s="26"/>
+      <c r="AZ31" s="26"/>
+    </row>
+    <row r="32" spans="4:52">
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="26"/>
+      <c r="AL32" s="26"/>
+      <c r="AM32" s="26"/>
+      <c r="AN32" s="26"/>
+      <c r="AO32" s="26"/>
+      <c r="AP32" s="26"/>
+      <c r="AQ32" s="26"/>
+      <c r="AR32" s="26"/>
+      <c r="AS32" s="26"/>
+      <c r="AT32" s="26"/>
+      <c r="AU32" s="26"/>
+      <c r="AV32" s="26"/>
+      <c r="AW32" s="26"/>
+      <c r="AX32" s="26"/>
+      <c r="AY32" s="26"/>
+      <c r="AZ32" s="26"/>
+    </row>
+    <row r="33" spans="4:52">
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
+      <c r="AB33" s="26"/>
+      <c r="AC33" s="26"/>
+      <c r="AD33" s="26"/>
+      <c r="AE33" s="26"/>
+      <c r="AF33" s="26"/>
+      <c r="AG33" s="26"/>
+      <c r="AH33" s="26"/>
+      <c r="AI33" s="26"/>
+      <c r="AJ33" s="26"/>
+      <c r="AK33" s="26"/>
+      <c r="AL33" s="26"/>
+      <c r="AM33" s="26"/>
+      <c r="AN33" s="26"/>
+      <c r="AO33" s="26"/>
+      <c r="AP33" s="26"/>
+      <c r="AQ33" s="26"/>
+      <c r="AR33" s="26"/>
+      <c r="AS33" s="26"/>
+      <c r="AT33" s="26"/>
+      <c r="AU33" s="26"/>
+      <c r="AV33" s="26"/>
+      <c r="AW33" s="26"/>
+      <c r="AX33" s="26"/>
+      <c r="AY33" s="26"/>
+      <c r="AZ33" s="26"/>
+    </row>
+    <row r="34" spans="4:52">
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
+      <c r="AG34" s="26"/>
+      <c r="AH34" s="26"/>
+      <c r="AI34" s="26"/>
+      <c r="AJ34" s="26"/>
+      <c r="AK34" s="26"/>
+      <c r="AL34" s="26"/>
+      <c r="AM34" s="26"/>
+      <c r="AN34" s="26"/>
+      <c r="AO34" s="26"/>
+      <c r="AP34" s="26"/>
+      <c r="AQ34" s="26"/>
+      <c r="AR34" s="26"/>
+      <c r="AS34" s="26"/>
+      <c r="AT34" s="26"/>
+      <c r="AU34" s="26"/>
+      <c r="AV34" s="26"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="26"/>
+      <c r="AY34" s="26"/>
+      <c r="AZ34" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B84EB83-54F8-46D9-B0C4-A2DCB02DF56B}">
+  <dimension ref="B6:J422"/>
+  <sheetViews>
+    <sheetView topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="B322" sqref="B322"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:10">
+      <c r="B6" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="J12" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C21" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="C25" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="C26" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="C28" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="C30" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="C31" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C33" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="C35" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="C39" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="C42" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C44" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="C46" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="C47" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="C48" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="C49" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="C51" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="C52" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="C53" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C55" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="C57" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="C58" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="C59" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="C60" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="C62" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="C63" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="C64" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="C65" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="C66" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="C67" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C69" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="C71" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="C72" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="C73" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="C74" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="C76" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="C78" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="C79" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="C80" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="C81" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="C82" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="C91" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="C92" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="C94" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="C95" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="C96" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="C97" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="C98" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="C99" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="C100" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="C101" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="C102" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="C103" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="C104" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="C105" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="C106" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="C107" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="C109" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5">
+      <c r="C113" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5">
+      <c r="C115" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5">
+      <c r="D117" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5">
+      <c r="D118" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5">
+      <c r="C120" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5">
+      <c r="D122" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5">
+      <c r="D124" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5">
+      <c r="E125" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5">
+      <c r="E126" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="128" spans="3:5">
+      <c r="D128" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="129" spans="3:5">
+      <c r="E129" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5">
+      <c r="E130" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5">
+      <c r="E131" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5">
+      <c r="E132" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5">
+      <c r="E133" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5">
+      <c r="D135" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5">
+      <c r="E136" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5">
+      <c r="E137" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5">
+      <c r="E138" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5">
+      <c r="C140" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5">
+      <c r="D141" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5">
+      <c r="D142" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="143" spans="3:5">
+      <c r="D143" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="144" spans="3:5">
+      <c r="D144" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="D145" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="C153" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="C154" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4">
+      <c r="C155" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="C156" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4">
+      <c r="C157" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="C160" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="C161" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="C162" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="C164" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="B170" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3">
+      <c r="B175" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3">
+      <c r="B176" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="3" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="15" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9">
+      <c r="B225" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9">
+      <c r="B227" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9">
+      <c r="B228" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9">
+      <c r="B229" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9">
+      <c r="B230" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9">
+      <c r="B232" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9">
+      <c r="B233" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9">
+      <c r="B234" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9">
+      <c r="B235" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9">
+      <c r="B237" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9">
+      <c r="B238" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9">
+      <c r="C239" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="6"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="6"/>
+      <c r="I239" s="6"/>
+    </row>
+    <row r="240" spans="2:9">
+      <c r="C240" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="6"/>
+      <c r="I240" s="6"/>
+    </row>
+    <row r="241" spans="2:10">
+      <c r="C241" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="6"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="6"/>
+      <c r="I241" s="6"/>
+    </row>
+    <row r="242" spans="2:10">
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6"/>
+      <c r="I242" s="6"/>
+    </row>
+    <row r="243" spans="2:10">
+      <c r="C243" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="6"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+      <c r="I243" s="6"/>
+    </row>
+    <row r="244" spans="2:10">
+      <c r="C244" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+      <c r="I244" s="6"/>
+    </row>
+    <row r="245" spans="2:10">
+      <c r="C245" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="6"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+      <c r="I245" s="6"/>
+    </row>
+    <row r="246" spans="2:10">
+      <c r="C246" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+      <c r="I246" s="6"/>
+    </row>
+    <row r="247" spans="2:10">
+      <c r="C247" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="6"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+      <c r="I247" s="6"/>
+    </row>
+    <row r="248" spans="2:10">
+      <c r="C248" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+      <c r="I248" s="6"/>
+    </row>
+    <row r="249" spans="2:10">
+      <c r="C249" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="6"/>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6"/>
+      <c r="I249" s="6"/>
+    </row>
+    <row r="251" spans="2:10">
+      <c r="B251" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="252" spans="2:10">
+      <c r="C252" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="6"/>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6"/>
+      <c r="I252" s="6"/>
+      <c r="J252" s="6"/>
+    </row>
+    <row r="253" spans="2:10">
+      <c r="C253" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+      <c r="I253" s="6"/>
+      <c r="J253" s="6"/>
+    </row>
+    <row r="254" spans="2:10">
+      <c r="C254" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+      <c r="I254" s="6"/>
+      <c r="J254" s="6"/>
+    </row>
+    <row r="255" spans="2:10">
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+      <c r="I255" s="6"/>
+      <c r="J255" s="6"/>
+    </row>
+    <row r="256" spans="2:10">
+      <c r="C256" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
+      <c r="I256" s="6"/>
+      <c r="J256" s="6"/>
+    </row>
+    <row r="257" spans="2:10">
+      <c r="C257" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="6"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+      <c r="I257" s="6"/>
+      <c r="J257" s="6"/>
+    </row>
+    <row r="258" spans="2:10">
+      <c r="C258" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="6"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6"/>
+      <c r="I258" s="6"/>
+      <c r="J258" s="6"/>
+    </row>
+    <row r="259" spans="2:10">
+      <c r="C259" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+      <c r="I259" s="6"/>
+      <c r="J259" s="6"/>
+    </row>
+    <row r="260" spans="2:10">
+      <c r="C260" s="6"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="6"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6"/>
+      <c r="I260" s="6"/>
+      <c r="J260" s="6"/>
+    </row>
+    <row r="261" spans="2:10">
+      <c r="C261" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="6"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="6"/>
+      <c r="I261" s="6"/>
+      <c r="J261" s="6"/>
+    </row>
+    <row r="262" spans="2:10">
+      <c r="C262" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="6"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="6"/>
+      <c r="I262" s="6"/>
+      <c r="J262" s="6"/>
+    </row>
+    <row r="263" spans="2:10">
+      <c r="C263" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="6"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="6"/>
+      <c r="I263" s="6"/>
+      <c r="J263" s="6"/>
+    </row>
+    <row r="264" spans="2:10">
+      <c r="C264" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
+      <c r="H264" s="6"/>
+      <c r="I264" s="6"/>
+      <c r="J264" s="6"/>
+    </row>
+    <row r="265" spans="2:10">
+      <c r="C265" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="6"/>
+      <c r="I265" s="6"/>
+      <c r="J265" s="6"/>
+    </row>
+    <row r="267" spans="2:10">
+      <c r="B267" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="268" spans="2:10">
+      <c r="C268" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="D268" s="6"/>
+      <c r="E268" s="6"/>
+      <c r="F268" s="6"/>
+      <c r="G268" s="6"/>
+      <c r="H268" s="6"/>
+      <c r="I268" s="6"/>
+      <c r="J268" s="6"/>
+    </row>
+    <row r="269" spans="2:10">
+      <c r="C269" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="D269" s="6"/>
+      <c r="E269" s="6"/>
+      <c r="F269" s="6"/>
+      <c r="G269" s="6"/>
+      <c r="H269" s="6"/>
+      <c r="I269" s="6"/>
+      <c r="J269" s="6"/>
+    </row>
+    <row r="270" spans="2:10">
+      <c r="C270" s="6"/>
+      <c r="D270" s="6"/>
+      <c r="E270" s="6"/>
+      <c r="F270" s="6"/>
+      <c r="G270" s="6"/>
+      <c r="H270" s="6"/>
+      <c r="I270" s="6"/>
+      <c r="J270" s="6"/>
+    </row>
+    <row r="271" spans="2:10">
+      <c r="C271" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="D271" s="6"/>
+      <c r="E271" s="6"/>
+      <c r="F271" s="6"/>
+      <c r="G271" s="6"/>
+      <c r="H271" s="6"/>
+      <c r="I271" s="6"/>
+      <c r="J271" s="6"/>
+    </row>
+    <row r="272" spans="2:10">
+      <c r="C272" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="D272" s="6"/>
+      <c r="E272" s="6"/>
+      <c r="F272" s="6"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
+      <c r="I272" s="6"/>
+      <c r="J272" s="6"/>
+    </row>
+    <row r="273" spans="3:10">
+      <c r="C273" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="D273" s="6"/>
+      <c r="E273" s="6"/>
+      <c r="F273" s="6"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="6"/>
+      <c r="I273" s="6"/>
+      <c r="J273" s="6"/>
+    </row>
+    <row r="274" spans="3:10">
+      <c r="C274" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="D274" s="6"/>
+      <c r="E274" s="6"/>
+      <c r="F274" s="6"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6"/>
+      <c r="I274" s="6"/>
+      <c r="J274" s="6"/>
+    </row>
+    <row r="275" spans="3:10">
+      <c r="C275" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="D275" s="6"/>
+      <c r="E275" s="6"/>
+      <c r="F275" s="6"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+      <c r="I275" s="6"/>
+      <c r="J275" s="6"/>
+    </row>
+    <row r="276" spans="3:10">
+      <c r="C276" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="D276" s="6"/>
+      <c r="E276" s="6"/>
+      <c r="F276" s="6"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+      <c r="I276" s="6"/>
+      <c r="J276" s="6"/>
+    </row>
+    <row r="277" spans="3:10">
+      <c r="C277" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="D277" s="6"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+      <c r="I277" s="6"/>
+      <c r="J277" s="6"/>
+    </row>
+    <row r="278" spans="3:10">
+      <c r="C278" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D278" s="6"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
+      <c r="I278" s="6"/>
+      <c r="J278" s="6"/>
+    </row>
+    <row r="279" spans="3:10">
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="6"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+      <c r="I279" s="6"/>
+      <c r="J279" s="6"/>
+    </row>
+    <row r="280" spans="3:10">
+      <c r="C280" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="D280" s="6"/>
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+      <c r="I280" s="6"/>
+      <c r="J280" s="6"/>
+    </row>
+    <row r="281" spans="3:10">
+      <c r="C281" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="D281" s="6"/>
+      <c r="E281" s="6"/>
+      <c r="F281" s="6"/>
+      <c r="G281" s="6"/>
+      <c r="H281" s="6"/>
+      <c r="I281" s="6"/>
+      <c r="J281" s="6"/>
+    </row>
+    <row r="282" spans="3:10">
+      <c r="C282" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="D282" s="6"/>
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
+      <c r="I282" s="6"/>
+      <c r="J282" s="6"/>
+    </row>
+    <row r="283" spans="3:10">
+      <c r="C283" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="D283" s="6"/>
+      <c r="E283" s="6"/>
+      <c r="F283" s="6"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
+      <c r="I283" s="6"/>
+      <c r="J283" s="6"/>
+    </row>
+    <row r="284" spans="3:10">
+      <c r="C284" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="D284" s="6"/>
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
+      <c r="G284" s="6"/>
+      <c r="H284" s="6"/>
+      <c r="I284" s="6"/>
+      <c r="J284" s="6"/>
+    </row>
+    <row r="285" spans="3:10">
+      <c r="C285" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="D285" s="6"/>
+      <c r="E285" s="6"/>
+      <c r="F285" s="6"/>
+      <c r="G285" s="6"/>
+      <c r="H285" s="6"/>
+      <c r="I285" s="6"/>
+      <c r="J285" s="6"/>
+    </row>
+    <row r="286" spans="3:10">
+      <c r="C286" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="D286" s="6"/>
+      <c r="E286" s="6"/>
+      <c r="F286" s="6"/>
+      <c r="G286" s="6"/>
+      <c r="H286" s="6"/>
+      <c r="I286" s="6"/>
+      <c r="J286" s="6"/>
+    </row>
+    <row r="287" spans="3:10">
+      <c r="C287" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="D287" s="6"/>
+      <c r="E287" s="6"/>
+      <c r="F287" s="6"/>
+      <c r="G287" s="6"/>
+      <c r="H287" s="6"/>
+      <c r="I287" s="6"/>
+      <c r="J287" s="6"/>
+    </row>
+    <row r="288" spans="3:10">
+      <c r="C288" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D288" s="6"/>
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
+      <c r="G288" s="6"/>
+      <c r="H288" s="6"/>
+      <c r="I288" s="6"/>
+      <c r="J288" s="6"/>
+    </row>
+    <row r="289" spans="2:10">
+      <c r="C289" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="D289" s="6"/>
+      <c r="E289" s="6"/>
+      <c r="F289" s="6"/>
+      <c r="G289" s="6"/>
+      <c r="H289" s="6"/>
+      <c r="I289" s="6"/>
+      <c r="J289" s="6"/>
+    </row>
+    <row r="293" spans="2:10">
+      <c r="B293" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="294" spans="2:10">
+      <c r="B294" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="295" spans="2:10">
+      <c r="B295" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="297" spans="2:10">
+      <c r="B297" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="298" spans="2:10">
+      <c r="B298" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="300" spans="2:10">
+      <c r="B300" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="301" spans="2:10">
+      <c r="B301" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="304" spans="2:10">
+      <c r="B304" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" s="3" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2">
+      <c r="B372" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2">
+      <c r="B373" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2">
+      <c r="B374" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2">
+      <c r="B382" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2">
+      <c r="B384" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2">
+      <c r="B385" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2">
+      <c r="B387" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2">
+      <c r="B388" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2">
+      <c r="B389" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2">
+      <c r="B390" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2">
+      <c r="B392" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2">
+      <c r="B393" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2">
+      <c r="B394" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2">
+      <c r="B395" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2">
+      <c r="B396" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2">
+      <c r="B397" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2">
+      <c r="B399" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2">
+      <c r="B401" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2">
+      <c r="B402" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2">
+      <c r="B403" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2">
+      <c r="B405" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2">
+      <c r="B407" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2">
+      <c r="B409" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2">
+      <c r="B410" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2">
+      <c r="B411" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2">
+      <c r="B412" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2">
+      <c r="B414" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2">
+      <c r="B415" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2">
+      <c r="B416" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2">
+      <c r="B417" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2">
+      <c r="B418" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2">
+      <c r="B419" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2">
+      <c r="B421" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2">
+      <c r="B422" t="s">
+        <v>979</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A260979B-AC5D-44AC-8A56-31F887E992EC}">
   <dimension ref="B2:J101"/>
   <sheetViews>
@@ -6052,7 +10859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981985AD-375E-43D0-827A-D4C89BA4242E}">
   <dimension ref="B4:O24"/>
   <sheetViews>
@@ -6194,6 +11001,967 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FF6450-600E-40AD-8F1C-A40D14B3DEBD}">
+  <dimension ref="B3:N224"/>
+  <sheetViews>
+    <sheetView topLeftCell="A193" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G215" sqref="G215"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C50" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
+        <v>306</v>
+      </c>
+      <c r="D54" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14">
+      <c r="B113" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14">
+      <c r="B114" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14">
+      <c r="B115" t="s">
+        <v>342</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14">
+      <c r="B117" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14">
+      <c r="B118" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14">
+      <c r="B120" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14">
+      <c r="B121" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14">
+      <c r="B123" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14">
+      <c r="B124" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14">
+      <c r="B125" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14">
+      <c r="B126" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="B136" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="C136" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D150" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4">
+      <c r="B155" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="B156" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4">
+      <c r="B158" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="C160" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6">
+      <c r="B161" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6">
+      <c r="C162" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6">
+      <c r="B163" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6">
+      <c r="B166" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D166" t="s">
+        <v>716</v>
+      </c>
+      <c r="F166" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6">
+      <c r="B167" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6">
+      <c r="B168" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6">
+      <c r="B169" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6">
+      <c r="B170" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6">
+      <c r="B171" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6">
+      <c r="B173" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6">
+      <c r="B174" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6">
+      <c r="B175" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6">
+      <c r="B176" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4">
+      <c r="B179" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4">
+      <c r="B180" s="15" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4">
+      <c r="B181" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4">
+      <c r="B182" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4">
+      <c r="C183" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4">
+      <c r="D184" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4">
+      <c r="D185" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4">
+      <c r="D186" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4">
+      <c r="C187" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4">
+      <c r="C188" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4">
+      <c r="B190" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4">
+      <c r="B191" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4">
+      <c r="B192" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7">
+      <c r="B195" s="3" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7">
+      <c r="B196" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="B197" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7">
+      <c r="B198" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7">
+      <c r="B201" s="3" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7">
+      <c r="B203" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7">
+      <c r="B204" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7">
+      <c r="B206" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7">
+      <c r="B207" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7">
+      <c r="B208" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G208" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7">
+      <c r="B209" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G209" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7">
+      <c r="B210" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G210" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7">
+      <c r="B211" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G211" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7">
+      <c r="B212" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7">
+      <c r="B213" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7">
+      <c r="B216" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7">
+      <c r="B217" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7">
+      <c r="B218" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7">
+      <c r="B219" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7">
+      <c r="B221" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7">
+      <c r="B222" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7">
+      <c r="B223" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7">
+      <c r="B224" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE9C7C9-0501-47DF-ADA3-DA5DE6CFF2AF}">
   <dimension ref="B2:E27"/>
   <sheetViews>
@@ -6498,7 +12266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E26DF2-27AF-4505-8D7F-313C12FC5CC0}">
   <dimension ref="B4:W61"/>
   <sheetViews>
@@ -6817,7 +12585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0957E3D-C1DB-4236-AD70-CE7D76C9D549}">
   <dimension ref="B2:F20"/>
   <sheetViews>
@@ -7012,11 +12780,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E03622-214E-42EF-A8A2-78D8D9D8A2CF}">
   <dimension ref="B3:D149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
@@ -7782,7 +13550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A3EBF5-FAA1-40B5-950A-1DD2A36888AB}">
   <dimension ref="B2:D96"/>
   <sheetViews>
@@ -8281,7 +14049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0C4B5E-41DC-4C00-8C61-AC6BCB95C4D9}">
   <dimension ref="B3:E46"/>
   <sheetViews>
@@ -8668,7 +14436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D662ED-7918-47B0-A440-7B2F86C0790F}">
   <dimension ref="B5:F14"/>
   <sheetViews>
@@ -8768,1945 +14536,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B84EB83-54F8-46D9-B0C4-A2DCB02DF56B}">
-  <dimension ref="B6:J422"/>
-  <sheetViews>
-    <sheetView topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="B322" sqref="B322"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:10">
-      <c r="B6" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="J12" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C21" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="C23" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="C24" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="C25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="C26" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="C28" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="C30" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="C31" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C33" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="C35" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="C37" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="C38" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="C39" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="C41" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="C42" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="C44" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="C46" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="C47" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="C48" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="C49" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="C51" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="C52" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="C53" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C55" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="C57" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="C58" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="C59" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="C60" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="C62" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="C63" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="C64" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="C65" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="C66" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="C67" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C69" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="C71" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="C72" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="C73" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="C74" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="C76" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="C78" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="C79" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3">
-      <c r="C80" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="C81" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="C82" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3">
-      <c r="B87" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3">
-      <c r="B89" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3">
-      <c r="C91" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3">
-      <c r="C92" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3">
-      <c r="C94" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3">
-      <c r="C95" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3">
-      <c r="C96" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3">
-      <c r="C97" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3">
-      <c r="C98" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3">
-      <c r="C99" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3">
-      <c r="C100" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3">
-      <c r="C101" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3">
-      <c r="C102" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3">
-      <c r="C103" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3">
-      <c r="C104" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3">
-      <c r="C105" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3">
-      <c r="C106" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="C107" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3">
-      <c r="C109" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="B111" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="113" spans="3:5">
-      <c r="C113" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="115" spans="3:5">
-      <c r="C115" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="117" spans="3:5">
-      <c r="D117" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="118" spans="3:5">
-      <c r="D118" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="120" spans="3:5">
-      <c r="C120" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="122" spans="3:5">
-      <c r="D122" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="124" spans="3:5">
-      <c r="D124" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="125" spans="3:5">
-      <c r="E125" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="126" spans="3:5">
-      <c r="E126" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="128" spans="3:5">
-      <c r="D128" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="129" spans="3:5">
-      <c r="E129" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="130" spans="3:5">
-      <c r="E130" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="131" spans="3:5">
-      <c r="E131" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="132" spans="3:5">
-      <c r="E132" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="133" spans="3:5">
-      <c r="E133" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="135" spans="3:5">
-      <c r="D135" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="136" spans="3:5">
-      <c r="E136" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="137" spans="3:5">
-      <c r="E137" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="138" spans="3:5">
-      <c r="E138" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="140" spans="3:5">
-      <c r="C140" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="141" spans="3:5">
-      <c r="D141" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="142" spans="3:5">
-      <c r="D142" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="143" spans="3:5">
-      <c r="D143" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="144" spans="3:5">
-      <c r="D144" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4">
-      <c r="D145" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4">
-      <c r="B148" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4">
-      <c r="B150" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4">
-      <c r="B152" s="3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4">
-      <c r="C153" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4">
-      <c r="C154" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4">
-      <c r="C155" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4">
-      <c r="C156" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4">
-      <c r="C157" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4">
-      <c r="B159" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4">
-      <c r="C160" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3">
-      <c r="C161" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3">
-      <c r="C162" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3">
-      <c r="C164" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3">
-      <c r="B168" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3">
-      <c r="B169" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3">
-      <c r="B170" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3">
-      <c r="B171" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3">
-      <c r="B173" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3">
-      <c r="B175" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3">
-      <c r="B176" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2">
-      <c r="B184" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2">
-      <c r="B186" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2">
-      <c r="B187" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2">
-      <c r="B188" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2">
-      <c r="B189" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2">
-      <c r="B191" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2">
-      <c r="B193" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2">
-      <c r="B194" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2">
-      <c r="B200" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2">
-      <c r="B202" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2">
-      <c r="B204" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209" s="3" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="15" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="212" spans="2:2">
-      <c r="B212" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2">
-      <c r="B213" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2">
-      <c r="B215" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2">
-      <c r="B216" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2">
-      <c r="B217" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2">
-      <c r="B219" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2">
-      <c r="B220" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2">
-      <c r="B221" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2">
-      <c r="B224" s="3" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="225" spans="2:9">
-      <c r="B225" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="227" spans="2:9">
-      <c r="B227" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="228" spans="2:9">
-      <c r="B228" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="229" spans="2:9">
-      <c r="B229" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="230" spans="2:9">
-      <c r="B230" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="232" spans="2:9">
-      <c r="B232" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="233" spans="2:9">
-      <c r="B233" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="234" spans="2:9">
-      <c r="B234" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="235" spans="2:9">
-      <c r="B235" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="237" spans="2:9">
-      <c r="B237" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="238" spans="2:9">
-      <c r="B238" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="239" spans="2:9">
-      <c r="C239" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="D239" s="6"/>
-      <c r="E239" s="6"/>
-      <c r="F239" s="6"/>
-      <c r="G239" s="6"/>
-      <c r="H239" s="6"/>
-      <c r="I239" s="6"/>
-    </row>
-    <row r="240" spans="2:9">
-      <c r="C240" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
-      <c r="F240" s="6"/>
-      <c r="G240" s="6"/>
-      <c r="H240" s="6"/>
-      <c r="I240" s="6"/>
-    </row>
-    <row r="241" spans="2:10">
-      <c r="C241" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="D241" s="6"/>
-      <c r="E241" s="6"/>
-      <c r="F241" s="6"/>
-      <c r="G241" s="6"/>
-      <c r="H241" s="6"/>
-      <c r="I241" s="6"/>
-    </row>
-    <row r="242" spans="2:10">
-      <c r="C242" s="6"/>
-      <c r="D242" s="6"/>
-      <c r="E242" s="6"/>
-      <c r="F242" s="6"/>
-      <c r="G242" s="6"/>
-      <c r="H242" s="6"/>
-      <c r="I242" s="6"/>
-    </row>
-    <row r="243" spans="2:10">
-      <c r="C243" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="D243" s="6"/>
-      <c r="E243" s="6"/>
-      <c r="F243" s="6"/>
-      <c r="G243" s="6"/>
-      <c r="H243" s="6"/>
-      <c r="I243" s="6"/>
-    </row>
-    <row r="244" spans="2:10">
-      <c r="C244" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="D244" s="6"/>
-      <c r="E244" s="6"/>
-      <c r="F244" s="6"/>
-      <c r="G244" s="6"/>
-      <c r="H244" s="6"/>
-      <c r="I244" s="6"/>
-    </row>
-    <row r="245" spans="2:10">
-      <c r="C245" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="D245" s="6"/>
-      <c r="E245" s="6"/>
-      <c r="F245" s="6"/>
-      <c r="G245" s="6"/>
-      <c r="H245" s="6"/>
-      <c r="I245" s="6"/>
-    </row>
-    <row r="246" spans="2:10">
-      <c r="C246" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="D246" s="6"/>
-      <c r="E246" s="6"/>
-      <c r="F246" s="6"/>
-      <c r="G246" s="6"/>
-      <c r="H246" s="6"/>
-      <c r="I246" s="6"/>
-    </row>
-    <row r="247" spans="2:10">
-      <c r="C247" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
-      <c r="F247" s="6"/>
-      <c r="G247" s="6"/>
-      <c r="H247" s="6"/>
-      <c r="I247" s="6"/>
-    </row>
-    <row r="248" spans="2:10">
-      <c r="C248" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D248" s="6"/>
-      <c r="E248" s="6"/>
-      <c r="F248" s="6"/>
-      <c r="G248" s="6"/>
-      <c r="H248" s="6"/>
-      <c r="I248" s="6"/>
-    </row>
-    <row r="249" spans="2:10">
-      <c r="C249" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D249" s="6"/>
-      <c r="E249" s="6"/>
-      <c r="F249" s="6"/>
-      <c r="G249" s="6"/>
-      <c r="H249" s="6"/>
-      <c r="I249" s="6"/>
-    </row>
-    <row r="251" spans="2:10">
-      <c r="B251" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="252" spans="2:10">
-      <c r="C252" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="D252" s="6"/>
-      <c r="E252" s="6"/>
-      <c r="F252" s="6"/>
-      <c r="G252" s="6"/>
-      <c r="H252" s="6"/>
-      <c r="I252" s="6"/>
-      <c r="J252" s="6"/>
-    </row>
-    <row r="253" spans="2:10">
-      <c r="C253" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="D253" s="6"/>
-      <c r="E253" s="6"/>
-      <c r="F253" s="6"/>
-      <c r="G253" s="6"/>
-      <c r="H253" s="6"/>
-      <c r="I253" s="6"/>
-      <c r="J253" s="6"/>
-    </row>
-    <row r="254" spans="2:10">
-      <c r="C254" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="D254" s="6"/>
-      <c r="E254" s="6"/>
-      <c r="F254" s="6"/>
-      <c r="G254" s="6"/>
-      <c r="H254" s="6"/>
-      <c r="I254" s="6"/>
-      <c r="J254" s="6"/>
-    </row>
-    <row r="255" spans="2:10">
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
-      <c r="F255" s="6"/>
-      <c r="G255" s="6"/>
-      <c r="H255" s="6"/>
-      <c r="I255" s="6"/>
-      <c r="J255" s="6"/>
-    </row>
-    <row r="256" spans="2:10">
-      <c r="C256" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
-      <c r="F256" s="6"/>
-      <c r="G256" s="6"/>
-      <c r="H256" s="6"/>
-      <c r="I256" s="6"/>
-      <c r="J256" s="6"/>
-    </row>
-    <row r="257" spans="2:10">
-      <c r="C257" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="D257" s="6"/>
-      <c r="E257" s="6"/>
-      <c r="F257" s="6"/>
-      <c r="G257" s="6"/>
-      <c r="H257" s="6"/>
-      <c r="I257" s="6"/>
-      <c r="J257" s="6"/>
-    </row>
-    <row r="258" spans="2:10">
-      <c r="C258" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="D258" s="6"/>
-      <c r="E258" s="6"/>
-      <c r="F258" s="6"/>
-      <c r="G258" s="6"/>
-      <c r="H258" s="6"/>
-      <c r="I258" s="6"/>
-      <c r="J258" s="6"/>
-    </row>
-    <row r="259" spans="2:10">
-      <c r="C259" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D259" s="6"/>
-      <c r="E259" s="6"/>
-      <c r="F259" s="6"/>
-      <c r="G259" s="6"/>
-      <c r="H259" s="6"/>
-      <c r="I259" s="6"/>
-      <c r="J259" s="6"/>
-    </row>
-    <row r="260" spans="2:10">
-      <c r="C260" s="6"/>
-      <c r="D260" s="6"/>
-      <c r="E260" s="6"/>
-      <c r="F260" s="6"/>
-      <c r="G260" s="6"/>
-      <c r="H260" s="6"/>
-      <c r="I260" s="6"/>
-      <c r="J260" s="6"/>
-    </row>
-    <row r="261" spans="2:10">
-      <c r="C261" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="D261" s="6"/>
-      <c r="E261" s="6"/>
-      <c r="F261" s="6"/>
-      <c r="G261" s="6"/>
-      <c r="H261" s="6"/>
-      <c r="I261" s="6"/>
-      <c r="J261" s="6"/>
-    </row>
-    <row r="262" spans="2:10">
-      <c r="C262" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
-      <c r="F262" s="6"/>
-      <c r="G262" s="6"/>
-      <c r="H262" s="6"/>
-      <c r="I262" s="6"/>
-      <c r="J262" s="6"/>
-    </row>
-    <row r="263" spans="2:10">
-      <c r="C263" s="6" t="s">
-        <v>844</v>
-      </c>
-      <c r="D263" s="6"/>
-      <c r="E263" s="6"/>
-      <c r="F263" s="6"/>
-      <c r="G263" s="6"/>
-      <c r="H263" s="6"/>
-      <c r="I263" s="6"/>
-      <c r="J263" s="6"/>
-    </row>
-    <row r="264" spans="2:10">
-      <c r="C264" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D264" s="6"/>
-      <c r="E264" s="6"/>
-      <c r="F264" s="6"/>
-      <c r="G264" s="6"/>
-      <c r="H264" s="6"/>
-      <c r="I264" s="6"/>
-      <c r="J264" s="6"/>
-    </row>
-    <row r="265" spans="2:10">
-      <c r="C265" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D265" s="6"/>
-      <c r="E265" s="6"/>
-      <c r="F265" s="6"/>
-      <c r="G265" s="6"/>
-      <c r="H265" s="6"/>
-      <c r="I265" s="6"/>
-      <c r="J265" s="6"/>
-    </row>
-    <row r="267" spans="2:10">
-      <c r="B267" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="268" spans="2:10">
-      <c r="C268" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="D268" s="6"/>
-      <c r="E268" s="6"/>
-      <c r="F268" s="6"/>
-      <c r="G268" s="6"/>
-      <c r="H268" s="6"/>
-      <c r="I268" s="6"/>
-      <c r="J268" s="6"/>
-    </row>
-    <row r="269" spans="2:10">
-      <c r="C269" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="D269" s="6"/>
-      <c r="E269" s="6"/>
-      <c r="F269" s="6"/>
-      <c r="G269" s="6"/>
-      <c r="H269" s="6"/>
-      <c r="I269" s="6"/>
-      <c r="J269" s="6"/>
-    </row>
-    <row r="270" spans="2:10">
-      <c r="C270" s="6"/>
-      <c r="D270" s="6"/>
-      <c r="E270" s="6"/>
-      <c r="F270" s="6"/>
-      <c r="G270" s="6"/>
-      <c r="H270" s="6"/>
-      <c r="I270" s="6"/>
-      <c r="J270" s="6"/>
-    </row>
-    <row r="271" spans="2:10">
-      <c r="C271" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="D271" s="6"/>
-      <c r="E271" s="6"/>
-      <c r="F271" s="6"/>
-      <c r="G271" s="6"/>
-      <c r="H271" s="6"/>
-      <c r="I271" s="6"/>
-      <c r="J271" s="6"/>
-    </row>
-    <row r="272" spans="2:10">
-      <c r="C272" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="D272" s="6"/>
-      <c r="E272" s="6"/>
-      <c r="F272" s="6"/>
-      <c r="G272" s="6"/>
-      <c r="H272" s="6"/>
-      <c r="I272" s="6"/>
-      <c r="J272" s="6"/>
-    </row>
-    <row r="273" spans="3:10">
-      <c r="C273" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="D273" s="6"/>
-      <c r="E273" s="6"/>
-      <c r="F273" s="6"/>
-      <c r="G273" s="6"/>
-      <c r="H273" s="6"/>
-      <c r="I273" s="6"/>
-      <c r="J273" s="6"/>
-    </row>
-    <row r="274" spans="3:10">
-      <c r="C274" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="D274" s="6"/>
-      <c r="E274" s="6"/>
-      <c r="F274" s="6"/>
-      <c r="G274" s="6"/>
-      <c r="H274" s="6"/>
-      <c r="I274" s="6"/>
-      <c r="J274" s="6"/>
-    </row>
-    <row r="275" spans="3:10">
-      <c r="C275" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="D275" s="6"/>
-      <c r="E275" s="6"/>
-      <c r="F275" s="6"/>
-      <c r="G275" s="6"/>
-      <c r="H275" s="6"/>
-      <c r="I275" s="6"/>
-      <c r="J275" s="6"/>
-    </row>
-    <row r="276" spans="3:10">
-      <c r="C276" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="D276" s="6"/>
-      <c r="E276" s="6"/>
-      <c r="F276" s="6"/>
-      <c r="G276" s="6"/>
-      <c r="H276" s="6"/>
-      <c r="I276" s="6"/>
-      <c r="J276" s="6"/>
-    </row>
-    <row r="277" spans="3:10">
-      <c r="C277" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="D277" s="6"/>
-      <c r="E277" s="6"/>
-      <c r="F277" s="6"/>
-      <c r="G277" s="6"/>
-      <c r="H277" s="6"/>
-      <c r="I277" s="6"/>
-      <c r="J277" s="6"/>
-    </row>
-    <row r="278" spans="3:10">
-      <c r="C278" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D278" s="6"/>
-      <c r="E278" s="6"/>
-      <c r="F278" s="6"/>
-      <c r="G278" s="6"/>
-      <c r="H278" s="6"/>
-      <c r="I278" s="6"/>
-      <c r="J278" s="6"/>
-    </row>
-    <row r="279" spans="3:10">
-      <c r="C279" s="6"/>
-      <c r="D279" s="6"/>
-      <c r="E279" s="6"/>
-      <c r="F279" s="6"/>
-      <c r="G279" s="6"/>
-      <c r="H279" s="6"/>
-      <c r="I279" s="6"/>
-      <c r="J279" s="6"/>
-    </row>
-    <row r="280" spans="3:10">
-      <c r="C280" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="D280" s="6"/>
-      <c r="E280" s="6"/>
-      <c r="F280" s="6"/>
-      <c r="G280" s="6"/>
-      <c r="H280" s="6"/>
-      <c r="I280" s="6"/>
-      <c r="J280" s="6"/>
-    </row>
-    <row r="281" spans="3:10">
-      <c r="C281" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="D281" s="6"/>
-      <c r="E281" s="6"/>
-      <c r="F281" s="6"/>
-      <c r="G281" s="6"/>
-      <c r="H281" s="6"/>
-      <c r="I281" s="6"/>
-      <c r="J281" s="6"/>
-    </row>
-    <row r="282" spans="3:10">
-      <c r="C282" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="D282" s="6"/>
-      <c r="E282" s="6"/>
-      <c r="F282" s="6"/>
-      <c r="G282" s="6"/>
-      <c r="H282" s="6"/>
-      <c r="I282" s="6"/>
-      <c r="J282" s="6"/>
-    </row>
-    <row r="283" spans="3:10">
-      <c r="C283" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="D283" s="6"/>
-      <c r="E283" s="6"/>
-      <c r="F283" s="6"/>
-      <c r="G283" s="6"/>
-      <c r="H283" s="6"/>
-      <c r="I283" s="6"/>
-      <c r="J283" s="6"/>
-    </row>
-    <row r="284" spans="3:10">
-      <c r="C284" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="D284" s="6"/>
-      <c r="E284" s="6"/>
-      <c r="F284" s="6"/>
-      <c r="G284" s="6"/>
-      <c r="H284" s="6"/>
-      <c r="I284" s="6"/>
-      <c r="J284" s="6"/>
-    </row>
-    <row r="285" spans="3:10">
-      <c r="C285" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="D285" s="6"/>
-      <c r="E285" s="6"/>
-      <c r="F285" s="6"/>
-      <c r="G285" s="6"/>
-      <c r="H285" s="6"/>
-      <c r="I285" s="6"/>
-      <c r="J285" s="6"/>
-    </row>
-    <row r="286" spans="3:10">
-      <c r="C286" s="6" t="s">
-        <v>859</v>
-      </c>
-      <c r="D286" s="6"/>
-      <c r="E286" s="6"/>
-      <c r="F286" s="6"/>
-      <c r="G286" s="6"/>
-      <c r="H286" s="6"/>
-      <c r="I286" s="6"/>
-      <c r="J286" s="6"/>
-    </row>
-    <row r="287" spans="3:10">
-      <c r="C287" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="D287" s="6"/>
-      <c r="E287" s="6"/>
-      <c r="F287" s="6"/>
-      <c r="G287" s="6"/>
-      <c r="H287" s="6"/>
-      <c r="I287" s="6"/>
-      <c r="J287" s="6"/>
-    </row>
-    <row r="288" spans="3:10">
-      <c r="C288" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D288" s="6"/>
-      <c r="E288" s="6"/>
-      <c r="F288" s="6"/>
-      <c r="G288" s="6"/>
-      <c r="H288" s="6"/>
-      <c r="I288" s="6"/>
-      <c r="J288" s="6"/>
-    </row>
-    <row r="289" spans="2:10">
-      <c r="C289" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D289" s="6"/>
-      <c r="E289" s="6"/>
-      <c r="F289" s="6"/>
-      <c r="G289" s="6"/>
-      <c r="H289" s="6"/>
-      <c r="I289" s="6"/>
-      <c r="J289" s="6"/>
-    </row>
-    <row r="293" spans="2:10">
-      <c r="B293" s="3" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="294" spans="2:10">
-      <c r="B294" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="295" spans="2:10">
-      <c r="B295" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="297" spans="2:10">
-      <c r="B297" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="298" spans="2:10">
-      <c r="B298" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="300" spans="2:10">
-      <c r="B300" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="301" spans="2:10">
-      <c r="B301" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="304" spans="2:10">
-      <c r="B304" s="3" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="305" spans="2:2">
-      <c r="B305" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="306" spans="2:2">
-      <c r="B306" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="307" spans="2:2">
-      <c r="B307" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="308" spans="2:2">
-      <c r="B308" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2">
-      <c r="B309" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="310" spans="2:2">
-      <c r="B310" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="312" spans="2:2">
-      <c r="B312" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="313" spans="2:2">
-      <c r="B313" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="314" spans="2:2">
-      <c r="B314" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="315" spans="2:2">
-      <c r="B315" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="316" spans="2:2">
-      <c r="B316" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="322" spans="2:2">
-      <c r="B322" s="3" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="323" spans="2:2">
-      <c r="B323" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="324" spans="2:2">
-      <c r="B324" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="325" spans="2:2">
-      <c r="B325" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="326" spans="2:2">
-      <c r="B326" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="327" spans="2:2">
-      <c r="B327" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="329" spans="2:2">
-      <c r="B329" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="330" spans="2:2">
-      <c r="B330" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="331" spans="2:2">
-      <c r="B331" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="333" spans="2:2">
-      <c r="B333" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="334" spans="2:2">
-      <c r="B334" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="335" spans="2:2">
-      <c r="B335" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="337" spans="2:2">
-      <c r="B337" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="338" spans="2:2">
-      <c r="B338" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="339" spans="2:2">
-      <c r="B339" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="340" spans="2:2">
-      <c r="B340" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="341" spans="2:2">
-      <c r="B341" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="342" spans="2:2">
-      <c r="B342" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="344" spans="2:2">
-      <c r="B344" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="345" spans="2:2">
-      <c r="B345" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="346" spans="2:2">
-      <c r="B346" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="347" spans="2:2">
-      <c r="B347" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="349" spans="2:2">
-      <c r="B349" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="350" spans="2:2">
-      <c r="B350" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="351" spans="2:2">
-      <c r="B351">
-        <v>8080</v>
-      </c>
-    </row>
-    <row r="352" spans="2:2">
-      <c r="B352" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="353" spans="2:2">
-      <c r="B353" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="354" spans="2:2">
-      <c r="B354" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="355" spans="2:2">
-      <c r="B355" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="356" spans="2:2">
-      <c r="B356" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="358" spans="2:2">
-      <c r="B358" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="359" spans="2:2">
-      <c r="B359" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="360" spans="2:2">
-      <c r="B360" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="362" spans="2:2">
-      <c r="B362" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="363" spans="2:2">
-      <c r="B363" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="365" spans="2:2">
-      <c r="B365" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="366" spans="2:2">
-      <c r="B366" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="368" spans="2:2">
-      <c r="B368" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="369" spans="2:2">
-      <c r="B369" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="370" spans="2:2">
-      <c r="B370" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="372" spans="2:2">
-      <c r="B372" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="373" spans="2:2">
-      <c r="B373" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="374" spans="2:2">
-      <c r="B374" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="375" spans="2:2">
-      <c r="B375" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="376" spans="2:2">
-      <c r="B376" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="377" spans="2:2">
-      <c r="B377" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="378" spans="2:2">
-      <c r="B378" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="380" spans="2:2">
-      <c r="B380" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="381" spans="2:2">
-      <c r="B381" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="382" spans="2:2">
-      <c r="B382" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="384" spans="2:2">
-      <c r="B384" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="385" spans="2:2">
-      <c r="B385" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="387" spans="2:2">
-      <c r="B387" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="388" spans="2:2">
-      <c r="B388" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="389" spans="2:2">
-      <c r="B389" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="390" spans="2:2">
-      <c r="B390" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="392" spans="2:2">
-      <c r="B392" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="393" spans="2:2">
-      <c r="B393" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="394" spans="2:2">
-      <c r="B394" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="395" spans="2:2">
-      <c r="B395" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="396" spans="2:2">
-      <c r="B396" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="397" spans="2:2">
-      <c r="B397" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="399" spans="2:2">
-      <c r="B399" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="401" spans="2:2">
-      <c r="B401" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="402" spans="2:2">
-      <c r="B402" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="403" spans="2:2">
-      <c r="B403" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="405" spans="2:2">
-      <c r="B405" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="407" spans="2:2">
-      <c r="B407" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="409" spans="2:2">
-      <c r="B409" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="410" spans="2:2">
-      <c r="B410" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="411" spans="2:2">
-      <c r="B411" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="412" spans="2:2">
-      <c r="B412" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="414" spans="2:2">
-      <c r="B414" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="415" spans="2:2">
-      <c r="B415" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="416" spans="2:2">
-      <c r="B416" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="417" spans="2:2">
-      <c r="B417" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="418" spans="2:2">
-      <c r="B418" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="419" spans="2:2">
-      <c r="B419" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="421" spans="2:2">
-      <c r="B421" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="422" spans="2:2">
-      <c r="B422" t="s">
-        <v>979</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/BAS_memo.xlsx
+++ b/BAS_memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\Public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4189FA7F-6B15-473A-8B1F-96A0C29B66F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65444E54-BBAE-4F0B-8BC4-6CB16DCF8EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54101B30-4A75-47ED-B1AB-27D6FB0ABB37}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <sheet name="Java(SpringBatch)" sheetId="8" r:id="rId10"/>
     <sheet name="DI" sheetId="10" r:id="rId11"/>
     <sheet name="yaml" sheetId="11" r:id="rId12"/>
+    <sheet name="空" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4182,15 +4183,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ローカル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブラウザ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SAPUI5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル（BAS）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4402,7 +4403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4490,12 +4491,21 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF99"/>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4541,6 +4551,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCCFF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4564,26 +4577,50 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>HDI </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>コンテナ  </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>データ領域</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4932,14 +4969,14 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>222437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>184337</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4954,8 +4991,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8848725" y="2105025"/>
-          <a:ext cx="4905375" cy="438150"/>
+          <a:off x="8974231" y="3752290"/>
+          <a:ext cx="4972050" cy="432547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4981,24 +5018,48 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>Spring Boot</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Spring Boot (Web</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0"/>
-            <a:t> (Web</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>サーバー</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5008,14 +5069,14 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>105895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>115419</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5030,8 +5091,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8848725" y="1590675"/>
-          <a:ext cx="4905375" cy="485774"/>
+          <a:off x="8974231" y="3165101"/>
+          <a:ext cx="4972050" cy="480171"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5057,20 +5118,48 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>CAP Java  (</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>フレームワーク</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5081,13 +5170,13 @@
       <xdr:col>32</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>212911</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5102,12 +5191,91 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8848725" y="733425"/>
-          <a:ext cx="4905375" cy="781049"/>
+          <a:off x="8974231" y="725020"/>
+          <a:ext cx="4972050" cy="2311773"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="66FF99"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CAP </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>アプリ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>191620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>153521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80AF6B3-EF23-61B3-BC5D-2ED4C66BD1A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2208679" y="3721473"/>
+          <a:ext cx="4975972" cy="432548"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCCFF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5131,13 +5299,26 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>CAP </a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SAP</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-            <a:t>アプリ</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> HANA Cloud  (DB)</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5146,22 +5327,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>244849</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>77881</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F80AF6B3-EF23-61B3-BC5D-2ED4C66BD1A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A85331-C31B-8751-86BA-D4A239551AAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5169,12 +5350,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2208679" y="3587002"/>
-          <a:ext cx="4975972" cy="432548"/>
+          <a:off x="2205878" y="5057775"/>
+          <a:ext cx="11745446" cy="432547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCCFF"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5196,152 +5380,48 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>SAP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1" baseline="0"/>
-            <a:t> HANA Cloud  (DB)</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A85331-C31B-8751-86BA-D4A239551AAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8848725" y="2724150"/>
-          <a:ext cx="4905375" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>Cloud Foundry (</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>基盤。実行環境。</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>PaaS)</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27CE69E8-64C3-F9B0-4125-080AC4614FA0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8848725" y="3295650"/>
-          <a:ext cx="4905375" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
-            <a:t>Linux</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5351,13 +5431,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5427,13 +5507,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>228599</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5499,13 +5579,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5527,18 +5607,19 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="66FF99"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent5"/>
         </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -5548,13 +5629,27 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>CAP </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>アプリ</a:t>
           </a:r>
         </a:p>
@@ -5564,15 +5659,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5588,8 +5683,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8848725" y="7200900"/>
-          <a:ext cx="4905375" cy="438150"/>
+          <a:off x="2274794" y="8528797"/>
+          <a:ext cx="11671487" cy="432547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5630,14 +5725,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>227199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>233642</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5654,9 +5749,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4143375" y="1123950"/>
-          <a:ext cx="4705350" cy="771525"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4202206" y="1874464"/>
+          <a:ext cx="4772025" cy="6443"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5689,13 +5784,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5757,13 +5852,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5823,13 +5918,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>119063</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5882,14 +5977,14 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5904,8 +5999,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13782675" y="5238750"/>
-          <a:ext cx="409575" cy="1990725"/>
+          <a:off x="13974856" y="5883089"/>
+          <a:ext cx="417419" cy="930088"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -5951,8 +6046,8 @@
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>212913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5967,8 +6062,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13782675" y="685800"/>
-          <a:ext cx="409575" cy="1990725"/>
+          <a:off x="13974856" y="680197"/>
+          <a:ext cx="417419" cy="2356598"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -6014,8 +6109,8 @@
     <xdr:to>
       <xdr:col>54</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6030,8 +6125,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14287500" y="1724025"/>
-          <a:ext cx="895350" cy="4438650"/>
+          <a:off x="14487525" y="1704415"/>
+          <a:ext cx="907116" cy="4794997"/>
         </a:xfrm>
         <a:prstGeom prst="curvedLeftArrow">
           <a:avLst/>
@@ -6139,13 +6234,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>256054</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>65554</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>185457</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>27454</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6161,8 +6256,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2217083" y="4066054"/>
-          <a:ext cx="4972050" cy="432547"/>
+          <a:off x="2217083" y="5558118"/>
+          <a:ext cx="11790270" cy="352424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6209,7 +6304,7 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>227199</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6260,13 +6355,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>235324</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>170049</xdr:rowOff>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -6279,14 +6374,12 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13946281" y="1111343"/>
-          <a:ext cx="3176307" cy="535922"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13962530" y="1053353"/>
+          <a:ext cx="3092823" cy="593912"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6313,6 +6406,277 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="吹き出し: 四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A4DA4F-030C-76FF-C294-0772E7DB49E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="112059" y="3406588"/>
+          <a:ext cx="1804147" cy="470647"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 80272"/>
+            <a:gd name="adj2" fmla="val 25992"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCCFF"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BTP Cockpit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>から作成する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="吹き出し: 四角形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DE09965-91EB-E507-62D4-574580E528A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="56030" y="762001"/>
+          <a:ext cx="1804147" cy="470647"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 80272"/>
+            <a:gd name="adj2" fmla="val 25992"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCCFF"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BTP Cockpit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>から作成する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="吹き出し: 四角形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8524245F-9A18-B9AB-5C50-C63BFA1DD709}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17044148" y="3709148"/>
+          <a:ext cx="1804147" cy="470647"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -89914"/>
+            <a:gd name="adj2" fmla="val 21230"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFCCFF"/>
+        </a:solidFill>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>cf</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コマンドでデプロイ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6615,10 +6979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1E2910-52C1-4E5C-A957-BB0119EF6EBB}">
-  <dimension ref="D2:BQ34"/>
+  <dimension ref="D2:BQ37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="BG30" sqref="BG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
@@ -6730,7 +7094,7 @@
       <c r="AY3" s="24"/>
       <c r="AZ3" s="24"/>
       <c r="BI3" s="22" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="4" spans="4:69">
@@ -6905,7 +7269,7 @@
       <c r="AZ6" s="24"/>
       <c r="BI6" s="27"/>
       <c r="BJ6" s="28" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="BK6" s="28"/>
       <c r="BL6" s="28"/>
@@ -7693,165 +8057,165 @@
       <c r="AZ20" s="24"/>
     </row>
     <row r="21" spans="4:52">
-      <c r="AF21" s="22"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="24"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="24"/>
+      <c r="AK21" s="24"/>
+      <c r="AL21" s="24"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="24"/>
+      <c r="AO21" s="24"/>
+      <c r="AP21" s="24"/>
+      <c r="AQ21" s="24"/>
+      <c r="AR21" s="24"/>
+      <c r="AS21" s="24"/>
+      <c r="AT21" s="24"/>
+      <c r="AU21" s="24"/>
+      <c r="AV21" s="24"/>
+      <c r="AW21" s="24"/>
+      <c r="AX21" s="24"/>
+      <c r="AY21" s="24"/>
+      <c r="AZ21" s="24"/>
     </row>
     <row r="22" spans="4:52">
-      <c r="D22" s="25" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="26"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="26"/>
-      <c r="AY22" s="26"/>
-      <c r="AZ22" s="26"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+      <c r="AF22" s="24"/>
+      <c r="AG22" s="24"/>
+      <c r="AH22" s="24"/>
+      <c r="AI22" s="24"/>
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="24"/>
+      <c r="AL22" s="24"/>
+      <c r="AM22" s="24"/>
+      <c r="AN22" s="24"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="24"/>
+      <c r="AR22" s="24"/>
+      <c r="AS22" s="24"/>
+      <c r="AT22" s="24"/>
+      <c r="AU22" s="24"/>
+      <c r="AV22" s="24"/>
+      <c r="AW22" s="24"/>
+      <c r="AX22" s="24"/>
+      <c r="AY22" s="24"/>
+      <c r="AZ22" s="24"/>
     </row>
     <row r="23" spans="4:52">
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26"/>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26"/>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="26"/>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="26"/>
-      <c r="AP23" s="26"/>
-      <c r="AQ23" s="26"/>
-      <c r="AR23" s="26"/>
-      <c r="AS23" s="26"/>
-      <c r="AT23" s="26"/>
-      <c r="AU23" s="26"/>
-      <c r="AV23" s="26"/>
-      <c r="AW23" s="26"/>
-      <c r="AX23" s="26"/>
-      <c r="AY23" s="26"/>
-      <c r="AZ23" s="26"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+      <c r="AF23" s="24"/>
+      <c r="AG23" s="24"/>
+      <c r="AH23" s="24"/>
+      <c r="AI23" s="24"/>
+      <c r="AJ23" s="24"/>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="24"/>
+      <c r="AM23" s="24"/>
+      <c r="AN23" s="24"/>
+      <c r="AO23" s="24"/>
+      <c r="AP23" s="24"/>
+      <c r="AQ23" s="24"/>
+      <c r="AR23" s="24"/>
+      <c r="AS23" s="24"/>
+      <c r="AT23" s="24"/>
+      <c r="AU23" s="24"/>
+      <c r="AV23" s="24"/>
+      <c r="AW23" s="24"/>
+      <c r="AX23" s="24"/>
+      <c r="AY23" s="24"/>
+      <c r="AZ23" s="24"/>
     </row>
     <row r="24" spans="4:52">
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="26"/>
-      <c r="AD24" s="26"/>
-      <c r="AE24" s="26"/>
-      <c r="AF24" s="26"/>
-      <c r="AG24" s="26"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="26"/>
-      <c r="AJ24" s="26"/>
-      <c r="AK24" s="26"/>
-      <c r="AL24" s="26"/>
-      <c r="AM24" s="26"/>
-      <c r="AN24" s="26"/>
-      <c r="AO24" s="26"/>
-      <c r="AP24" s="26"/>
-      <c r="AQ24" s="26"/>
-      <c r="AR24" s="26"/>
-      <c r="AS24" s="26"/>
-      <c r="AT24" s="26"/>
-      <c r="AU24" s="26"/>
-      <c r="AV24" s="26"/>
-      <c r="AW24" s="26"/>
-      <c r="AX24" s="26"/>
-      <c r="AY24" s="26"/>
-      <c r="AZ24" s="26"/>
+      <c r="AF24" s="22"/>
     </row>
     <row r="25" spans="4:52">
-      <c r="D25" s="26"/>
+      <c r="D25" s="25" t="s">
+        <v>1044</v>
+      </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -7907,7 +8271,7 @@
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="26"/>
       <c r="K26" s="26"/>
       <c r="L26" s="26"/>
@@ -8360,6 +8724,159 @@
       <c r="AY34" s="26"/>
       <c r="AZ34" s="26"/>
     </row>
+    <row r="35" spans="4:52">
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="26"/>
+      <c r="AH35" s="26"/>
+      <c r="AI35" s="26"/>
+      <c r="AJ35" s="26"/>
+      <c r="AK35" s="26"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="26"/>
+      <c r="AN35" s="26"/>
+      <c r="AO35" s="26"/>
+      <c r="AP35" s="26"/>
+      <c r="AQ35" s="26"/>
+      <c r="AR35" s="26"/>
+      <c r="AS35" s="26"/>
+      <c r="AT35" s="26"/>
+      <c r="AU35" s="26"/>
+      <c r="AV35" s="26"/>
+      <c r="AW35" s="26"/>
+      <c r="AX35" s="26"/>
+      <c r="AY35" s="26"/>
+      <c r="AZ35" s="26"/>
+    </row>
+    <row r="36" spans="4:52">
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="26"/>
+      <c r="AM36" s="26"/>
+      <c r="AN36" s="26"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="26"/>
+      <c r="AQ36" s="26"/>
+      <c r="AR36" s="26"/>
+      <c r="AS36" s="26"/>
+      <c r="AT36" s="26"/>
+      <c r="AU36" s="26"/>
+      <c r="AV36" s="26"/>
+      <c r="AW36" s="26"/>
+      <c r="AX36" s="26"/>
+      <c r="AY36" s="26"/>
+      <c r="AZ36" s="26"/>
+    </row>
+    <row r="37" spans="4:52">
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
+      <c r="AB37" s="26"/>
+      <c r="AC37" s="26"/>
+      <c r="AD37" s="26"/>
+      <c r="AE37" s="26"/>
+      <c r="AF37" s="26"/>
+      <c r="AG37" s="26"/>
+      <c r="AH37" s="26"/>
+      <c r="AI37" s="26"/>
+      <c r="AJ37" s="26"/>
+      <c r="AK37" s="26"/>
+      <c r="AL37" s="26"/>
+      <c r="AM37" s="26"/>
+      <c r="AN37" s="26"/>
+      <c r="AO37" s="26"/>
+      <c r="AP37" s="26"/>
+      <c r="AQ37" s="26"/>
+      <c r="AR37" s="26"/>
+      <c r="AS37" s="26"/>
+      <c r="AT37" s="26"/>
+      <c r="AU37" s="26"/>
+      <c r="AV37" s="26"/>
+      <c r="AW37" s="26"/>
+      <c r="AX37" s="26"/>
+      <c r="AY37" s="26"/>
+      <c r="AZ37" s="26"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11000,6 +11517,22 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB590EC-FBF1-4652-A375-1267042DD696}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="3.625" style="29"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FF6450-600E-40AD-8F1C-A40D14B3DEBD}">
   <dimension ref="B3:N224"/>
@@ -11966,7 +12499,7 @@
   <dimension ref="B2:E27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
